--- a/docs/content_history/pbr-2025-vm20-table-j-swaps.xlsx
+++ b/docs/content_history/pbr-2025-vm20-table-j-swaps.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\PBR\VM20_VM22_ProductSupport\PBR Production Web Data\Current Year\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0ACC05C-E165-4BBB-8442-9DFDF826DE93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B74C9146-FA5F-4FC8-92AF-9729C090FB8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25180" windowHeight="16140" tabRatio="795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="August_2025" sheetId="24" r:id="rId1"/>
-    <sheet name="July_2025" sheetId="23" r:id="rId2"/>
-    <sheet name="June_2025" sheetId="22" r:id="rId3"/>
-    <sheet name="May_2025" sheetId="21" r:id="rId4"/>
-    <sheet name="April_2025" sheetId="20" r:id="rId5"/>
-    <sheet name="March_2025" sheetId="19" r:id="rId6"/>
-    <sheet name="February_2025" sheetId="18" r:id="rId7"/>
-    <sheet name="January_2025" sheetId="17" r:id="rId8"/>
-    <sheet name="LIBOR to SOFR Disclosure" sheetId="16" r:id="rId9"/>
-    <sheet name="LEGAL DISCLAIMER" sheetId="11" r:id="rId10"/>
+    <sheet name="September_2025" sheetId="25" r:id="rId1"/>
+    <sheet name="August_2025" sheetId="24" r:id="rId2"/>
+    <sheet name="July_2025" sheetId="23" r:id="rId3"/>
+    <sheet name="June_2025" sheetId="22" r:id="rId4"/>
+    <sheet name="May_2025" sheetId="21" r:id="rId5"/>
+    <sheet name="April_2025" sheetId="20" r:id="rId6"/>
+    <sheet name="March_2025" sheetId="19" r:id="rId7"/>
+    <sheet name="February_2025" sheetId="18" r:id="rId8"/>
+    <sheet name="January_2025" sheetId="17" r:id="rId9"/>
+    <sheet name="LIBOR to SOFR Disclosure" sheetId="16" r:id="rId10"/>
+    <sheet name="LEGAL DISCLAIMER" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="19">
   <si>
     <t>Table J (01/31/2025) Swap Benchmark Spreads (in bps)</t>
   </si>
@@ -93,6 +94,9 @@
   </si>
   <si>
     <t>Table J (08/29/2025) Swap Benchmark Spreads (in bps)</t>
+  </si>
+  <si>
+    <t>Table J (09/30/2025) Swap Benchmark Spreads (in bps)</t>
   </si>
 </sst>
 </file>
@@ -1322,7 +1326,7 @@
                   <a14:compatExt spid="_x0000_s4104"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000008100000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000008100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1643,25 +1647,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF1BF4C2-4434-4B4D-94BE-B91D2B1C25FB}">
-  <sheetPr codeName="Sheet10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B53624B2-29FC-4CB9-A7C6-D02151E5E76D}">
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="3" width="19.7109375" customWidth="1"/>
+    <col min="1" max="3" width="19.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1672,7 +1675,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
@@ -1683,375 +1686,375 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="6">
-        <v>2.4274052947999998</v>
+        <v>3.4724288437999999</v>
       </c>
       <c r="C4" s="7">
-        <v>-8.9323407459999995</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-8.7943134349999994</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="6">
-        <v>6.9233750000000001</v>
+        <v>7.1986041667</v>
       </c>
       <c r="C5" s="6">
-        <v>-19.52623968</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-19.354541220000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>1</v>
       </c>
       <c r="B6" s="6">
-        <v>-4.9352799230000004</v>
+        <v>-1.620496771</v>
       </c>
       <c r="C6" s="6">
-        <v>-6.7272442290000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-6.6548716829999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>2</v>
       </c>
       <c r="B7" s="6">
-        <v>-16.797166900000001</v>
+        <v>-18.08999219</v>
       </c>
       <c r="C7" s="6">
-        <v>-9.3211937119999995</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-9.4155254589999995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>3</v>
       </c>
       <c r="B8" s="6">
-        <v>-25.41931786</v>
+        <v>-24.060127770000001</v>
       </c>
       <c r="C8" s="6">
-        <v>-13.31787988</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-13.506114780000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>4</v>
       </c>
       <c r="B9" s="6">
-        <v>-28.369605799999999</v>
+        <v>-28.39299746</v>
       </c>
       <c r="C9" s="6">
-        <v>-17.375943509999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-17.58532056</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>5</v>
       </c>
       <c r="B10" s="6">
-        <v>-31.338654399999999</v>
+        <v>-32.663276719999999</v>
       </c>
       <c r="C10" s="6">
-        <v>-20.336393009999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-20.535751099999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>6</v>
       </c>
       <c r="B11" s="6">
-        <v>-36.708971519999999</v>
+        <v>-37.277833360000002</v>
       </c>
       <c r="C11" s="6">
-        <v>-22.72584161</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-22.902821119999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>7</v>
       </c>
       <c r="B12" s="6">
-        <v>-41.584561260000001</v>
+        <v>-41.111146570000002</v>
       </c>
       <c r="C12" s="6">
-        <v>-24.420363980000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-24.550001640000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>8</v>
       </c>
       <c r="B13" s="6">
-        <v>-45.311712780000001</v>
+        <v>-43.73074767</v>
       </c>
       <c r="C13" s="6">
-        <v>-25.684859060000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-25.745643040000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>9</v>
       </c>
       <c r="B14" s="6">
-        <v>-48.763242890000001</v>
+        <v>-45.893263529999999</v>
       </c>
       <c r="C14" s="6">
-        <v>-26.69785263</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-26.687432439999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>10</v>
       </c>
       <c r="B15" s="6">
-        <v>-51.201561409999996</v>
+        <v>-47.532382470000002</v>
       </c>
       <c r="C15" s="6">
-        <v>-27.582636350000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-27.509151849999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>11</v>
       </c>
       <c r="B16" s="6">
-        <v>-53.71575412</v>
+        <v>-49.801419099999997</v>
       </c>
       <c r="C16" s="6">
-        <v>-28.617826610000002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-28.49967698</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <v>12</v>
       </c>
       <c r="B17" s="6">
-        <v>-57.024463849999997</v>
+        <v>-52.972064009999997</v>
       </c>
       <c r="C17" s="6">
-        <v>-29.917975439999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-29.778378839999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>13</v>
       </c>
       <c r="B18" s="6">
-        <v>-60.549191319999998</v>
+        <v>-56.523931099999999</v>
       </c>
       <c r="C18" s="6">
-        <v>-31.53835531</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-31.396261989999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
         <v>14</v>
       </c>
       <c r="B19" s="6">
-        <v>-63.802806199999999</v>
+        <v>-59.921281749999999</v>
       </c>
       <c r="C19" s="6">
-        <v>-33.356696409999998</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-33.225161249999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <v>15</v>
       </c>
       <c r="B20" s="6">
-        <v>-66.762346469999997</v>
+        <v>-62.96260916</v>
       </c>
       <c r="C20" s="6">
-        <v>-35.302736400000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-35.188960389999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <v>16</v>
       </c>
       <c r="B21" s="6">
-        <v>-69.330136980000006</v>
+        <v>-65.596927809999997</v>
       </c>
       <c r="C21" s="6">
-        <v>-37.342837660000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-37.250419440000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <v>17</v>
       </c>
       <c r="B22" s="6">
-        <v>-71.447141000000002</v>
+        <v>-67.763451720000006</v>
       </c>
       <c r="C22" s="6">
-        <v>-39.438690999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-39.368262309999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <v>18</v>
       </c>
       <c r="B23" s="6">
-        <v>-73.113739370000005</v>
+        <v>-69.482092859999995</v>
       </c>
       <c r="C23" s="6">
-        <v>-41.528823709999998</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-41.48089796</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <v>19</v>
       </c>
       <c r="B24" s="6">
-        <v>-74.425054669999994</v>
+        <v>-70.798923459999997</v>
       </c>
       <c r="C24" s="6">
-        <v>-43.558589079999997</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-43.531780380000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="5">
         <v>20</v>
       </c>
       <c r="B25" s="6">
-        <v>-75.417382239999995</v>
+        <v>-71.718027719999995</v>
       </c>
       <c r="C25" s="6">
-        <v>-45.465333350000002</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-45.458494930000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="5">
         <v>21</v>
       </c>
       <c r="B26" s="6">
-        <v>-76.16547018</v>
+        <v>-72.437862120000005</v>
       </c>
       <c r="C26" s="6">
-        <v>-47.288209500000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-47.299315040000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
         <v>22</v>
       </c>
       <c r="B27" s="6">
-        <v>-76.819767060000004</v>
+        <v>-73.023238430000006</v>
       </c>
       <c r="C27" s="6">
-        <v>-49.042219899999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-49.067344429999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <v>23</v>
       </c>
       <c r="B28" s="6">
-        <v>-77.388442879999999</v>
+        <v>-73.531606519999997</v>
       </c>
       <c r="C28" s="6">
-        <v>-50.655220579999998</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-50.689005350000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
         <v>24</v>
       </c>
       <c r="B29" s="6">
-        <v>-77.905349700000002</v>
+        <v>-73.993694950000005</v>
       </c>
       <c r="C29" s="6">
-        <v>-52.06386045</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-52.100942850000003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
         <v>25</v>
       </c>
       <c r="B30" s="6">
-        <v>-78.460760759999999</v>
+        <v>-74.449839019999999</v>
       </c>
       <c r="C30" s="6">
-        <v>-53.208640240000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-53.242964989999997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="5">
         <v>26</v>
       </c>
       <c r="B31" s="6">
-        <v>-78.975641449999998</v>
+        <v>-74.930953400000007</v>
       </c>
       <c r="C31" s="6">
-        <v>-54.057813240000002</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-54.083172519999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="5">
         <v>27</v>
       </c>
       <c r="B32" s="6">
-        <v>-79.518717260000003</v>
+        <v>-75.361595589999993</v>
       </c>
       <c r="C32" s="6">
-        <v>-54.629336690000002</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-54.637301020000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="5">
         <v>28</v>
       </c>
       <c r="B33" s="6">
-        <v>-80.048485589999999</v>
+        <v>-75.834056259999997</v>
       </c>
       <c r="C33" s="6">
-        <v>-54.923712899999998</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-54.906561940000003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="5">
         <v>29</v>
       </c>
       <c r="B34" s="6">
-        <v>-80.649995489999995</v>
+        <v>-76.42380532</v>
       </c>
       <c r="C34" s="6">
-        <v>-54.94017556</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-54.889495689999997</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="5">
         <v>30</v>
       </c>
       <c r="B35" s="6">
-        <v>-81.347776449999998</v>
+        <v>-76.999753440000006</v>
       </c>
       <c r="C35" s="6">
-        <v>-54.716363970000003</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-54.624402969999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B36" s="8">
-        <v>-55.435866171506248</v>
+        <v>-52.632136413765615</v>
       </c>
       <c r="C36" s="8">
-        <v>-34.820068949906251</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-34.811259049906248</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="9" t="s">
         <v>10</v>
       </c>
@@ -2069,6 +2072,22 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F25262A5-84B2-4BF6-AF4E-DBAA1AC8379B}">
+  <sheetPr codeName="Sheet8">
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet7">
     <tabColor rgb="FFFFFF00"/>
@@ -2077,9 +2096,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="31" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H31" s="1"/>
     </row>
   </sheetData>
@@ -2119,25 +2138,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6CB6296-F480-49B2-B4EA-61908574360C}">
-  <sheetPr codeName="Sheet6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF1BF4C2-4434-4B4D-94BE-B91D2B1C25FB}">
+  <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="3" width="19.5703125" customWidth="1"/>
+    <col min="1" max="3" width="19.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -2148,7 +2167,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
@@ -2159,375 +2178,375 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="6">
-        <v>-2.2946285739999999</v>
+        <v>2.4274052947999998</v>
       </c>
       <c r="C4" s="7">
-        <v>-8.9452178999999994</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-8.9323407459999995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="6">
-        <v>-5.7495708329999999</v>
+        <v>6.9233750000000001</v>
       </c>
       <c r="C5" s="6">
-        <v>-19.547263749999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-19.52623968</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>1</v>
       </c>
       <c r="B6" s="6">
-        <v>-7.1317397000000005E-2</v>
+        <v>-4.9352799230000004</v>
       </c>
       <c r="C6" s="6">
-        <v>-6.7054342739999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-6.7272442290000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>2</v>
       </c>
       <c r="B7" s="6">
-        <v>-19.698836140000001</v>
+        <v>-16.797166900000001</v>
       </c>
       <c r="C7" s="6">
-        <v>-9.287519219</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-9.3211937119999995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>3</v>
       </c>
       <c r="B8" s="6">
-        <v>-26.461069389999999</v>
+        <v>-25.41931786</v>
       </c>
       <c r="C8" s="6">
-        <v>-13.290643230000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-13.31787988</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>4</v>
       </c>
       <c r="B9" s="6">
-        <v>-30.113616839999999</v>
+        <v>-28.369605799999999</v>
       </c>
       <c r="C9" s="6">
-        <v>-17.35225642</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-17.375943509999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>5</v>
       </c>
       <c r="B10" s="6">
-        <v>-33.795157619999998</v>
+        <v>-31.338654399999999</v>
       </c>
       <c r="C10" s="6">
-        <v>-20.310462810000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-20.336393009999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>6</v>
       </c>
       <c r="B11" s="6">
-        <v>-38.593029180000002</v>
+        <v>-36.708971519999999</v>
       </c>
       <c r="C11" s="6">
-        <v>-22.693275400000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-22.72584161</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>7</v>
       </c>
       <c r="B12" s="6">
-        <v>-42.763459320000003</v>
+        <v>-41.584561260000001</v>
       </c>
       <c r="C12" s="6">
-        <v>-24.382036589999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-24.420363980000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>8</v>
       </c>
       <c r="B13" s="6">
-        <v>-45.915071730000001</v>
+        <v>-45.311712780000001</v>
       </c>
       <c r="C13" s="6">
-        <v>-25.643973679999998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-25.684859060000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>9</v>
       </c>
       <c r="B14" s="6">
-        <v>-48.749800209999997</v>
+        <v>-48.763242890000001</v>
       </c>
       <c r="C14" s="6">
-        <v>-26.656041980000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-26.69785263</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>10</v>
       </c>
       <c r="B15" s="6">
-        <v>-50.927608079999999</v>
+        <v>-51.201561409999996</v>
       </c>
       <c r="C15" s="6">
-        <v>-27.540698630000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-27.582636350000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>11</v>
       </c>
       <c r="B16" s="6">
-        <v>-53.388492530000001</v>
+        <v>-53.71575412</v>
       </c>
       <c r="C16" s="6">
-        <v>-28.575592530000002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-28.617826610000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <v>12</v>
       </c>
       <c r="B17" s="6">
-        <v>-56.704416449999997</v>
+        <v>-57.024463849999997</v>
       </c>
       <c r="C17" s="6">
-        <v>-29.87441793</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-29.917975439999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>13</v>
       </c>
       <c r="B18" s="6">
-        <v>-60.284736819999999</v>
+        <v>-60.549191319999998</v>
       </c>
       <c r="C18" s="6">
-        <v>-31.493182990000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-31.53835531</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
         <v>14</v>
       </c>
       <c r="B19" s="6">
-        <v>-63.73719689</v>
+        <v>-63.802806199999999</v>
       </c>
       <c r="C19" s="6">
-        <v>-33.310273520000003</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-33.356696409999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <v>15</v>
       </c>
       <c r="B20" s="6">
-        <v>-66.889132689999997</v>
+        <v>-66.762346469999997</v>
       </c>
       <c r="C20" s="6">
-        <v>-35.255477339999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-35.302736400000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <v>16</v>
       </c>
       <c r="B21" s="6">
-        <v>-69.683531700000003</v>
+        <v>-69.330136980000006</v>
       </c>
       <c r="C21" s="6">
-        <v>-37.295356040000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-37.342837660000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <v>17</v>
       </c>
       <c r="B22" s="6">
-        <v>-72.018601439999998</v>
+        <v>-71.447141000000002</v>
       </c>
       <c r="C22" s="6">
-        <v>-39.391869059999998</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-39.438690999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <v>18</v>
       </c>
       <c r="B23" s="6">
-        <v>-73.887692729999998</v>
+        <v>-73.113739370000005</v>
       </c>
       <c r="C23" s="6">
-        <v>-41.483149300000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-41.528823709999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <v>19</v>
       </c>
       <c r="B24" s="6">
-        <v>-75.336575179999997</v>
+        <v>-74.425054669999994</v>
       </c>
       <c r="C24" s="6">
-        <v>-43.514330309999998</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-43.558589079999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="5">
         <v>20</v>
       </c>
       <c r="B25" s="6">
-        <v>-76.336133829999994</v>
+        <v>-75.417382239999995</v>
       </c>
       <c r="C25" s="6">
-        <v>-45.422490160000002</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-45.465333350000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="5">
         <v>21</v>
       </c>
       <c r="B26" s="6">
-        <v>-77.119025969999996</v>
+        <v>-76.16547018</v>
       </c>
       <c r="C26" s="6">
-        <v>-47.246572129999997</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-47.288209500000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
         <v>22</v>
       </c>
       <c r="B27" s="6">
-        <v>-77.701040239999998</v>
+        <v>-76.819767060000004</v>
       </c>
       <c r="C27" s="6">
-        <v>-49.001913780000002</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-49.042219899999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <v>23</v>
       </c>
       <c r="B28" s="6">
-        <v>-78.269945379999996</v>
+        <v>-77.388442879999999</v>
       </c>
       <c r="C28" s="6">
-        <v>-50.6161222</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-50.655220579999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
         <v>24</v>
       </c>
       <c r="B29" s="6">
-        <v>-78.729215969999998</v>
+        <v>-77.905349700000002</v>
       </c>
       <c r="C29" s="6">
-        <v>-52.02565139</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-52.06386045</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
         <v>25</v>
       </c>
       <c r="B30" s="6">
-        <v>-79.191535920000007</v>
+        <v>-78.460760759999999</v>
       </c>
       <c r="C30" s="6">
-        <v>-53.170931439999997</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-53.208640240000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="5">
         <v>26</v>
       </c>
       <c r="B31" s="6">
-        <v>-79.690444580000005</v>
+        <v>-78.975641449999998</v>
       </c>
       <c r="C31" s="6">
-        <v>-54.020373749999997</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-54.057813240000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="5">
         <v>27</v>
       </c>
       <c r="B32" s="6">
-        <v>-80.149463859999997</v>
+        <v>-79.518717260000003</v>
       </c>
       <c r="C32" s="6">
-        <v>-54.592056280000001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-54.629336690000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="5">
         <v>28</v>
       </c>
       <c r="B33" s="6">
-        <v>-80.703749779999995</v>
+        <v>-80.048485589999999</v>
       </c>
       <c r="C33" s="6">
-        <v>-54.886465020000003</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-54.923712899999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="5">
         <v>29</v>
       </c>
       <c r="B34" s="6">
-        <v>-81.270359029999995</v>
+        <v>-80.649995489999995</v>
       </c>
       <c r="C34" s="6">
-        <v>-54.902809339999997</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-54.94017556</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="5">
         <v>30</v>
       </c>
       <c r="B35" s="6">
-        <v>-81.931367850000001</v>
+        <v>-81.347776449999998</v>
       </c>
       <c r="C35" s="6">
-        <v>-54.678748370000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-54.716363970000003</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B36" s="8">
-        <v>-56.504869504812497</v>
+        <v>-55.435866171506248</v>
       </c>
       <c r="C36" s="8">
-        <v>-34.784768961343744</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-34.820068949906251</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="9" t="s">
         <v>10</v>
       </c>
@@ -2545,25 +2564,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CE138FB-FABF-4565-91D3-7A1FC3DB0D62}">
-  <sheetPr codeName="Sheet9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6CB6296-F480-49B2-B4EA-61908574360C}">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="3" width="19.7109375" customWidth="1"/>
+    <col min="1" max="3" width="19.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -2574,7 +2593,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
@@ -2585,375 +2604,375 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="6">
-        <v>-3.134627745</v>
+        <v>-2.2946285739999999</v>
       </c>
       <c r="C4" s="7">
-        <v>-8.8844283669999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-8.9452178999999994</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="6">
-        <v>-8.2969333330000001</v>
+        <v>-5.7495708329999999</v>
       </c>
       <c r="C5" s="6">
-        <v>-19.512517620000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-19.547263749999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>1</v>
       </c>
       <c r="B6" s="6">
-        <v>-6.6978339240000002</v>
+        <v>-7.1317397000000005E-2</v>
       </c>
       <c r="C6" s="6">
-        <v>-6.6477093030000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-6.7054342739999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>2</v>
       </c>
       <c r="B7" s="6">
-        <v>-20.079526210000001</v>
+        <v>-19.698836140000001</v>
       </c>
       <c r="C7" s="6">
-        <v>-9.1898018480000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-9.287519219</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>3</v>
       </c>
       <c r="B8" s="6">
-        <v>-25.12024143</v>
+        <v>-26.461069389999999</v>
       </c>
       <c r="C8" s="6">
-        <v>-13.198829760000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-13.290643230000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>4</v>
       </c>
       <c r="B9" s="6">
-        <v>-29.36769408</v>
+        <v>-30.113616839999999</v>
       </c>
       <c r="C9" s="6">
-        <v>-17.264819159999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-17.35225642</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>5</v>
       </c>
       <c r="B10" s="6">
-        <v>-33.358860460000002</v>
+        <v>-33.795157619999998</v>
       </c>
       <c r="C10" s="6">
-        <v>-20.231054740000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-20.310462810000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>6</v>
       </c>
       <c r="B11" s="6">
-        <v>-37.754778389999998</v>
+        <v>-38.593029180000002</v>
       </c>
       <c r="C11" s="6">
-        <v>-22.611586800000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-22.693275400000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>7</v>
       </c>
       <c r="B12" s="6">
-        <v>-41.873334020000001</v>
+        <v>-42.763459320000003</v>
       </c>
       <c r="C12" s="6">
-        <v>-24.303556700000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-24.382036589999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>8</v>
       </c>
       <c r="B13" s="6">
-        <v>-45.608564309999998</v>
+        <v>-45.915071730000001</v>
       </c>
       <c r="C13" s="6">
-        <v>-25.5850501</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-25.643973679999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>9</v>
       </c>
       <c r="B14" s="6">
-        <v>-49.215965189999999</v>
+        <v>-48.749800209999997</v>
       </c>
       <c r="C14" s="6">
-        <v>-26.623976379999998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-26.656041980000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>10</v>
       </c>
       <c r="B15" s="6">
-        <v>-52.039830119999998</v>
+        <v>-50.927608079999999</v>
       </c>
       <c r="C15" s="6">
-        <v>-27.534580980000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-27.540698630000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>11</v>
       </c>
       <c r="B16" s="6">
-        <v>-54.872374749999999</v>
+        <v>-53.388492530000001</v>
       </c>
       <c r="C16" s="6">
-        <v>-28.588661819999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-28.575592530000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <v>12</v>
       </c>
       <c r="B17" s="6">
-        <v>-58.332384300000001</v>
+        <v>-56.704416449999997</v>
       </c>
       <c r="C17" s="6">
-        <v>-29.896902310000002</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-29.87441793</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>13</v>
       </c>
       <c r="B18" s="6">
-        <v>-62.021799209999998</v>
+        <v>-60.284736819999999</v>
       </c>
       <c r="C18" s="6">
-        <v>-31.517388799999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-31.493182990000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
         <v>14</v>
       </c>
       <c r="B19" s="6">
-        <v>-65.753993679999994</v>
+        <v>-63.73719689</v>
       </c>
       <c r="C19" s="6">
-        <v>-33.330963150000002</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-33.310273520000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <v>15</v>
       </c>
       <c r="B20" s="6">
-        <v>-69.271178689999999</v>
+        <v>-66.889132689999997</v>
       </c>
       <c r="C20" s="6">
-        <v>-35.270356630000002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-35.255477339999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <v>16</v>
       </c>
       <c r="B21" s="6">
-        <v>-72.389395980000003</v>
+        <v>-69.683531700000003</v>
       </c>
       <c r="C21" s="6">
-        <v>-37.304146250000002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-37.295356040000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <v>17</v>
       </c>
       <c r="B22" s="6">
-        <v>-75.004637059999993</v>
+        <v>-72.018601439999998</v>
       </c>
       <c r="C22" s="6">
-        <v>-39.395071459999997</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-39.391869059999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <v>18</v>
       </c>
       <c r="B23" s="6">
-        <v>-77.091579780000004</v>
+        <v>-73.887692729999998</v>
       </c>
       <c r="C23" s="6">
-        <v>-41.480578600000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-41.483149300000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <v>19</v>
       </c>
       <c r="B24" s="6">
-        <v>-78.617889880000007</v>
+        <v>-75.336575179999997</v>
       </c>
       <c r="C24" s="6">
-        <v>-43.506062659999998</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-43.514330309999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="5">
         <v>20</v>
       </c>
       <c r="B25" s="6">
-        <v>-79.676858940000002</v>
+        <v>-76.336133829999994</v>
       </c>
       <c r="C25" s="6">
-        <v>-45.407974009999997</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-45.422490160000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="5">
         <v>21</v>
       </c>
       <c r="B26" s="6">
-        <v>-80.394952880000005</v>
+        <v>-77.119025969999996</v>
       </c>
       <c r="C26" s="6">
-        <v>-47.225787050000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-47.246572129999997</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
         <v>22</v>
       </c>
       <c r="B27" s="6">
-        <v>-80.985263750000001</v>
+        <v>-77.701040239999998</v>
       </c>
       <c r="C27" s="6">
-        <v>-48.97460959</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-49.001913780000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <v>23</v>
       </c>
       <c r="B28" s="6">
-        <v>-81.424163550000003</v>
+        <v>-78.269945379999996</v>
       </c>
       <c r="C28" s="6">
-        <v>-50.583230579999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-50.6161222</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
         <v>24</v>
       </c>
       <c r="B29" s="6">
-        <v>-81.838858110000004</v>
+        <v>-78.729215969999998</v>
       </c>
       <c r="C29" s="6">
-        <v>-51.987863869999998</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-52.02565139</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
         <v>25</v>
       </c>
       <c r="B30" s="6">
-        <v>-82.241103469999999</v>
+        <v>-79.191535920000007</v>
       </c>
       <c r="C30" s="6">
-        <v>-53.129099150000002</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-53.170931439999997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="5">
         <v>26</v>
       </c>
       <c r="B31" s="6">
-        <v>-82.546846930000001</v>
+        <v>-79.690444580000005</v>
       </c>
       <c r="C31" s="6">
-        <v>-53.975407799999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-54.020373749999997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="5">
         <v>27</v>
       </c>
       <c r="B32" s="6">
-        <v>-82.865706590000002</v>
+        <v>-80.149463859999997</v>
       </c>
       <c r="C32" s="6">
-        <v>-54.546183999999997</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-54.592056280000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="5">
         <v>28</v>
       </c>
       <c r="B33" s="6">
-        <v>-83.223837489999994</v>
+        <v>-80.703749779999995</v>
       </c>
       <c r="C33" s="6">
-        <v>-54.84183324</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-54.886465020000003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="5">
         <v>29</v>
       </c>
       <c r="B34" s="6">
-        <v>-83.649046080000005</v>
+        <v>-81.270359029999995</v>
       </c>
       <c r="C34" s="6">
-        <v>-54.862228979999998</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-54.902809339999997</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="5">
         <v>30</v>
       </c>
       <c r="B35" s="6">
-        <v>-84.139728160000004</v>
+        <v>-81.931367850000001</v>
       </c>
       <c r="C35" s="6">
-        <v>-54.644783750000002</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-54.678748370000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B36" s="8">
-        <v>-58.402805890375014</v>
+        <v>-56.504869504812497</v>
       </c>
       <c r="C36" s="8">
-        <v>-34.751782670562498</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-34.784768961343744</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="9" t="s">
         <v>10</v>
       </c>
@@ -2971,25 +2990,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68A65C64-A2BC-4A28-9AE0-4ADFC897F100}">
-  <sheetPr codeName="Sheet2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CE138FB-FABF-4565-91D3-7A1FC3DB0D62}">
+  <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="3" width="19.7109375" customWidth="1"/>
+    <col min="1" max="3" width="19.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -3000,7 +3019,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
@@ -3011,375 +3030,375 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="6">
-        <v>5.0859756707999999</v>
+        <v>-3.134627745</v>
       </c>
       <c r="C4" s="7">
-        <v>-8.7527777610000008</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-8.8844283669999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="6">
-        <v>-3.2122312499999999</v>
+        <v>-8.2969333330000001</v>
       </c>
       <c r="C5" s="6">
-        <v>-19.551172210000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-19.512517620000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>1</v>
       </c>
       <c r="B6" s="6">
-        <v>-5.3938096389999997</v>
+        <v>-6.6978339240000002</v>
       </c>
       <c r="C6" s="6">
-        <v>-6.6258483119999996</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-6.6477093030000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>2</v>
       </c>
       <c r="B7" s="6">
-        <v>-17.6383081</v>
+        <v>-20.079526210000001</v>
       </c>
       <c r="C7" s="6">
-        <v>-9.1118174399999994</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-9.1898018480000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>3</v>
       </c>
       <c r="B8" s="6">
-        <v>-25.470428269999999</v>
+        <v>-25.12024143</v>
       </c>
       <c r="C8" s="6">
-        <v>-13.10593925</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-13.198829760000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>4</v>
       </c>
       <c r="B9" s="6">
-        <v>-28.583784139999999</v>
+        <v>-29.36769408</v>
       </c>
       <c r="C9" s="6">
-        <v>-17.15966766</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-17.264819159999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>5</v>
       </c>
       <c r="B10" s="6">
-        <v>-32.313720269999997</v>
+        <v>-33.358860460000002</v>
       </c>
       <c r="C10" s="6">
-        <v>-20.109887100000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-20.231054740000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>6</v>
       </c>
       <c r="B11" s="6">
-        <v>-38.931783619999997</v>
+        <v>-37.754778389999998</v>
       </c>
       <c r="C11" s="6">
-        <v>-22.460405290000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-22.611586800000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>7</v>
       </c>
       <c r="B12" s="6">
-        <v>-44.193969389999999</v>
+        <v>-41.873334020000001</v>
       </c>
       <c r="C12" s="6">
-        <v>-24.13231854</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-24.303556700000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>8</v>
       </c>
       <c r="B13" s="6">
-        <v>-47.542450969999997</v>
+        <v>-45.608564309999998</v>
       </c>
       <c r="C13" s="6">
-        <v>-25.411235569999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-25.5850501</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>9</v>
       </c>
       <c r="B14" s="6">
-        <v>-50.163651139999999</v>
+        <v>-49.215965189999999</v>
       </c>
       <c r="C14" s="6">
-        <v>-26.454934649999998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-26.623976379999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>10</v>
       </c>
       <c r="B15" s="6">
-        <v>-52.336857309999999</v>
+        <v>-52.039830119999998</v>
       </c>
       <c r="C15" s="6">
-        <v>-27.373401099999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-27.534580980000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>11</v>
       </c>
       <c r="B16" s="6">
-        <v>-54.971295679999997</v>
+        <v>-54.872374749999999</v>
       </c>
       <c r="C16" s="6">
-        <v>-28.430558510000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-28.588661819999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <v>12</v>
       </c>
       <c r="B17" s="6">
-        <v>-58.43417676</v>
+        <v>-58.332384300000001</v>
       </c>
       <c r="C17" s="6">
-        <v>-29.734671070000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-29.896902310000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>13</v>
       </c>
       <c r="B18" s="6">
-        <v>-62.293765010000001</v>
+        <v>-62.021799209999998</v>
       </c>
       <c r="C18" s="6">
-        <v>-31.348709249999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-31.517388799999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
         <v>14</v>
       </c>
       <c r="B19" s="6">
-        <v>-66.011600229999999</v>
+        <v>-65.753993679999994</v>
       </c>
       <c r="C19" s="6">
-        <v>-33.155734270000004</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-33.330963150000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <v>15</v>
       </c>
       <c r="B20" s="6">
-        <v>-69.414165049999994</v>
+        <v>-69.271178689999999</v>
       </c>
       <c r="C20" s="6">
-        <v>-35.089932470000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-35.270356630000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <v>16</v>
       </c>
       <c r="B21" s="6">
-        <v>-72.491311699999997</v>
+        <v>-72.389395980000003</v>
       </c>
       <c r="C21" s="6">
-        <v>-37.12107932</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-37.304146250000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <v>17</v>
       </c>
       <c r="B22" s="6">
-        <v>-75.090810840000003</v>
+        <v>-75.004637059999993</v>
       </c>
       <c r="C22" s="6">
-        <v>-39.212890770000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-39.395071459999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <v>18</v>
       </c>
       <c r="B23" s="6">
-        <v>-77.190148410000006</v>
+        <v>-77.091579780000004</v>
       </c>
       <c r="C23" s="6">
-        <v>-41.302100979999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-41.480578600000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <v>19</v>
       </c>
       <c r="B24" s="6">
-        <v>-78.831857769999999</v>
+        <v>-78.617889880000007</v>
       </c>
       <c r="C24" s="6">
-        <v>-43.333805429999998</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-43.506062659999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="5">
         <v>20</v>
       </c>
       <c r="B25" s="6">
-        <v>-79.984670260000001</v>
+        <v>-79.676858940000002</v>
       </c>
       <c r="C25" s="6">
-        <v>-45.243860439999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-45.407974009999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="5">
         <v>21</v>
       </c>
       <c r="B26" s="6">
-        <v>-80.892094299999997</v>
+        <v>-80.394952880000005</v>
       </c>
       <c r="C26" s="6">
-        <v>-47.07103085</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-47.225787050000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
         <v>22</v>
       </c>
       <c r="B27" s="6">
-        <v>-81.584893280000003</v>
+        <v>-80.985263750000001</v>
       </c>
       <c r="C27" s="6">
-        <v>-48.82968099</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-48.97460959</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <v>23</v>
       </c>
       <c r="B28" s="6">
-        <v>-82.188618529999999</v>
+        <v>-81.424163550000003</v>
       </c>
       <c r="C28" s="6">
-        <v>-50.447831409999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-50.583230579999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
         <v>24</v>
       </c>
       <c r="B29" s="6">
-        <v>-82.680878059999998</v>
+        <v>-81.838858110000004</v>
       </c>
       <c r="C29" s="6">
-        <v>-51.860813120000003</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-51.987863869999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
         <v>25</v>
       </c>
       <c r="B30" s="6">
-        <v>-83.151031070000002</v>
+        <v>-82.241103469999999</v>
       </c>
       <c r="C30" s="6">
-        <v>-53.008224439999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-53.129099150000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="5">
         <v>26</v>
       </c>
       <c r="B31" s="6">
-        <v>-83.591067050000007</v>
+        <v>-82.546846930000001</v>
       </c>
       <c r="C31" s="6">
-        <v>-53.858057080000002</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-53.975407799999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="5">
         <v>27</v>
       </c>
       <c r="B32" s="6">
-        <v>-84.032647600000004</v>
+        <v>-82.865706590000002</v>
       </c>
       <c r="C32" s="6">
-        <v>-54.429723799999998</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-54.546183999999997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="5">
         <v>28</v>
       </c>
       <c r="B33" s="6">
-        <v>-84.520683610000006</v>
+        <v>-83.223837489999994</v>
       </c>
       <c r="C33" s="6">
-        <v>-54.723002950000001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-54.84183324</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="5">
         <v>29</v>
       </c>
       <c r="B34" s="6">
-        <v>-85.024842120000002</v>
+        <v>-83.649046080000005</v>
       </c>
       <c r="C34" s="6">
-        <v>-54.737616420000002</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-54.862228979999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="5">
         <v>30</v>
       </c>
       <c r="B35" s="6">
-        <v>-85.635214500000004</v>
+        <v>-84.139728160000004</v>
       </c>
       <c r="C35" s="6">
-        <v>-54.511005230000002</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-54.644783750000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B36" s="8">
-        <v>-58.397212195568756</v>
+        <v>-58.402805890375014</v>
       </c>
       <c r="C36" s="8">
-        <v>-34.615616677593756</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-34.751782670562498</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="9" t="s">
         <v>10</v>
       </c>
@@ -3397,25 +3416,25 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36971AA9-8593-40CA-AF5E-AB605D9DEDA6}">
-  <sheetPr codeName="Sheet3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68A65C64-A2BC-4A28-9AE0-4ADFC897F100}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="3" width="19.7109375" customWidth="1"/>
+    <col min="1" max="3" width="19.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -3426,7 +3445,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
@@ -3437,375 +3456,375 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="6">
-        <v>4.1547234381999996</v>
+        <v>5.0859756707999999</v>
       </c>
       <c r="C4" s="7">
-        <v>-8.7729818769999994</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-8.7527777610000008</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="6">
-        <v>-3.0644604169999998</v>
+        <v>-3.2122312499999999</v>
       </c>
       <c r="C5" s="6">
-        <v>-19.613466630000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-19.551172210000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>1</v>
       </c>
       <c r="B6" s="6">
-        <v>-8.3353299070000002</v>
+        <v>-5.3938096389999997</v>
       </c>
       <c r="C6" s="6">
-        <v>-6.5920257690000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-6.6258483119999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>2</v>
       </c>
       <c r="B7" s="6">
-        <v>-19.893430649999999</v>
+        <v>-17.6383081</v>
       </c>
       <c r="C7" s="6">
-        <v>-8.9759842499999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-9.1118174399999994</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>3</v>
       </c>
       <c r="B8" s="6">
-        <v>-24.992195519999999</v>
+        <v>-25.470428269999999</v>
       </c>
       <c r="C8" s="6">
-        <v>-12.948592189999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-13.10593925</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>4</v>
       </c>
       <c r="B9" s="6">
-        <v>-28.96165951</v>
+        <v>-28.583784139999999</v>
       </c>
       <c r="C9" s="6">
-        <v>-16.995025210000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-17.15966766</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>5</v>
       </c>
       <c r="B10" s="6">
-        <v>-33.009018849999997</v>
+        <v>-32.313720269999997</v>
       </c>
       <c r="C10" s="6">
-        <v>-19.939108900000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-20.109887100000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>6</v>
       </c>
       <c r="B11" s="6">
-        <v>-37.627369420000001</v>
+        <v>-38.931783619999997</v>
       </c>
       <c r="C11" s="6">
-        <v>-22.281845090000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-22.460405290000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>7</v>
       </c>
       <c r="B12" s="6">
-        <v>-41.938092330000003</v>
+        <v>-44.193969389999999</v>
       </c>
       <c r="C12" s="6">
-        <v>-23.96185191</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-24.13231854</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>8</v>
       </c>
       <c r="B13" s="6">
-        <v>-45.036503719999999</v>
+        <v>-47.542450969999997</v>
       </c>
       <c r="C13" s="6">
-        <v>-25.260750699999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-25.411235569999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>9</v>
       </c>
       <c r="B14" s="6">
-        <v>-47.993867690000002</v>
+        <v>-50.163651139999999</v>
       </c>
       <c r="C14" s="6">
-        <v>-26.324118139999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-26.454934649999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>10</v>
       </c>
       <c r="B15" s="6">
-        <v>-50.266548649999997</v>
+        <v>-52.336857309999999</v>
       </c>
       <c r="C15" s="6">
-        <v>-27.258422979999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-27.373401099999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>11</v>
       </c>
       <c r="B16" s="6">
-        <v>-52.839158380000001</v>
+        <v>-54.971295679999997</v>
       </c>
       <c r="C16" s="6">
-        <v>-28.321130780000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-28.430558510000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <v>12</v>
       </c>
       <c r="B17" s="6">
-        <v>-55.857302109999999</v>
+        <v>-58.43417676</v>
       </c>
       <c r="C17" s="6">
-        <v>-29.618544570000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-29.734671070000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>13</v>
       </c>
       <c r="B18" s="6">
-        <v>-59.28285846</v>
+        <v>-62.293765010000001</v>
       </c>
       <c r="C18" s="6">
-        <v>-31.21828373</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-31.348709249999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
         <v>14</v>
       </c>
       <c r="B19" s="6">
-        <v>-62.82900472</v>
+        <v>-66.011600229999999</v>
       </c>
       <c r="C19" s="6">
-        <v>-33.007581989999998</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-33.155734270000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <v>15</v>
       </c>
       <c r="B20" s="6">
-        <v>-66.30202894</v>
+        <v>-69.414165049999994</v>
       </c>
       <c r="C20" s="6">
-        <v>-34.923720619999997</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-35.089932470000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <v>16</v>
       </c>
       <c r="B21" s="6">
-        <v>-69.429021000000006</v>
+        <v>-72.491311699999997</v>
       </c>
       <c r="C21" s="6">
-        <v>-36.938704399999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-37.12107932</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <v>17</v>
       </c>
       <c r="B22" s="6">
-        <v>-71.996276929999993</v>
+        <v>-75.090810840000003</v>
       </c>
       <c r="C22" s="6">
-        <v>-39.017543459999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-39.212890770000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <v>18</v>
       </c>
       <c r="B23" s="6">
-        <v>-74.120905410000006</v>
+        <v>-77.190148410000006</v>
       </c>
       <c r="C23" s="6">
-        <v>-41.096324389999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-41.302100979999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <v>19</v>
       </c>
       <c r="B24" s="6">
-        <v>-75.72266922</v>
+        <v>-78.831857769999999</v>
       </c>
       <c r="C24" s="6">
-        <v>-43.120406600000003</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-43.333805429999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="5">
         <v>20</v>
       </c>
       <c r="B25" s="6">
-        <v>-76.814629780000004</v>
+        <v>-79.984670260000001</v>
       </c>
       <c r="C25" s="6">
-        <v>-45.024940800000003</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-45.243860439999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="5">
         <v>21</v>
       </c>
       <c r="B26" s="6">
-        <v>-77.543292080000001</v>
+        <v>-80.892094299999997</v>
       </c>
       <c r="C26" s="6">
-        <v>-46.848219200000003</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-47.07103085</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
         <v>22</v>
       </c>
       <c r="B27" s="6">
-        <v>-78.176580079999994</v>
+        <v>-81.584893280000003</v>
       </c>
       <c r="C27" s="6">
-        <v>-48.604353869999997</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-48.82968099</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <v>23</v>
       </c>
       <c r="B28" s="6">
-        <v>-78.724552770000003</v>
+        <v>-82.188618529999999</v>
       </c>
       <c r="C28" s="6">
-        <v>-50.221350350000002</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-50.447831409999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
         <v>24</v>
       </c>
       <c r="B29" s="6">
-        <v>-79.196423719999999</v>
+        <v>-82.680878059999998</v>
       </c>
       <c r="C29" s="6">
-        <v>-51.634098569999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-51.860813120000003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
         <v>25</v>
       </c>
       <c r="B30" s="6">
-        <v>-79.598995669999994</v>
+        <v>-83.151031070000002</v>
       </c>
       <c r="C30" s="6">
-        <v>-52.781638620000003</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-53.008224439999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="5">
         <v>26</v>
       </c>
       <c r="B31" s="6">
-        <v>-80.010856020000006</v>
+        <v>-83.591067050000007</v>
       </c>
       <c r="C31" s="6">
-        <v>-53.63195022</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-53.858057080000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="5">
         <v>27</v>
       </c>
       <c r="B32" s="6">
-        <v>-80.42384946</v>
+        <v>-84.032647600000004</v>
       </c>
       <c r="C32" s="6">
-        <v>-54.205015520000003</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-54.429723799999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="5">
         <v>28</v>
       </c>
       <c r="B33" s="6">
-        <v>-80.822470280000005</v>
+        <v>-84.520683610000006</v>
       </c>
       <c r="C33" s="6">
-        <v>-54.500440560000001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-54.723002950000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="5">
         <v>29</v>
       </c>
       <c r="B34" s="6">
-        <v>-81.315941719999998</v>
+        <v>-85.024842120000002</v>
       </c>
       <c r="C34" s="6">
-        <v>-54.517990879999999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-54.737616420000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="5">
         <v>30</v>
       </c>
       <c r="B35" s="6">
-        <v>-81.931346050000002</v>
+        <v>-85.635214500000004</v>
       </c>
       <c r="C35" s="6">
-        <v>-54.294941199999997</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-54.511005230000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B36" s="8">
-        <v>-56.246934875806247</v>
+        <v>-58.397212195568756</v>
       </c>
       <c r="C36" s="8">
-        <v>-34.451604811749995</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-34.615616677593756</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="9" t="s">
         <v>10</v>
       </c>
@@ -3823,25 +3842,25 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F00F7CDB-E2F7-42FB-8E4C-712A9F309635}">
-  <sheetPr codeName="Sheet4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36971AA9-8593-40CA-AF5E-AB605D9DEDA6}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="3" width="19.5703125" customWidth="1"/>
+    <col min="1" max="3" width="19.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -3852,7 +3871,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
@@ -3863,375 +3882,375 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="6">
-        <v>5.4069184514000002</v>
+        <v>4.1547234381999996</v>
       </c>
       <c r="C4" s="7">
-        <v>-8.9050473659999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-8.7729818769999994</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="6">
-        <v>2.37319375</v>
+        <v>-3.0644604169999998</v>
       </c>
       <c r="C5" s="6">
-        <v>-19.794978459999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-19.613466630000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>1</v>
       </c>
       <c r="B6" s="6">
-        <v>-2.35371679</v>
+        <v>-8.3353299070000002</v>
       </c>
       <c r="C6" s="6">
-        <v>-6.639183472</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-6.5920257690000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>2</v>
       </c>
       <c r="B7" s="6">
-        <v>-12.934701130000001</v>
+        <v>-19.893430649999999</v>
       </c>
       <c r="C7" s="6">
-        <v>-8.9260524790000009</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-8.9759842499999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>3</v>
       </c>
       <c r="B8" s="6">
-        <v>-19.97415548</v>
+        <v>-24.992195519999999</v>
       </c>
       <c r="C8" s="6">
-        <v>-12.832645080000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-12.948592189999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>4</v>
       </c>
       <c r="B9" s="6">
-        <v>-23.36141718</v>
+        <v>-28.96165951</v>
       </c>
       <c r="C9" s="6">
-        <v>-16.857665950000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-16.995025210000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>5</v>
       </c>
       <c r="B10" s="6">
-        <v>-26.713230490000001</v>
+        <v>-33.009018849999997</v>
       </c>
       <c r="C10" s="6">
-        <v>-19.796963720000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-19.939108900000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>6</v>
       </c>
       <c r="B11" s="6">
-        <v>-31.213914580000001</v>
+        <v>-37.627369420000001</v>
       </c>
       <c r="C11" s="6">
-        <v>-22.141197810000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-22.281845090000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>7</v>
       </c>
       <c r="B12" s="6">
-        <v>-35.071936430000001</v>
+        <v>-41.938092330000003</v>
       </c>
       <c r="C12" s="6">
-        <v>-23.833215809999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-23.96185191</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>8</v>
       </c>
       <c r="B13" s="6">
-        <v>-37.632387629999997</v>
+        <v>-45.036503719999999</v>
       </c>
       <c r="C13" s="6">
-        <v>-25.154644170000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-25.260750699999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>9</v>
       </c>
       <c r="B14" s="6">
-        <v>-39.872103250000002</v>
+        <v>-47.993867690000002</v>
       </c>
       <c r="C14" s="6">
-        <v>-26.238820130000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-26.324118139999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>10</v>
       </c>
       <c r="B15" s="6">
-        <v>-41.871231889999997</v>
+        <v>-50.266548649999997</v>
       </c>
       <c r="C15" s="6">
-        <v>-27.189217970000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-27.258422979999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>11</v>
       </c>
       <c r="B16" s="6">
-        <v>-44.309430540000001</v>
+        <v>-52.839158380000001</v>
       </c>
       <c r="C16" s="6">
-        <v>-28.257803729999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-28.321130780000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <v>12</v>
       </c>
       <c r="B17" s="6">
-        <v>-47.56648946</v>
+        <v>-55.857302109999999</v>
       </c>
       <c r="C17" s="6">
-        <v>-29.548414300000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-29.618544570000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>13</v>
       </c>
       <c r="B18" s="6">
-        <v>-51.069484750000001</v>
+        <v>-59.28285846</v>
       </c>
       <c r="C18" s="6">
-        <v>-31.132498510000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-31.21828373</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
         <v>14</v>
       </c>
       <c r="B19" s="6">
-        <v>-54.464428939999998</v>
+        <v>-62.82900472</v>
       </c>
       <c r="C19" s="6">
-        <v>-32.901003469999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-33.007581989999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <v>15</v>
       </c>
       <c r="B20" s="6">
-        <v>-57.549075340000002</v>
+        <v>-66.30202894</v>
       </c>
       <c r="C20" s="6">
-        <v>-34.795199869999998</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-34.923720619999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <v>16</v>
       </c>
       <c r="B21" s="6">
-        <v>-60.243913120000002</v>
+        <v>-69.429021000000006</v>
       </c>
       <c r="C21" s="6">
-        <v>-36.78972907</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-36.938704399999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <v>17</v>
       </c>
       <c r="B22" s="6">
-        <v>-62.562240760000002</v>
+        <v>-71.996276929999993</v>
       </c>
       <c r="C22" s="6">
-        <v>-38.850998400000002</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-39.017543459999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <v>18</v>
       </c>
       <c r="B23" s="6">
-        <v>-64.466430939999995</v>
+        <v>-74.120905410000006</v>
       </c>
       <c r="C23" s="6">
-        <v>-40.914266439999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-41.096324389999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <v>19</v>
       </c>
       <c r="B24" s="6">
-        <v>-66.032298119999993</v>
+        <v>-75.72266922</v>
       </c>
       <c r="C24" s="6">
-        <v>-42.925040979999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-43.120406600000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="5">
         <v>20</v>
       </c>
       <c r="B25" s="6">
-        <v>-67.192876929999997</v>
+        <v>-76.814629780000004</v>
       </c>
       <c r="C25" s="6">
-        <v>-44.818083479999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-45.024940800000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="5">
         <v>21</v>
       </c>
       <c r="B26" s="6">
-        <v>-68.111643880000003</v>
+        <v>-77.543292080000001</v>
       </c>
       <c r="C26" s="6">
-        <v>-46.631318229999998</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-46.848219200000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
         <v>22</v>
       </c>
       <c r="B27" s="6">
-        <v>-68.932081030000006</v>
+        <v>-78.176580079999994</v>
       </c>
       <c r="C27" s="6">
-        <v>-48.378785520000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-48.604353869999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <v>23</v>
       </c>
       <c r="B28" s="6">
-        <v>-69.679363550000005</v>
+        <v>-78.724552770000003</v>
       </c>
       <c r="C28" s="6">
-        <v>-49.9887157</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-50.221350350000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
         <v>24</v>
       </c>
       <c r="B29" s="6">
-        <v>-70.388793120000003</v>
+        <v>-79.196423719999999</v>
       </c>
       <c r="C29" s="6">
-        <v>-51.396031000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-51.634098569999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
         <v>25</v>
       </c>
       <c r="B30" s="6">
-        <v>-71.113094469999993</v>
+        <v>-79.598995669999994</v>
       </c>
       <c r="C30" s="6">
-        <v>-52.539457319999997</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-52.781638620000003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="5">
         <v>26</v>
       </c>
       <c r="B31" s="6">
-        <v>-71.765117129999993</v>
+        <v>-80.010856020000006</v>
       </c>
       <c r="C31" s="6">
-        <v>-53.387141470000003</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-53.63195022</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="5">
         <v>27</v>
       </c>
       <c r="B32" s="6">
-        <v>-72.390873580000004</v>
+        <v>-80.42384946</v>
       </c>
       <c r="C32" s="6">
-        <v>-53.959905630000002</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-54.205015520000003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="5">
         <v>28</v>
       </c>
       <c r="B33" s="6">
-        <v>-73.115541260000001</v>
+        <v>-80.822470280000005</v>
       </c>
       <c r="C33" s="6">
-        <v>-54.257519369999997</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-54.500440560000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="5">
         <v>29</v>
       </c>
       <c r="B34" s="6">
-        <v>-73.885373290000004</v>
+        <v>-81.315941719999998</v>
       </c>
       <c r="C34" s="6">
-        <v>-54.279599709999999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-54.517990879999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="5">
         <v>30</v>
       </c>
       <c r="B35" s="6">
-        <v>-74.715274859999994</v>
+        <v>-81.931346050000002</v>
       </c>
       <c r="C35" s="6">
-        <v>-54.063435810000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-54.294941199999997</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B36" s="8">
-        <v>-48.524140866206253</v>
+        <v>-56.246934875806247</v>
       </c>
       <c r="C36" s="8">
-        <v>-34.316393138343749</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-34.451604811749995</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="9" t="s">
         <v>10</v>
       </c>
@@ -4249,25 +4268,25 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97A43502-C709-47ED-82F5-620B67AC7AF2}">
-  <sheetPr codeName="Sheet5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F00F7CDB-E2F7-42FB-8E4C-712A9F309635}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="3" width="19.5703125" customWidth="1"/>
+    <col min="1" max="3" width="19.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -4278,7 +4297,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
@@ -4289,375 +4308,375 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="6">
-        <v>8.3710618562000008</v>
+        <v>5.4069184514000002</v>
       </c>
       <c r="C4" s="7">
-        <v>-9.1223835040000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-8.9050473659999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="6">
-        <v>6.8827604167000001</v>
+        <v>2.37319375</v>
       </c>
       <c r="C5" s="6">
-        <v>-20.07372711</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-19.794978459999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>1</v>
       </c>
       <c r="B6" s="6">
-        <v>-0.45804236300000001</v>
+        <v>-2.35371679</v>
       </c>
       <c r="C6" s="6">
-        <v>-6.7572968769999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-6.639183472</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>2</v>
       </c>
       <c r="B7" s="6">
-        <v>-12.71941795</v>
+        <v>-12.934701130000001</v>
       </c>
       <c r="C7" s="6">
-        <v>-8.8279884079999995</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-8.9260524790000009</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>3</v>
       </c>
       <c r="B8" s="6">
-        <v>-20.15243714</v>
+        <v>-19.97415548</v>
       </c>
       <c r="C8" s="6">
-        <v>-12.588669919999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-12.832645080000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>4</v>
       </c>
       <c r="B9" s="6">
-        <v>-23.751924819999999</v>
+        <v>-23.36141718</v>
       </c>
       <c r="C9" s="6">
-        <v>-16.554409629999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-16.857665950000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>5</v>
       </c>
       <c r="B10" s="6">
-        <v>-27.194243180000001</v>
+        <v>-26.713230490000001</v>
       </c>
       <c r="C10" s="6">
-        <v>-19.512283499999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-19.796963720000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>6</v>
       </c>
       <c r="B11" s="6">
-        <v>-32.489066280000003</v>
+        <v>-31.213914580000001</v>
       </c>
       <c r="C11" s="6">
-        <v>-21.90164253</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-22.141197810000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>7</v>
       </c>
       <c r="B12" s="6">
-        <v>-36.337831289999997</v>
+        <v>-35.071936430000001</v>
       </c>
       <c r="C12" s="6">
-        <v>-23.653459680000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-23.833215809999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>8</v>
       </c>
       <c r="B13" s="6">
-        <v>-38.706014519999997</v>
+        <v>-37.632387629999997</v>
       </c>
       <c r="C13" s="6">
-        <v>-25.049233730000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-25.154644170000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>9</v>
       </c>
       <c r="B14" s="6">
-        <v>-40.471754949999998</v>
+        <v>-39.872103250000002</v>
       </c>
       <c r="C14" s="6">
-        <v>-26.202677690000002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-26.238820130000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>10</v>
       </c>
       <c r="B15" s="6">
-        <v>-42.00349147</v>
+        <v>-41.871231889999997</v>
       </c>
       <c r="C15" s="6">
-        <v>-27.206369429999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-27.189217970000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>11</v>
       </c>
       <c r="B16" s="6">
-        <v>-44.176867280000003</v>
+        <v>-44.309430540000001</v>
       </c>
       <c r="C16" s="6">
-        <v>-28.301749300000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-28.257803729999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <v>12</v>
       </c>
       <c r="B17" s="6">
-        <v>-46.912354790000002</v>
+        <v>-47.56648946</v>
       </c>
       <c r="C17" s="6">
-        <v>-29.595148940000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-29.548414300000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>13</v>
       </c>
       <c r="B18" s="6">
-        <v>-49.899324960000001</v>
+        <v>-51.069484750000001</v>
       </c>
       <c r="C18" s="6">
-        <v>-31.164094469999998</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-31.132498510000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
         <v>14</v>
       </c>
       <c r="B19" s="6">
-        <v>-52.964594329999997</v>
+        <v>-54.464428939999998</v>
       </c>
       <c r="C19" s="6">
-        <v>-32.906071109999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-32.901003469999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <v>15</v>
       </c>
       <c r="B20" s="6">
-        <v>-55.842553180000003</v>
+        <v>-57.549075340000002</v>
       </c>
       <c r="C20" s="6">
-        <v>-34.769279509999997</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-34.795199869999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <v>16</v>
       </c>
       <c r="B21" s="6">
-        <v>-58.401681119999999</v>
+        <v>-60.243913120000002</v>
       </c>
       <c r="C21" s="6">
-        <v>-36.734082770000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-36.78972907</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <v>17</v>
       </c>
       <c r="B22" s="6">
-        <v>-60.589063639999999</v>
+        <v>-62.562240760000002</v>
       </c>
       <c r="C22" s="6">
-        <v>-38.767443</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-38.850998400000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <v>18</v>
       </c>
       <c r="B23" s="6">
-        <v>-62.395214369999998</v>
+        <v>-64.466430939999995</v>
       </c>
       <c r="C23" s="6">
-        <v>-40.803412960000003</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-40.914266439999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <v>19</v>
       </c>
       <c r="B24" s="6">
-        <v>-63.906038039999999</v>
+        <v>-66.032298119999993</v>
       </c>
       <c r="C24" s="6">
-        <v>-42.78701478</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-42.925040979999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="5">
         <v>20</v>
       </c>
       <c r="B25" s="6">
-        <v>-65.080182550000004</v>
+        <v>-67.192876929999997</v>
       </c>
       <c r="C25" s="6">
-        <v>-44.652505580000003</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-44.818083479999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="5">
         <v>21</v>
       </c>
       <c r="B26" s="6">
-        <v>-66.067297150000002</v>
+        <v>-68.111643880000003</v>
       </c>
       <c r="C26" s="6">
-        <v>-46.43781911</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-46.631318229999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
         <v>22</v>
       </c>
       <c r="B27" s="6">
-        <v>-67.064761509999997</v>
+        <v>-68.932081030000006</v>
       </c>
       <c r="C27" s="6">
-        <v>-48.159291840000002</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-48.378785520000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <v>23</v>
       </c>
       <c r="B28" s="6">
-        <v>-68.000502510000004</v>
+        <v>-69.679363550000005</v>
       </c>
       <c r="C28" s="6">
-        <v>-49.745504920000002</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-49.9887157</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
         <v>24</v>
       </c>
       <c r="B29" s="6">
-        <v>-68.888497229999999</v>
+        <v>-70.388793120000003</v>
       </c>
       <c r="C29" s="6">
-        <v>-51.13243095</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-51.396031000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
         <v>25</v>
       </c>
       <c r="B30" s="6">
-        <v>-69.799231989999996</v>
+        <v>-71.113094469999993</v>
       </c>
       <c r="C30" s="6">
-        <v>-52.258362290000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-52.539457319999997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="5">
         <v>26</v>
       </c>
       <c r="B31" s="6">
-        <v>-70.670586290000003</v>
+        <v>-71.765117129999993</v>
       </c>
       <c r="C31" s="6">
-        <v>-53.092458290000003</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-53.387141470000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="5">
         <v>27</v>
       </c>
       <c r="B32" s="6">
-        <v>-71.565499059999993</v>
+        <v>-72.390873580000004</v>
       </c>
       <c r="C32" s="6">
-        <v>-53.656817369999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-53.959905630000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="5">
         <v>28</v>
       </c>
       <c r="B33" s="6">
-        <v>-72.464189930000003</v>
+        <v>-73.115541260000001</v>
       </c>
       <c r="C33" s="6">
-        <v>-53.951834089999998</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-54.257519369999997</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="5">
         <v>29</v>
       </c>
       <c r="B34" s="6">
-        <v>-73.397111649999999</v>
+        <v>-73.885373290000004</v>
       </c>
       <c r="C34" s="6">
-        <v>-53.977415229999998</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-54.279599709999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="5">
         <v>30</v>
       </c>
       <c r="B35" s="6">
-        <v>-74.446040249999996</v>
+        <v>-74.715274859999994</v>
       </c>
       <c r="C35" s="6">
-        <v>-53.770619439999997</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-54.063435810000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B36" s="8">
-        <v>-47.548812297503126</v>
+        <v>-48.524140866206253</v>
       </c>
       <c r="C36" s="8">
-        <v>-34.191046811218747</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-34.316393138343749</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="9" t="s">
         <v>10</v>
       </c>
@@ -4675,25 +4694,25 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0334E61F-4137-42F1-8ADC-1EC55566A90B}">
-  <sheetPr codeName="Sheet1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97A43502-C709-47ED-82F5-620B67AC7AF2}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="3" width="19.7109375" customWidth="1"/>
+    <col min="1" max="3" width="19.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -4704,7 +4723,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
@@ -4715,375 +4734,375 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="6">
-        <v>7.8807580462000004</v>
+        <v>8.3710618562000008</v>
       </c>
       <c r="C4" s="7">
-        <v>-9.1849778220000005</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-9.1223835040000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="6">
-        <v>3.0264520833000002</v>
+        <v>6.8827604167000001</v>
       </c>
       <c r="C5" s="6">
-        <v>-20.17021621</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-20.07372711</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>1</v>
       </c>
       <c r="B6" s="6">
-        <v>2.7109457350000001</v>
+        <v>-0.45804236300000001</v>
       </c>
       <c r="C6" s="6">
-        <v>-6.7807565470000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-6.7572968769999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>2</v>
       </c>
       <c r="B7" s="6">
-        <v>-12.88959281</v>
+        <v>-12.71941795</v>
       </c>
       <c r="C7" s="6">
-        <v>-8.7977132959999995</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-8.8279884079999995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>3</v>
       </c>
       <c r="B8" s="6">
-        <v>-19.98805325</v>
+        <v>-20.15243714</v>
       </c>
       <c r="C8" s="6">
-        <v>-12.5498672</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-12.588669919999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>4</v>
       </c>
       <c r="B9" s="6">
-        <v>-24.302522759999999</v>
+        <v>-23.751924819999999</v>
       </c>
       <c r="C9" s="6">
-        <v>-16.51681786</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-16.554409629999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>5</v>
       </c>
       <c r="B10" s="6">
-        <v>-28.36529337</v>
+        <v>-27.194243180000001</v>
       </c>
       <c r="C10" s="6">
-        <v>-19.471623770000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-19.512283499999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>6</v>
       </c>
       <c r="B11" s="6">
-        <v>-33.281085609999998</v>
+        <v>-32.489066280000003</v>
       </c>
       <c r="C11" s="6">
-        <v>-21.85039106</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-21.90164253</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>7</v>
       </c>
       <c r="B12" s="6">
-        <v>-37.424965550000003</v>
+        <v>-36.337831289999997</v>
       </c>
       <c r="C12" s="6">
-        <v>-23.59367825</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-23.653459680000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>8</v>
       </c>
       <c r="B13" s="6">
-        <v>-40.527535700000001</v>
+        <v>-38.706014519999997</v>
       </c>
       <c r="C13" s="6">
-        <v>-24.986055270000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-25.049233730000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>9</v>
       </c>
       <c r="B14" s="6">
-        <v>-43.148749610000003</v>
+        <v>-40.471754949999998</v>
       </c>
       <c r="C14" s="6">
-        <v>-26.13804378</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-26.202677690000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>10</v>
       </c>
       <c r="B15" s="6">
-        <v>-45.445842380000002</v>
+        <v>-42.00349147</v>
       </c>
       <c r="C15" s="6">
-        <v>-27.14059645</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-27.206369429999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>11</v>
       </c>
       <c r="B16" s="6">
-        <v>-47.954319310000002</v>
+        <v>-44.176867280000003</v>
       </c>
       <c r="C16" s="6">
-        <v>-28.23302752</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-28.301749300000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <v>12</v>
       </c>
       <c r="B17" s="6">
-        <v>-50.895752739999999</v>
+        <v>-46.912354790000002</v>
       </c>
       <c r="C17" s="6">
-        <v>-29.521375190000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-29.595148940000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>13</v>
       </c>
       <c r="B18" s="6">
-        <v>-53.965127780000003</v>
+        <v>-49.899324960000001</v>
       </c>
       <c r="C18" s="6">
-        <v>-31.084980699999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-31.164094469999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
         <v>14</v>
       </c>
       <c r="B19" s="6">
-        <v>-56.996038859999999</v>
+        <v>-52.964594329999997</v>
       </c>
       <c r="C19" s="6">
-        <v>-32.822222109999998</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-32.906071109999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <v>15</v>
       </c>
       <c r="B20" s="6">
-        <v>-59.980257080000001</v>
+        <v>-55.842553180000003</v>
       </c>
       <c r="C20" s="6">
-        <v>-34.681412080000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-34.769279509999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <v>16</v>
       </c>
       <c r="B21" s="6">
-        <v>-62.745383459999999</v>
+        <v>-58.401681119999999</v>
       </c>
       <c r="C21" s="6">
-        <v>-36.643586249999998</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-36.734082770000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <v>17</v>
       </c>
       <c r="B22" s="6">
-        <v>-65.175414779999997</v>
+        <v>-60.589063639999999</v>
       </c>
       <c r="C22" s="6">
-        <v>-38.67573719</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-38.767443</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <v>18</v>
       </c>
       <c r="B23" s="6">
-        <v>-67.270893119999997</v>
+        <v>-62.395214369999998</v>
       </c>
       <c r="C23" s="6">
-        <v>-40.711742039999997</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-40.803412960000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <v>19</v>
       </c>
       <c r="B24" s="6">
-        <v>-69.03882935</v>
+        <v>-63.906038039999999</v>
       </c>
       <c r="C24" s="6">
-        <v>-42.696366140000002</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-42.78701478</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="5">
         <v>20</v>
       </c>
       <c r="B25" s="6">
-        <v>-70.43978491</v>
+        <v>-65.080182550000004</v>
       </c>
       <c r="C25" s="6">
-        <v>-44.563470369999997</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-44.652505580000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="5">
         <v>21</v>
       </c>
       <c r="B26" s="6">
-        <v>-71.633975890000002</v>
+        <v>-66.067297150000002</v>
       </c>
       <c r="C26" s="6">
-        <v>-46.350588930000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-46.43781911</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
         <v>22</v>
       </c>
       <c r="B27" s="6">
-        <v>-72.828563149999994</v>
+        <v>-67.064761509999997</v>
       </c>
       <c r="C27" s="6">
-        <v>-48.073858280000003</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-48.159291840000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <v>23</v>
       </c>
       <c r="B28" s="6">
-        <v>-73.914798529999999</v>
+        <v>-68.000502510000004</v>
       </c>
       <c r="C28" s="6">
-        <v>-49.661632480000002</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-49.745504920000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
         <v>24</v>
       </c>
       <c r="B29" s="6">
-        <v>-74.985240709999999</v>
+        <v>-68.888497229999999</v>
       </c>
       <c r="C29" s="6">
-        <v>-51.049575089999998</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-51.13243095</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
         <v>25</v>
       </c>
       <c r="B30" s="6">
-        <v>-75.972331120000007</v>
+        <v>-69.799231989999996</v>
       </c>
       <c r="C30" s="6">
-        <v>-52.175731300000002</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-52.258362290000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="5">
         <v>26</v>
       </c>
       <c r="B31" s="6">
-        <v>-76.947613270000005</v>
+        <v>-70.670586290000003</v>
       </c>
       <c r="C31" s="6">
-        <v>-53.00927935</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-53.092458290000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="5">
         <v>27</v>
       </c>
       <c r="B32" s="6">
-        <v>-77.947125740000004</v>
+        <v>-71.565499059999993</v>
       </c>
       <c r="C32" s="6">
-        <v>-53.57238194</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-53.656817369999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="5">
         <v>28</v>
       </c>
       <c r="B33" s="6">
-        <v>-78.902608549999997</v>
+        <v>-72.464189930000003</v>
       </c>
       <c r="C33" s="6">
-        <v>-53.865276379999997</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-53.951834089999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="5">
         <v>29</v>
       </c>
       <c r="B34" s="6">
-        <v>-79.884070080000001</v>
+        <v>-73.397111649999999</v>
       </c>
       <c r="C34" s="6">
-        <v>-53.887956340000002</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-53.977415229999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="5">
         <v>30</v>
       </c>
       <c r="B35" s="6">
-        <v>-80.923544419999999</v>
+        <v>-74.446040249999996</v>
       </c>
       <c r="C35" s="6">
-        <v>-53.677299189999999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-53.770619439999997</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B36" s="8">
-        <v>-51.254911188296873</v>
+        <v>-47.548812297503126</v>
       </c>
       <c r="C36" s="8">
-        <v>-34.129319887031251</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-34.191046811218747</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="9" t="s">
         <v>10</v>
       </c>
@@ -5101,17 +5120,427 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F25262A5-84B2-4BF6-AF4E-DBAA1AC8379B}">
-  <sheetPr codeName="Sheet8">
-    <tabColor rgb="FFFFFF00"/>
-  </sheetPr>
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0334E61F-4137-42F1-8ADC-1EC55566A90B}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="3" width="19.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="6">
+        <v>7.8807580462000004</v>
+      </c>
+      <c r="C4" s="7">
+        <v>-9.1849778220000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="6">
+        <v>3.0264520833000002</v>
+      </c>
+      <c r="C5" s="6">
+        <v>-20.17021621</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="5">
+        <v>1</v>
+      </c>
+      <c r="B6" s="6">
+        <v>2.7109457350000001</v>
+      </c>
+      <c r="C6" s="6">
+        <v>-6.7807565470000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="5">
+        <v>2</v>
+      </c>
+      <c r="B7" s="6">
+        <v>-12.88959281</v>
+      </c>
+      <c r="C7" s="6">
+        <v>-8.7977132959999995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="5">
+        <v>3</v>
+      </c>
+      <c r="B8" s="6">
+        <v>-19.98805325</v>
+      </c>
+      <c r="C8" s="6">
+        <v>-12.5498672</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="5">
+        <v>4</v>
+      </c>
+      <c r="B9" s="6">
+        <v>-24.302522759999999</v>
+      </c>
+      <c r="C9" s="6">
+        <v>-16.51681786</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="5">
+        <v>5</v>
+      </c>
+      <c r="B10" s="6">
+        <v>-28.36529337</v>
+      </c>
+      <c r="C10" s="6">
+        <v>-19.471623770000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="5">
+        <v>6</v>
+      </c>
+      <c r="B11" s="6">
+        <v>-33.281085609999998</v>
+      </c>
+      <c r="C11" s="6">
+        <v>-21.85039106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="5">
+        <v>7</v>
+      </c>
+      <c r="B12" s="6">
+        <v>-37.424965550000003</v>
+      </c>
+      <c r="C12" s="6">
+        <v>-23.59367825</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="5">
+        <v>8</v>
+      </c>
+      <c r="B13" s="6">
+        <v>-40.527535700000001</v>
+      </c>
+      <c r="C13" s="6">
+        <v>-24.986055270000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="5">
+        <v>9</v>
+      </c>
+      <c r="B14" s="6">
+        <v>-43.148749610000003</v>
+      </c>
+      <c r="C14" s="6">
+        <v>-26.13804378</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="5">
+        <v>10</v>
+      </c>
+      <c r="B15" s="6">
+        <v>-45.445842380000002</v>
+      </c>
+      <c r="C15" s="6">
+        <v>-27.14059645</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="5">
+        <v>11</v>
+      </c>
+      <c r="B16" s="6">
+        <v>-47.954319310000002</v>
+      </c>
+      <c r="C16" s="6">
+        <v>-28.23302752</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="5">
+        <v>12</v>
+      </c>
+      <c r="B17" s="6">
+        <v>-50.895752739999999</v>
+      </c>
+      <c r="C17" s="6">
+        <v>-29.521375190000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="5">
+        <v>13</v>
+      </c>
+      <c r="B18" s="6">
+        <v>-53.965127780000003</v>
+      </c>
+      <c r="C18" s="6">
+        <v>-31.084980699999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="5">
+        <v>14</v>
+      </c>
+      <c r="B19" s="6">
+        <v>-56.996038859999999</v>
+      </c>
+      <c r="C19" s="6">
+        <v>-32.822222109999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="5">
+        <v>15</v>
+      </c>
+      <c r="B20" s="6">
+        <v>-59.980257080000001</v>
+      </c>
+      <c r="C20" s="6">
+        <v>-34.681412080000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="5">
+        <v>16</v>
+      </c>
+      <c r="B21" s="6">
+        <v>-62.745383459999999</v>
+      </c>
+      <c r="C21" s="6">
+        <v>-36.643586249999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="5">
+        <v>17</v>
+      </c>
+      <c r="B22" s="6">
+        <v>-65.175414779999997</v>
+      </c>
+      <c r="C22" s="6">
+        <v>-38.67573719</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="5">
+        <v>18</v>
+      </c>
+      <c r="B23" s="6">
+        <v>-67.270893119999997</v>
+      </c>
+      <c r="C23" s="6">
+        <v>-40.711742039999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="5">
+        <v>19</v>
+      </c>
+      <c r="B24" s="6">
+        <v>-69.03882935</v>
+      </c>
+      <c r="C24" s="6">
+        <v>-42.696366140000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="5">
+        <v>20</v>
+      </c>
+      <c r="B25" s="6">
+        <v>-70.43978491</v>
+      </c>
+      <c r="C25" s="6">
+        <v>-44.563470369999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="5">
+        <v>21</v>
+      </c>
+      <c r="B26" s="6">
+        <v>-71.633975890000002</v>
+      </c>
+      <c r="C26" s="6">
+        <v>-46.350588930000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="5">
+        <v>22</v>
+      </c>
+      <c r="B27" s="6">
+        <v>-72.828563149999994</v>
+      </c>
+      <c r="C27" s="6">
+        <v>-48.073858280000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="5">
+        <v>23</v>
+      </c>
+      <c r="B28" s="6">
+        <v>-73.914798529999999</v>
+      </c>
+      <c r="C28" s="6">
+        <v>-49.661632480000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="5">
+        <v>24</v>
+      </c>
+      <c r="B29" s="6">
+        <v>-74.985240709999999</v>
+      </c>
+      <c r="C29" s="6">
+        <v>-51.049575089999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="5">
+        <v>25</v>
+      </c>
+      <c r="B30" s="6">
+        <v>-75.972331120000007</v>
+      </c>
+      <c r="C30" s="6">
+        <v>-52.175731300000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="5">
+        <v>26</v>
+      </c>
+      <c r="B31" s="6">
+        <v>-76.947613270000005</v>
+      </c>
+      <c r="C31" s="6">
+        <v>-53.00927935</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="5">
+        <v>27</v>
+      </c>
+      <c r="B32" s="6">
+        <v>-77.947125740000004</v>
+      </c>
+      <c r="C32" s="6">
+        <v>-53.57238194</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" s="5">
+        <v>28</v>
+      </c>
+      <c r="B33" s="6">
+        <v>-78.902608549999997</v>
+      </c>
+      <c r="C33" s="6">
+        <v>-53.865276379999997</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" s="5">
+        <v>29</v>
+      </c>
+      <c r="B34" s="6">
+        <v>-79.884070080000001</v>
+      </c>
+      <c r="C34" s="6">
+        <v>-53.887956340000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" s="5">
+        <v>30</v>
+      </c>
+      <c r="B35" s="6">
+        <v>-80.923544419999999</v>
+      </c>
+      <c r="C35" s="6">
+        <v>-53.677299189999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="8">
+        <v>-51.254911188296873</v>
+      </c>
+      <c r="C36" s="8">
+        <v>-34.129319887031251</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A39:E39"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/content_history/pbr-2025-vm20-table-j-swaps.xlsx
+++ b/docs/content_history/pbr-2025-vm20-table-j-swaps.xlsx
@@ -1,29 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29231"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\PBR\VM20_VM22_ProductSupport\PBR Production Web Data\Current Year\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B74C9146-FA5F-4FC8-92AF-9729C090FB8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4990BA3-39B1-4108-9318-0247D4456070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25180" windowHeight="16140" tabRatio="795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="September_2025" sheetId="25" r:id="rId1"/>
-    <sheet name="August_2025" sheetId="24" r:id="rId2"/>
-    <sheet name="July_2025" sheetId="23" r:id="rId3"/>
-    <sheet name="June_2025" sheetId="22" r:id="rId4"/>
-    <sheet name="May_2025" sheetId="21" r:id="rId5"/>
-    <sheet name="April_2025" sheetId="20" r:id="rId6"/>
-    <sheet name="March_2025" sheetId="19" r:id="rId7"/>
-    <sheet name="February_2025" sheetId="18" r:id="rId8"/>
-    <sheet name="January_2025" sheetId="17" r:id="rId9"/>
-    <sheet name="LIBOR to SOFR Disclosure" sheetId="16" r:id="rId10"/>
-    <sheet name="LEGAL DISCLAIMER" sheetId="11" r:id="rId11"/>
+    <sheet name="October_2025" sheetId="26" r:id="rId1"/>
+    <sheet name="September_2025" sheetId="25" r:id="rId2"/>
+    <sheet name="August_2025" sheetId="24" r:id="rId3"/>
+    <sheet name="July_2025" sheetId="23" r:id="rId4"/>
+    <sheet name="June_2025" sheetId="22" r:id="rId5"/>
+    <sheet name="May_2025" sheetId="21" r:id="rId6"/>
+    <sheet name="April_2025" sheetId="20" r:id="rId7"/>
+    <sheet name="March_2025" sheetId="19" r:id="rId8"/>
+    <sheet name="February_2025" sheetId="18" r:id="rId9"/>
+    <sheet name="January_2025" sheetId="17" r:id="rId10"/>
+    <sheet name="LIBOR to SOFR Disclosure" sheetId="16" r:id="rId11"/>
+    <sheet name="LEGAL DISCLAIMER" sheetId="11" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="20">
   <si>
     <t>Table J (01/31/2025) Swap Benchmark Spreads (in bps)</t>
   </si>
@@ -97,6 +98,9 @@
   </si>
   <si>
     <t>Table J (09/30/2025) Swap Benchmark Spreads (in bps)</t>
+  </si>
+  <si>
+    <t>Table J (10/31/2025) Swap Benchmark Spreads (in bps)</t>
   </si>
 </sst>
 </file>
@@ -1326,7 +1330,7 @@
                   <a14:compatExt spid="_x0000_s4104"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000008100000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000008100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1647,24 +1651,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B53624B2-29FC-4CB9-A7C6-D02151E5E76D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6379604C-B6E6-4443-AAC4-03BC4BA7C7BE}">
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="19.6328125" customWidth="1"/>
+    <col min="1" max="3" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1675,7 +1679,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
@@ -1686,375 +1690,375 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="6">
-        <v>3.4724288437999999</v>
+        <v>7.5452052592000003</v>
       </c>
       <c r="C4" s="7">
-        <v>-8.7943134349999994</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-8.7200979669999992</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="6">
-        <v>7.1986041667</v>
+        <v>5.4702666666999997</v>
       </c>
       <c r="C5" s="6">
-        <v>-19.354541220000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-19.285361930000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>1</v>
       </c>
       <c r="B6" s="6">
-        <v>-1.620496771</v>
+        <v>-4.7253047920000002</v>
       </c>
       <c r="C6" s="6">
-        <v>-6.6548716829999996</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-6.640543954</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>2</v>
       </c>
       <c r="B7" s="6">
-        <v>-18.08999219</v>
+        <v>-17.986776559999999</v>
       </c>
       <c r="C7" s="6">
-        <v>-9.4155254589999995</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-9.4720105609999994</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>3</v>
       </c>
       <c r="B8" s="6">
-        <v>-24.060127770000001</v>
+        <v>-22.139696440000002</v>
       </c>
       <c r="C8" s="6">
-        <v>-13.506114780000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-13.59274679</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>4</v>
       </c>
       <c r="B9" s="6">
-        <v>-28.39299746</v>
+        <v>-24.92700718</v>
       </c>
       <c r="C9" s="6">
-        <v>-17.58532056</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-17.683493819999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>5</v>
       </c>
       <c r="B10" s="6">
-        <v>-32.663276719999999</v>
+        <v>-27.975494569999999</v>
       </c>
       <c r="C10" s="6">
-        <v>-20.535751099999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-20.650627650000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>6</v>
       </c>
       <c r="B11" s="6">
-        <v>-37.277833360000002</v>
+        <v>-31.868348059999999</v>
       </c>
       <c r="C11" s="6">
-        <v>-22.902821119999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-23.018938479999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>7</v>
       </c>
       <c r="B12" s="6">
-        <v>-41.111146570000002</v>
+        <v>-35.12502439</v>
       </c>
       <c r="C12" s="6">
-        <v>-24.550001640000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-24.643852169999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>8</v>
       </c>
       <c r="B13" s="6">
-        <v>-43.73074767</v>
+        <v>-37.41960933</v>
       </c>
       <c r="C13" s="6">
-        <v>-25.745643040000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-25.804318949999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>9</v>
       </c>
       <c r="B14" s="6">
-        <v>-45.893263529999999</v>
+        <v>-39.25672204</v>
       </c>
       <c r="C14" s="6">
-        <v>-26.687432439999998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-26.708911199999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>10</v>
       </c>
       <c r="B15" s="6">
-        <v>-47.532382470000002</v>
+        <v>-40.73643036</v>
       </c>
       <c r="C15" s="6">
-        <v>-27.509151849999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-27.496924369999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>11</v>
       </c>
       <c r="B16" s="6">
-        <v>-49.801419099999997</v>
+        <v>-42.903739680000001</v>
       </c>
       <c r="C16" s="6">
-        <v>-28.49967698</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-28.461193489999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>12</v>
       </c>
       <c r="B17" s="6">
-        <v>-52.972064009999997</v>
+        <v>-46.057547999999997</v>
       </c>
       <c r="C17" s="6">
-        <v>-29.778378839999998</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-29.723373179999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>13</v>
       </c>
       <c r="B18" s="6">
-        <v>-56.523931099999999</v>
+        <v>-49.553482430000003</v>
       </c>
       <c r="C18" s="6">
-        <v>-31.396261989999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-31.332886120000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>14</v>
       </c>
       <c r="B19" s="6">
-        <v>-59.921281749999999</v>
+        <v>-52.842691760000001</v>
       </c>
       <c r="C19" s="6">
-        <v>-33.225161249999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-33.159291289999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>15</v>
       </c>
       <c r="B20" s="6">
-        <v>-62.96260916</v>
+        <v>-55.780143199999998</v>
       </c>
       <c r="C20" s="6">
-        <v>-35.188960389999998</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-35.123963680000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>16</v>
       </c>
       <c r="B21" s="6">
-        <v>-65.596927809999997</v>
+        <v>-58.271733949999998</v>
       </c>
       <c r="C21" s="6">
-        <v>-37.250419440000002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-37.188682810000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>17</v>
       </c>
       <c r="B22" s="6">
-        <v>-67.763451720000006</v>
+        <v>-60.352144289999998</v>
       </c>
       <c r="C22" s="6">
-        <v>-39.368262309999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-39.310638570000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>18</v>
       </c>
       <c r="B23" s="6">
-        <v>-69.482092859999995</v>
+        <v>-61.990687989999998</v>
       </c>
       <c r="C23" s="6">
-        <v>-41.48089796</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-41.428346990000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>19</v>
       </c>
       <c r="B24" s="6">
-        <v>-70.798923459999997</v>
+        <v>-63.199702420000001</v>
       </c>
       <c r="C24" s="6">
-        <v>-43.531780380000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-43.484311140000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>20</v>
       </c>
       <c r="B25" s="6">
-        <v>-71.718027719999995</v>
+        <v>-64.117122510000002</v>
       </c>
       <c r="C25" s="6">
-        <v>-45.458494930000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-45.416549179999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>21</v>
       </c>
       <c r="B26" s="6">
-        <v>-72.437862120000005</v>
+        <v>-64.765575459999994</v>
       </c>
       <c r="C26" s="6">
-        <v>-47.299315040000003</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-47.262596160000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>22</v>
       </c>
       <c r="B27" s="6">
-        <v>-73.023238430000006</v>
+        <v>-65.339519980000006</v>
       </c>
       <c r="C27" s="6">
-        <v>-49.067344429999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-49.034732159999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>23</v>
       </c>
       <c r="B28" s="6">
-        <v>-73.531606519999997</v>
+        <v>-65.845528860000002</v>
       </c>
       <c r="C28" s="6">
-        <v>-50.689005350000002</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-50.658714289999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>24</v>
       </c>
       <c r="B29" s="6">
-        <v>-73.993694950000005</v>
+        <v>-66.293890239999996</v>
       </c>
       <c r="C29" s="6">
-        <v>-52.100942850000003</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-52.071209860000003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>25</v>
       </c>
       <c r="B30" s="6">
-        <v>-74.449839019999999</v>
+        <v>-66.744520050000006</v>
       </c>
       <c r="C30" s="6">
-        <v>-53.242964989999997</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-53.212020039999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>26</v>
       </c>
       <c r="B31" s="6">
-        <v>-74.930953400000007</v>
+        <v>-67.180333259999998</v>
       </c>
       <c r="C31" s="6">
-        <v>-54.083172519999998</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-54.048755929999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>27</v>
       </c>
       <c r="B32" s="6">
-        <v>-75.361595589999993</v>
+        <v>-67.661478500000001</v>
       </c>
       <c r="C32" s="6">
-        <v>-54.637301020000002</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-54.596377570000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>28</v>
       </c>
       <c r="B33" s="6">
-        <v>-75.834056259999997</v>
+        <v>-68.135175320000002</v>
       </c>
       <c r="C33" s="6">
-        <v>-54.906561940000003</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-54.856236529999997</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>29</v>
       </c>
       <c r="B34" s="6">
-        <v>-76.42380532</v>
+        <v>-68.615861069999994</v>
       </c>
       <c r="C34" s="6">
-        <v>-54.889495689999997</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-54.826682030000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>30</v>
       </c>
       <c r="B35" s="6">
-        <v>-76.999753440000006</v>
+        <v>-69.238849970000004</v>
       </c>
       <c r="C35" s="6">
-        <v>-54.624402969999998</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-54.546699580000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B36" s="8">
-        <v>-52.632136413765615</v>
+        <v>-46.688583460503118</v>
       </c>
       <c r="C36" s="8">
-        <v>-34.811259049906248</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-34.795659013812497</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>10</v>
       </c>
@@ -2072,6 +2076,432 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0334E61F-4137-42F1-8ADC-1EC55566A90B}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:E39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="19.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="6">
+        <v>7.8807580462000004</v>
+      </c>
+      <c r="C4" s="7">
+        <v>-9.1849778220000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="6">
+        <v>3.0264520833000002</v>
+      </c>
+      <c r="C5" s="6">
+        <v>-20.17021621</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>1</v>
+      </c>
+      <c r="B6" s="6">
+        <v>2.7109457350000001</v>
+      </c>
+      <c r="C6" s="6">
+        <v>-6.7807565470000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>2</v>
+      </c>
+      <c r="B7" s="6">
+        <v>-12.88959281</v>
+      </c>
+      <c r="C7" s="6">
+        <v>-8.7977132959999995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>3</v>
+      </c>
+      <c r="B8" s="6">
+        <v>-19.98805325</v>
+      </c>
+      <c r="C8" s="6">
+        <v>-12.5498672</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>4</v>
+      </c>
+      <c r="B9" s="6">
+        <v>-24.302522759999999</v>
+      </c>
+      <c r="C9" s="6">
+        <v>-16.51681786</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>5</v>
+      </c>
+      <c r="B10" s="6">
+        <v>-28.36529337</v>
+      </c>
+      <c r="C10" s="6">
+        <v>-19.471623770000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>6</v>
+      </c>
+      <c r="B11" s="6">
+        <v>-33.281085609999998</v>
+      </c>
+      <c r="C11" s="6">
+        <v>-21.85039106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>7</v>
+      </c>
+      <c r="B12" s="6">
+        <v>-37.424965550000003</v>
+      </c>
+      <c r="C12" s="6">
+        <v>-23.59367825</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>8</v>
+      </c>
+      <c r="B13" s="6">
+        <v>-40.527535700000001</v>
+      </c>
+      <c r="C13" s="6">
+        <v>-24.986055270000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>9</v>
+      </c>
+      <c r="B14" s="6">
+        <v>-43.148749610000003</v>
+      </c>
+      <c r="C14" s="6">
+        <v>-26.13804378</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>10</v>
+      </c>
+      <c r="B15" s="6">
+        <v>-45.445842380000002</v>
+      </c>
+      <c r="C15" s="6">
+        <v>-27.14059645</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>11</v>
+      </c>
+      <c r="B16" s="6">
+        <v>-47.954319310000002</v>
+      </c>
+      <c r="C16" s="6">
+        <v>-28.23302752</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>12</v>
+      </c>
+      <c r="B17" s="6">
+        <v>-50.895752739999999</v>
+      </c>
+      <c r="C17" s="6">
+        <v>-29.521375190000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>13</v>
+      </c>
+      <c r="B18" s="6">
+        <v>-53.965127780000003</v>
+      </c>
+      <c r="C18" s="6">
+        <v>-31.084980699999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>14</v>
+      </c>
+      <c r="B19" s="6">
+        <v>-56.996038859999999</v>
+      </c>
+      <c r="C19" s="6">
+        <v>-32.822222109999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>15</v>
+      </c>
+      <c r="B20" s="6">
+        <v>-59.980257080000001</v>
+      </c>
+      <c r="C20" s="6">
+        <v>-34.681412080000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>16</v>
+      </c>
+      <c r="B21" s="6">
+        <v>-62.745383459999999</v>
+      </c>
+      <c r="C21" s="6">
+        <v>-36.643586249999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>17</v>
+      </c>
+      <c r="B22" s="6">
+        <v>-65.175414779999997</v>
+      </c>
+      <c r="C22" s="6">
+        <v>-38.67573719</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>18</v>
+      </c>
+      <c r="B23" s="6">
+        <v>-67.270893119999997</v>
+      </c>
+      <c r="C23" s="6">
+        <v>-40.711742039999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>19</v>
+      </c>
+      <c r="B24" s="6">
+        <v>-69.03882935</v>
+      </c>
+      <c r="C24" s="6">
+        <v>-42.696366140000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>20</v>
+      </c>
+      <c r="B25" s="6">
+        <v>-70.43978491</v>
+      </c>
+      <c r="C25" s="6">
+        <v>-44.563470369999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>21</v>
+      </c>
+      <c r="B26" s="6">
+        <v>-71.633975890000002</v>
+      </c>
+      <c r="C26" s="6">
+        <v>-46.350588930000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>22</v>
+      </c>
+      <c r="B27" s="6">
+        <v>-72.828563149999994</v>
+      </c>
+      <c r="C27" s="6">
+        <v>-48.073858280000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>23</v>
+      </c>
+      <c r="B28" s="6">
+        <v>-73.914798529999999</v>
+      </c>
+      <c r="C28" s="6">
+        <v>-49.661632480000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>24</v>
+      </c>
+      <c r="B29" s="6">
+        <v>-74.985240709999999</v>
+      </c>
+      <c r="C29" s="6">
+        <v>-51.049575089999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>25</v>
+      </c>
+      <c r="B30" s="6">
+        <v>-75.972331120000007</v>
+      </c>
+      <c r="C30" s="6">
+        <v>-52.175731300000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <v>26</v>
+      </c>
+      <c r="B31" s="6">
+        <v>-76.947613270000005</v>
+      </c>
+      <c r="C31" s="6">
+        <v>-53.00927935</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <v>27</v>
+      </c>
+      <c r="B32" s="6">
+        <v>-77.947125740000004</v>
+      </c>
+      <c r="C32" s="6">
+        <v>-53.57238194</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <v>28</v>
+      </c>
+      <c r="B33" s="6">
+        <v>-78.902608549999997</v>
+      </c>
+      <c r="C33" s="6">
+        <v>-53.865276379999997</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <v>29</v>
+      </c>
+      <c r="B34" s="6">
+        <v>-79.884070080000001</v>
+      </c>
+      <c r="C34" s="6">
+        <v>-53.887956340000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
+        <v>30</v>
+      </c>
+      <c r="B35" s="6">
+        <v>-80.923544419999999</v>
+      </c>
+      <c r="C35" s="6">
+        <v>-53.677299189999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="8">
+        <v>-51.254911188296873</v>
+      </c>
+      <c r="C36" s="8">
+        <v>-34.129319887031251</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A39:E39"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F25262A5-84B2-4BF6-AF4E-DBAA1AC8379B}">
   <sheetPr codeName="Sheet8">
     <tabColor rgb="FFFFFF00"/>
@@ -2080,14 +2510,14 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet7">
     <tabColor rgb="FFFFFF00"/>
@@ -2096,9 +2526,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="31" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H31" s="1"/>
     </row>
   </sheetData>
@@ -2138,25 +2568,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF1BF4C2-4434-4B4D-94BE-B91D2B1C25FB}">
-  <sheetPr codeName="Sheet10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B53624B2-29FC-4CB9-A7C6-D02151E5E76D}">
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="19.7265625" customWidth="1"/>
+    <col min="1" max="3" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -2167,7 +2596,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
@@ -2178,375 +2607,375 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="6">
-        <v>2.4274052947999998</v>
+        <v>3.4724288437999999</v>
       </c>
       <c r="C4" s="7">
-        <v>-8.9323407459999995</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-8.7943134349999994</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="6">
-        <v>6.9233750000000001</v>
+        <v>7.1986041667</v>
       </c>
       <c r="C5" s="6">
-        <v>-19.52623968</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-19.354541220000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>1</v>
       </c>
       <c r="B6" s="6">
-        <v>-4.9352799230000004</v>
+        <v>-1.620496771</v>
       </c>
       <c r="C6" s="6">
-        <v>-6.7272442290000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-6.6548716829999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>2</v>
       </c>
       <c r="B7" s="6">
-        <v>-16.797166900000001</v>
+        <v>-18.08999219</v>
       </c>
       <c r="C7" s="6">
-        <v>-9.3211937119999995</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-9.4155254589999995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>3</v>
       </c>
       <c r="B8" s="6">
-        <v>-25.41931786</v>
+        <v>-24.060127770000001</v>
       </c>
       <c r="C8" s="6">
-        <v>-13.31787988</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-13.506114780000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>4</v>
       </c>
       <c r="B9" s="6">
-        <v>-28.369605799999999</v>
+        <v>-28.39299746</v>
       </c>
       <c r="C9" s="6">
-        <v>-17.375943509999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-17.58532056</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>5</v>
       </c>
       <c r="B10" s="6">
-        <v>-31.338654399999999</v>
+        <v>-32.663276719999999</v>
       </c>
       <c r="C10" s="6">
-        <v>-20.336393009999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-20.535751099999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>6</v>
       </c>
       <c r="B11" s="6">
-        <v>-36.708971519999999</v>
+        <v>-37.277833360000002</v>
       </c>
       <c r="C11" s="6">
-        <v>-22.72584161</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-22.902821119999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>7</v>
       </c>
       <c r="B12" s="6">
-        <v>-41.584561260000001</v>
+        <v>-41.111146570000002</v>
       </c>
       <c r="C12" s="6">
-        <v>-24.420363980000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-24.550001640000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>8</v>
       </c>
       <c r="B13" s="6">
-        <v>-45.311712780000001</v>
+        <v>-43.73074767</v>
       </c>
       <c r="C13" s="6">
-        <v>-25.684859060000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-25.745643040000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>9</v>
       </c>
       <c r="B14" s="6">
-        <v>-48.763242890000001</v>
+        <v>-45.893263529999999</v>
       </c>
       <c r="C14" s="6">
-        <v>-26.69785263</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-26.687432439999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>10</v>
       </c>
       <c r="B15" s="6">
-        <v>-51.201561409999996</v>
+        <v>-47.532382470000002</v>
       </c>
       <c r="C15" s="6">
-        <v>-27.582636350000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-27.509151849999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>11</v>
       </c>
       <c r="B16" s="6">
-        <v>-53.71575412</v>
+        <v>-49.801419099999997</v>
       </c>
       <c r="C16" s="6">
-        <v>-28.617826610000002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-28.49967698</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>12</v>
       </c>
       <c r="B17" s="6">
-        <v>-57.024463849999997</v>
+        <v>-52.972064009999997</v>
       </c>
       <c r="C17" s="6">
-        <v>-29.917975439999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-29.778378839999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>13</v>
       </c>
       <c r="B18" s="6">
-        <v>-60.549191319999998</v>
+        <v>-56.523931099999999</v>
       </c>
       <c r="C18" s="6">
-        <v>-31.53835531</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-31.396261989999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>14</v>
       </c>
       <c r="B19" s="6">
-        <v>-63.802806199999999</v>
+        <v>-59.921281749999999</v>
       </c>
       <c r="C19" s="6">
-        <v>-33.356696409999998</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-33.225161249999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>15</v>
       </c>
       <c r="B20" s="6">
-        <v>-66.762346469999997</v>
+        <v>-62.96260916</v>
       </c>
       <c r="C20" s="6">
-        <v>-35.302736400000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-35.188960389999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>16</v>
       </c>
       <c r="B21" s="6">
-        <v>-69.330136980000006</v>
+        <v>-65.596927809999997</v>
       </c>
       <c r="C21" s="6">
-        <v>-37.342837660000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-37.250419440000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>17</v>
       </c>
       <c r="B22" s="6">
-        <v>-71.447141000000002</v>
+        <v>-67.763451720000006</v>
       </c>
       <c r="C22" s="6">
-        <v>-39.438690999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-39.368262309999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>18</v>
       </c>
       <c r="B23" s="6">
-        <v>-73.113739370000005</v>
+        <v>-69.482092859999995</v>
       </c>
       <c r="C23" s="6">
-        <v>-41.528823709999998</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-41.48089796</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>19</v>
       </c>
       <c r="B24" s="6">
-        <v>-74.425054669999994</v>
+        <v>-70.798923459999997</v>
       </c>
       <c r="C24" s="6">
-        <v>-43.558589079999997</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-43.531780380000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>20</v>
       </c>
       <c r="B25" s="6">
-        <v>-75.417382239999995</v>
+        <v>-71.718027719999995</v>
       </c>
       <c r="C25" s="6">
-        <v>-45.465333350000002</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-45.458494930000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>21</v>
       </c>
       <c r="B26" s="6">
-        <v>-76.16547018</v>
+        <v>-72.437862120000005</v>
       </c>
       <c r="C26" s="6">
-        <v>-47.288209500000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-47.299315040000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>22</v>
       </c>
       <c r="B27" s="6">
-        <v>-76.819767060000004</v>
+        <v>-73.023238430000006</v>
       </c>
       <c r="C27" s="6">
-        <v>-49.042219899999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-49.067344429999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>23</v>
       </c>
       <c r="B28" s="6">
-        <v>-77.388442879999999</v>
+        <v>-73.531606519999997</v>
       </c>
       <c r="C28" s="6">
-        <v>-50.655220579999998</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-50.689005350000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>24</v>
       </c>
       <c r="B29" s="6">
-        <v>-77.905349700000002</v>
+        <v>-73.993694950000005</v>
       </c>
       <c r="C29" s="6">
-        <v>-52.06386045</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-52.100942850000003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>25</v>
       </c>
       <c r="B30" s="6">
-        <v>-78.460760759999999</v>
+        <v>-74.449839019999999</v>
       </c>
       <c r="C30" s="6">
-        <v>-53.208640240000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-53.242964989999997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>26</v>
       </c>
       <c r="B31" s="6">
-        <v>-78.975641449999998</v>
+        <v>-74.930953400000007</v>
       </c>
       <c r="C31" s="6">
-        <v>-54.057813240000002</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-54.083172519999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>27</v>
       </c>
       <c r="B32" s="6">
-        <v>-79.518717260000003</v>
+        <v>-75.361595589999993</v>
       </c>
       <c r="C32" s="6">
-        <v>-54.629336690000002</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-54.637301020000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>28</v>
       </c>
       <c r="B33" s="6">
-        <v>-80.048485589999999</v>
+        <v>-75.834056259999997</v>
       </c>
       <c r="C33" s="6">
-        <v>-54.923712899999998</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-54.906561940000003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>29</v>
       </c>
       <c r="B34" s="6">
-        <v>-80.649995489999995</v>
+        <v>-76.42380532</v>
       </c>
       <c r="C34" s="6">
-        <v>-54.94017556</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-54.889495689999997</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>30</v>
       </c>
       <c r="B35" s="6">
-        <v>-81.347776449999998</v>
+        <v>-76.999753440000006</v>
       </c>
       <c r="C35" s="6">
-        <v>-54.716363970000003</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-54.624402969999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B36" s="8">
-        <v>-55.435866171506248</v>
+        <v>-52.632136413765615</v>
       </c>
       <c r="C36" s="8">
-        <v>-34.820068949906251</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-34.811259049906248</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>10</v>
       </c>
@@ -2564,25 +2993,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6CB6296-F480-49B2-B4EA-61908574360C}">
-  <sheetPr codeName="Sheet6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF1BF4C2-4434-4B4D-94BE-B91D2B1C25FB}">
+  <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="19.54296875" customWidth="1"/>
+    <col min="1" max="3" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -2593,7 +3022,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
@@ -2604,375 +3033,375 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="6">
-        <v>-2.2946285739999999</v>
+        <v>2.4274052947999998</v>
       </c>
       <c r="C4" s="7">
-        <v>-8.9452178999999994</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-8.9323407459999995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="6">
-        <v>-5.7495708329999999</v>
+        <v>6.9233750000000001</v>
       </c>
       <c r="C5" s="6">
-        <v>-19.547263749999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-19.52623968</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>1</v>
       </c>
       <c r="B6" s="6">
-        <v>-7.1317397000000005E-2</v>
+        <v>-4.9352799230000004</v>
       </c>
       <c r="C6" s="6">
-        <v>-6.7054342739999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-6.7272442290000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>2</v>
       </c>
       <c r="B7" s="6">
-        <v>-19.698836140000001</v>
+        <v>-16.797166900000001</v>
       </c>
       <c r="C7" s="6">
-        <v>-9.287519219</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-9.3211937119999995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>3</v>
       </c>
       <c r="B8" s="6">
-        <v>-26.461069389999999</v>
+        <v>-25.41931786</v>
       </c>
       <c r="C8" s="6">
-        <v>-13.290643230000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-13.31787988</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>4</v>
       </c>
       <c r="B9" s="6">
-        <v>-30.113616839999999</v>
+        <v>-28.369605799999999</v>
       </c>
       <c r="C9" s="6">
-        <v>-17.35225642</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-17.375943509999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>5</v>
       </c>
       <c r="B10" s="6">
-        <v>-33.795157619999998</v>
+        <v>-31.338654399999999</v>
       </c>
       <c r="C10" s="6">
-        <v>-20.310462810000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-20.336393009999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>6</v>
       </c>
       <c r="B11" s="6">
-        <v>-38.593029180000002</v>
+        <v>-36.708971519999999</v>
       </c>
       <c r="C11" s="6">
-        <v>-22.693275400000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-22.72584161</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>7</v>
       </c>
       <c r="B12" s="6">
-        <v>-42.763459320000003</v>
+        <v>-41.584561260000001</v>
       </c>
       <c r="C12" s="6">
-        <v>-24.382036589999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-24.420363980000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>8</v>
       </c>
       <c r="B13" s="6">
-        <v>-45.915071730000001</v>
+        <v>-45.311712780000001</v>
       </c>
       <c r="C13" s="6">
-        <v>-25.643973679999998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-25.684859060000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>9</v>
       </c>
       <c r="B14" s="6">
-        <v>-48.749800209999997</v>
+        <v>-48.763242890000001</v>
       </c>
       <c r="C14" s="6">
-        <v>-26.656041980000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-26.69785263</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>10</v>
       </c>
       <c r="B15" s="6">
-        <v>-50.927608079999999</v>
+        <v>-51.201561409999996</v>
       </c>
       <c r="C15" s="6">
-        <v>-27.540698630000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-27.582636350000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>11</v>
       </c>
       <c r="B16" s="6">
-        <v>-53.388492530000001</v>
+        <v>-53.71575412</v>
       </c>
       <c r="C16" s="6">
-        <v>-28.575592530000002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-28.617826610000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>12</v>
       </c>
       <c r="B17" s="6">
-        <v>-56.704416449999997</v>
+        <v>-57.024463849999997</v>
       </c>
       <c r="C17" s="6">
-        <v>-29.87441793</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-29.917975439999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>13</v>
       </c>
       <c r="B18" s="6">
-        <v>-60.284736819999999</v>
+        <v>-60.549191319999998</v>
       </c>
       <c r="C18" s="6">
-        <v>-31.493182990000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-31.53835531</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>14</v>
       </c>
       <c r="B19" s="6">
-        <v>-63.73719689</v>
+        <v>-63.802806199999999</v>
       </c>
       <c r="C19" s="6">
-        <v>-33.310273520000003</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-33.356696409999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>15</v>
       </c>
       <c r="B20" s="6">
-        <v>-66.889132689999997</v>
+        <v>-66.762346469999997</v>
       </c>
       <c r="C20" s="6">
-        <v>-35.255477339999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-35.302736400000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>16</v>
       </c>
       <c r="B21" s="6">
-        <v>-69.683531700000003</v>
+        <v>-69.330136980000006</v>
       </c>
       <c r="C21" s="6">
-        <v>-37.295356040000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-37.342837660000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>17</v>
       </c>
       <c r="B22" s="6">
-        <v>-72.018601439999998</v>
+        <v>-71.447141000000002</v>
       </c>
       <c r="C22" s="6">
-        <v>-39.391869059999998</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-39.438690999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>18</v>
       </c>
       <c r="B23" s="6">
-        <v>-73.887692729999998</v>
+        <v>-73.113739370000005</v>
       </c>
       <c r="C23" s="6">
-        <v>-41.483149300000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-41.528823709999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>19</v>
       </c>
       <c r="B24" s="6">
-        <v>-75.336575179999997</v>
+        <v>-74.425054669999994</v>
       </c>
       <c r="C24" s="6">
-        <v>-43.514330309999998</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-43.558589079999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>20</v>
       </c>
       <c r="B25" s="6">
-        <v>-76.336133829999994</v>
+        <v>-75.417382239999995</v>
       </c>
       <c r="C25" s="6">
-        <v>-45.422490160000002</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-45.465333350000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>21</v>
       </c>
       <c r="B26" s="6">
-        <v>-77.119025969999996</v>
+        <v>-76.16547018</v>
       </c>
       <c r="C26" s="6">
-        <v>-47.246572129999997</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-47.288209500000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>22</v>
       </c>
       <c r="B27" s="6">
-        <v>-77.701040239999998</v>
+        <v>-76.819767060000004</v>
       </c>
       <c r="C27" s="6">
-        <v>-49.001913780000002</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-49.042219899999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>23</v>
       </c>
       <c r="B28" s="6">
-        <v>-78.269945379999996</v>
+        <v>-77.388442879999999</v>
       </c>
       <c r="C28" s="6">
-        <v>-50.6161222</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-50.655220579999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>24</v>
       </c>
       <c r="B29" s="6">
-        <v>-78.729215969999998</v>
+        <v>-77.905349700000002</v>
       </c>
       <c r="C29" s="6">
-        <v>-52.02565139</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-52.06386045</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>25</v>
       </c>
       <c r="B30" s="6">
-        <v>-79.191535920000007</v>
+        <v>-78.460760759999999</v>
       </c>
       <c r="C30" s="6">
-        <v>-53.170931439999997</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-53.208640240000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>26</v>
       </c>
       <c r="B31" s="6">
-        <v>-79.690444580000005</v>
+        <v>-78.975641449999998</v>
       </c>
       <c r="C31" s="6">
-        <v>-54.020373749999997</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-54.057813240000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>27</v>
       </c>
       <c r="B32" s="6">
-        <v>-80.149463859999997</v>
+        <v>-79.518717260000003</v>
       </c>
       <c r="C32" s="6">
-        <v>-54.592056280000001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-54.629336690000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>28</v>
       </c>
       <c r="B33" s="6">
-        <v>-80.703749779999995</v>
+        <v>-80.048485589999999</v>
       </c>
       <c r="C33" s="6">
-        <v>-54.886465020000003</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-54.923712899999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>29</v>
       </c>
       <c r="B34" s="6">
-        <v>-81.270359029999995</v>
+        <v>-80.649995489999995</v>
       </c>
       <c r="C34" s="6">
-        <v>-54.902809339999997</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-54.94017556</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>30</v>
       </c>
       <c r="B35" s="6">
-        <v>-81.931367850000001</v>
+        <v>-81.347776449999998</v>
       </c>
       <c r="C35" s="6">
-        <v>-54.678748370000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-54.716363970000003</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B36" s="8">
-        <v>-56.504869504812497</v>
+        <v>-55.435866171506248</v>
       </c>
       <c r="C36" s="8">
-        <v>-34.784768961343744</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-34.820068949906251</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>10</v>
       </c>
@@ -2990,25 +3419,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CE138FB-FABF-4565-91D3-7A1FC3DB0D62}">
-  <sheetPr codeName="Sheet9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6CB6296-F480-49B2-B4EA-61908574360C}">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="19.7265625" customWidth="1"/>
+    <col min="1" max="3" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -3019,7 +3448,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
@@ -3030,375 +3459,375 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="6">
-        <v>-3.134627745</v>
+        <v>-2.2946285739999999</v>
       </c>
       <c r="C4" s="7">
-        <v>-8.8844283669999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-8.9452178999999994</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="6">
-        <v>-8.2969333330000001</v>
+        <v>-5.7495708329999999</v>
       </c>
       <c r="C5" s="6">
-        <v>-19.512517620000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-19.547263749999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>1</v>
       </c>
       <c r="B6" s="6">
-        <v>-6.6978339240000002</v>
+        <v>-7.1317397000000005E-2</v>
       </c>
       <c r="C6" s="6">
-        <v>-6.6477093030000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-6.7054342739999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>2</v>
       </c>
       <c r="B7" s="6">
-        <v>-20.079526210000001</v>
+        <v>-19.698836140000001</v>
       </c>
       <c r="C7" s="6">
-        <v>-9.1898018480000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-9.287519219</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>3</v>
       </c>
       <c r="B8" s="6">
-        <v>-25.12024143</v>
+        <v>-26.461069389999999</v>
       </c>
       <c r="C8" s="6">
-        <v>-13.198829760000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-13.290643230000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>4</v>
       </c>
       <c r="B9" s="6">
-        <v>-29.36769408</v>
+        <v>-30.113616839999999</v>
       </c>
       <c r="C9" s="6">
-        <v>-17.264819159999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-17.35225642</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>5</v>
       </c>
       <c r="B10" s="6">
-        <v>-33.358860460000002</v>
+        <v>-33.795157619999998</v>
       </c>
       <c r="C10" s="6">
-        <v>-20.231054740000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-20.310462810000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>6</v>
       </c>
       <c r="B11" s="6">
-        <v>-37.754778389999998</v>
+        <v>-38.593029180000002</v>
       </c>
       <c r="C11" s="6">
-        <v>-22.611586800000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-22.693275400000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>7</v>
       </c>
       <c r="B12" s="6">
-        <v>-41.873334020000001</v>
+        <v>-42.763459320000003</v>
       </c>
       <c r="C12" s="6">
-        <v>-24.303556700000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-24.382036589999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>8</v>
       </c>
       <c r="B13" s="6">
-        <v>-45.608564309999998</v>
+        <v>-45.915071730000001</v>
       </c>
       <c r="C13" s="6">
-        <v>-25.5850501</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-25.643973679999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>9</v>
       </c>
       <c r="B14" s="6">
-        <v>-49.215965189999999</v>
+        <v>-48.749800209999997</v>
       </c>
       <c r="C14" s="6">
-        <v>-26.623976379999998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-26.656041980000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>10</v>
       </c>
       <c r="B15" s="6">
-        <v>-52.039830119999998</v>
+        <v>-50.927608079999999</v>
       </c>
       <c r="C15" s="6">
-        <v>-27.534580980000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-27.540698630000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>11</v>
       </c>
       <c r="B16" s="6">
-        <v>-54.872374749999999</v>
+        <v>-53.388492530000001</v>
       </c>
       <c r="C16" s="6">
-        <v>-28.588661819999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-28.575592530000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>12</v>
       </c>
       <c r="B17" s="6">
-        <v>-58.332384300000001</v>
+        <v>-56.704416449999997</v>
       </c>
       <c r="C17" s="6">
-        <v>-29.896902310000002</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-29.87441793</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>13</v>
       </c>
       <c r="B18" s="6">
-        <v>-62.021799209999998</v>
+        <v>-60.284736819999999</v>
       </c>
       <c r="C18" s="6">
-        <v>-31.517388799999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-31.493182990000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>14</v>
       </c>
       <c r="B19" s="6">
-        <v>-65.753993679999994</v>
+        <v>-63.73719689</v>
       </c>
       <c r="C19" s="6">
-        <v>-33.330963150000002</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-33.310273520000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>15</v>
       </c>
       <c r="B20" s="6">
-        <v>-69.271178689999999</v>
+        <v>-66.889132689999997</v>
       </c>
       <c r="C20" s="6">
-        <v>-35.270356630000002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-35.255477339999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>16</v>
       </c>
       <c r="B21" s="6">
-        <v>-72.389395980000003</v>
+        <v>-69.683531700000003</v>
       </c>
       <c r="C21" s="6">
-        <v>-37.304146250000002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-37.295356040000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>17</v>
       </c>
       <c r="B22" s="6">
-        <v>-75.004637059999993</v>
+        <v>-72.018601439999998</v>
       </c>
       <c r="C22" s="6">
-        <v>-39.395071459999997</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-39.391869059999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>18</v>
       </c>
       <c r="B23" s="6">
-        <v>-77.091579780000004</v>
+        <v>-73.887692729999998</v>
       </c>
       <c r="C23" s="6">
-        <v>-41.480578600000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-41.483149300000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>19</v>
       </c>
       <c r="B24" s="6">
-        <v>-78.617889880000007</v>
+        <v>-75.336575179999997</v>
       </c>
       <c r="C24" s="6">
-        <v>-43.506062659999998</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-43.514330309999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>20</v>
       </c>
       <c r="B25" s="6">
-        <v>-79.676858940000002</v>
+        <v>-76.336133829999994</v>
       </c>
       <c r="C25" s="6">
-        <v>-45.407974009999997</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-45.422490160000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>21</v>
       </c>
       <c r="B26" s="6">
-        <v>-80.394952880000005</v>
+        <v>-77.119025969999996</v>
       </c>
       <c r="C26" s="6">
-        <v>-47.225787050000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-47.246572129999997</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>22</v>
       </c>
       <c r="B27" s="6">
-        <v>-80.985263750000001</v>
+        <v>-77.701040239999998</v>
       </c>
       <c r="C27" s="6">
-        <v>-48.97460959</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-49.001913780000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>23</v>
       </c>
       <c r="B28" s="6">
-        <v>-81.424163550000003</v>
+        <v>-78.269945379999996</v>
       </c>
       <c r="C28" s="6">
-        <v>-50.583230579999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-50.6161222</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>24</v>
       </c>
       <c r="B29" s="6">
-        <v>-81.838858110000004</v>
+        <v>-78.729215969999998</v>
       </c>
       <c r="C29" s="6">
-        <v>-51.987863869999998</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-52.02565139</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>25</v>
       </c>
       <c r="B30" s="6">
-        <v>-82.241103469999999</v>
+        <v>-79.191535920000007</v>
       </c>
       <c r="C30" s="6">
-        <v>-53.129099150000002</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-53.170931439999997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>26</v>
       </c>
       <c r="B31" s="6">
-        <v>-82.546846930000001</v>
+        <v>-79.690444580000005</v>
       </c>
       <c r="C31" s="6">
-        <v>-53.975407799999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-54.020373749999997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>27</v>
       </c>
       <c r="B32" s="6">
-        <v>-82.865706590000002</v>
+        <v>-80.149463859999997</v>
       </c>
       <c r="C32" s="6">
-        <v>-54.546183999999997</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-54.592056280000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>28</v>
       </c>
       <c r="B33" s="6">
-        <v>-83.223837489999994</v>
+        <v>-80.703749779999995</v>
       </c>
       <c r="C33" s="6">
-        <v>-54.84183324</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-54.886465020000003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>29</v>
       </c>
       <c r="B34" s="6">
-        <v>-83.649046080000005</v>
+        <v>-81.270359029999995</v>
       </c>
       <c r="C34" s="6">
-        <v>-54.862228979999998</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-54.902809339999997</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>30</v>
       </c>
       <c r="B35" s="6">
-        <v>-84.139728160000004</v>
+        <v>-81.931367850000001</v>
       </c>
       <c r="C35" s="6">
-        <v>-54.644783750000002</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-54.678748370000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B36" s="8">
-        <v>-58.402805890375014</v>
+        <v>-56.504869504812497</v>
       </c>
       <c r="C36" s="8">
-        <v>-34.751782670562498</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-34.784768961343744</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>10</v>
       </c>
@@ -3416,25 +3845,25 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68A65C64-A2BC-4A28-9AE0-4ADFC897F100}">
-  <sheetPr codeName="Sheet2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CE138FB-FABF-4565-91D3-7A1FC3DB0D62}">
+  <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="19.7265625" customWidth="1"/>
+    <col min="1" max="3" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -3445,7 +3874,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
@@ -3456,375 +3885,375 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="6">
-        <v>5.0859756707999999</v>
+        <v>-3.134627745</v>
       </c>
       <c r="C4" s="7">
-        <v>-8.7527777610000008</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-8.8844283669999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="6">
-        <v>-3.2122312499999999</v>
+        <v>-8.2969333330000001</v>
       </c>
       <c r="C5" s="6">
-        <v>-19.551172210000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-19.512517620000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>1</v>
       </c>
       <c r="B6" s="6">
-        <v>-5.3938096389999997</v>
+        <v>-6.6978339240000002</v>
       </c>
       <c r="C6" s="6">
-        <v>-6.6258483119999996</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-6.6477093030000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>2</v>
       </c>
       <c r="B7" s="6">
-        <v>-17.6383081</v>
+        <v>-20.079526210000001</v>
       </c>
       <c r="C7" s="6">
-        <v>-9.1118174399999994</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-9.1898018480000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>3</v>
       </c>
       <c r="B8" s="6">
-        <v>-25.470428269999999</v>
+        <v>-25.12024143</v>
       </c>
       <c r="C8" s="6">
-        <v>-13.10593925</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-13.198829760000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>4</v>
       </c>
       <c r="B9" s="6">
-        <v>-28.583784139999999</v>
+        <v>-29.36769408</v>
       </c>
       <c r="C9" s="6">
-        <v>-17.15966766</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-17.264819159999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>5</v>
       </c>
       <c r="B10" s="6">
-        <v>-32.313720269999997</v>
+        <v>-33.358860460000002</v>
       </c>
       <c r="C10" s="6">
-        <v>-20.109887100000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-20.231054740000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>6</v>
       </c>
       <c r="B11" s="6">
-        <v>-38.931783619999997</v>
+        <v>-37.754778389999998</v>
       </c>
       <c r="C11" s="6">
-        <v>-22.460405290000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-22.611586800000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>7</v>
       </c>
       <c r="B12" s="6">
-        <v>-44.193969389999999</v>
+        <v>-41.873334020000001</v>
       </c>
       <c r="C12" s="6">
-        <v>-24.13231854</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-24.303556700000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>8</v>
       </c>
       <c r="B13" s="6">
-        <v>-47.542450969999997</v>
+        <v>-45.608564309999998</v>
       </c>
       <c r="C13" s="6">
-        <v>-25.411235569999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-25.5850501</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>9</v>
       </c>
       <c r="B14" s="6">
-        <v>-50.163651139999999</v>
+        <v>-49.215965189999999</v>
       </c>
       <c r="C14" s="6">
-        <v>-26.454934649999998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-26.623976379999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>10</v>
       </c>
       <c r="B15" s="6">
-        <v>-52.336857309999999</v>
+        <v>-52.039830119999998</v>
       </c>
       <c r="C15" s="6">
-        <v>-27.373401099999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-27.534580980000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>11</v>
       </c>
       <c r="B16" s="6">
-        <v>-54.971295679999997</v>
+        <v>-54.872374749999999</v>
       </c>
       <c r="C16" s="6">
-        <v>-28.430558510000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-28.588661819999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>12</v>
       </c>
       <c r="B17" s="6">
-        <v>-58.43417676</v>
+        <v>-58.332384300000001</v>
       </c>
       <c r="C17" s="6">
-        <v>-29.734671070000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-29.896902310000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>13</v>
       </c>
       <c r="B18" s="6">
-        <v>-62.293765010000001</v>
+        <v>-62.021799209999998</v>
       </c>
       <c r="C18" s="6">
-        <v>-31.348709249999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-31.517388799999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>14</v>
       </c>
       <c r="B19" s="6">
-        <v>-66.011600229999999</v>
+        <v>-65.753993679999994</v>
       </c>
       <c r="C19" s="6">
-        <v>-33.155734270000004</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-33.330963150000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>15</v>
       </c>
       <c r="B20" s="6">
-        <v>-69.414165049999994</v>
+        <v>-69.271178689999999</v>
       </c>
       <c r="C20" s="6">
-        <v>-35.089932470000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-35.270356630000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>16</v>
       </c>
       <c r="B21" s="6">
-        <v>-72.491311699999997</v>
+        <v>-72.389395980000003</v>
       </c>
       <c r="C21" s="6">
-        <v>-37.12107932</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-37.304146250000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>17</v>
       </c>
       <c r="B22" s="6">
-        <v>-75.090810840000003</v>
+        <v>-75.004637059999993</v>
       </c>
       <c r="C22" s="6">
-        <v>-39.212890770000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-39.395071459999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>18</v>
       </c>
       <c r="B23" s="6">
-        <v>-77.190148410000006</v>
+        <v>-77.091579780000004</v>
       </c>
       <c r="C23" s="6">
-        <v>-41.302100979999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-41.480578600000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>19</v>
       </c>
       <c r="B24" s="6">
-        <v>-78.831857769999999</v>
+        <v>-78.617889880000007</v>
       </c>
       <c r="C24" s="6">
-        <v>-43.333805429999998</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-43.506062659999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>20</v>
       </c>
       <c r="B25" s="6">
-        <v>-79.984670260000001</v>
+        <v>-79.676858940000002</v>
       </c>
       <c r="C25" s="6">
-        <v>-45.243860439999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-45.407974009999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>21</v>
       </c>
       <c r="B26" s="6">
-        <v>-80.892094299999997</v>
+        <v>-80.394952880000005</v>
       </c>
       <c r="C26" s="6">
-        <v>-47.07103085</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-47.225787050000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>22</v>
       </c>
       <c r="B27" s="6">
-        <v>-81.584893280000003</v>
+        <v>-80.985263750000001</v>
       </c>
       <c r="C27" s="6">
-        <v>-48.82968099</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-48.97460959</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>23</v>
       </c>
       <c r="B28" s="6">
-        <v>-82.188618529999999</v>
+        <v>-81.424163550000003</v>
       </c>
       <c r="C28" s="6">
-        <v>-50.447831409999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-50.583230579999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>24</v>
       </c>
       <c r="B29" s="6">
-        <v>-82.680878059999998</v>
+        <v>-81.838858110000004</v>
       </c>
       <c r="C29" s="6">
-        <v>-51.860813120000003</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-51.987863869999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>25</v>
       </c>
       <c r="B30" s="6">
-        <v>-83.151031070000002</v>
+        <v>-82.241103469999999</v>
       </c>
       <c r="C30" s="6">
-        <v>-53.008224439999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-53.129099150000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>26</v>
       </c>
       <c r="B31" s="6">
-        <v>-83.591067050000007</v>
+        <v>-82.546846930000001</v>
       </c>
       <c r="C31" s="6">
-        <v>-53.858057080000002</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-53.975407799999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>27</v>
       </c>
       <c r="B32" s="6">
-        <v>-84.032647600000004</v>
+        <v>-82.865706590000002</v>
       </c>
       <c r="C32" s="6">
-        <v>-54.429723799999998</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-54.546183999999997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>28</v>
       </c>
       <c r="B33" s="6">
-        <v>-84.520683610000006</v>
+        <v>-83.223837489999994</v>
       </c>
       <c r="C33" s="6">
-        <v>-54.723002950000001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-54.84183324</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>29</v>
       </c>
       <c r="B34" s="6">
-        <v>-85.024842120000002</v>
+        <v>-83.649046080000005</v>
       </c>
       <c r="C34" s="6">
-        <v>-54.737616420000002</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-54.862228979999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>30</v>
       </c>
       <c r="B35" s="6">
-        <v>-85.635214500000004</v>
+        <v>-84.139728160000004</v>
       </c>
       <c r="C35" s="6">
-        <v>-54.511005230000002</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-54.644783750000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B36" s="8">
-        <v>-58.397212195568756</v>
+        <v>-58.402805890375014</v>
       </c>
       <c r="C36" s="8">
-        <v>-34.615616677593756</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-34.751782670562498</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>10</v>
       </c>
@@ -3842,25 +4271,25 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36971AA9-8593-40CA-AF5E-AB605D9DEDA6}">
-  <sheetPr codeName="Sheet3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68A65C64-A2BC-4A28-9AE0-4ADFC897F100}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="19.7265625" customWidth="1"/>
+    <col min="1" max="3" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -3871,7 +4300,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
@@ -3882,375 +4311,375 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="6">
-        <v>4.1547234381999996</v>
+        <v>5.0859756707999999</v>
       </c>
       <c r="C4" s="7">
-        <v>-8.7729818769999994</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-8.7527777610000008</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="6">
-        <v>-3.0644604169999998</v>
+        <v>-3.2122312499999999</v>
       </c>
       <c r="C5" s="6">
-        <v>-19.613466630000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-19.551172210000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>1</v>
       </c>
       <c r="B6" s="6">
-        <v>-8.3353299070000002</v>
+        <v>-5.3938096389999997</v>
       </c>
       <c r="C6" s="6">
-        <v>-6.5920257690000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-6.6258483119999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>2</v>
       </c>
       <c r="B7" s="6">
-        <v>-19.893430649999999</v>
+        <v>-17.6383081</v>
       </c>
       <c r="C7" s="6">
-        <v>-8.9759842499999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-9.1118174399999994</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>3</v>
       </c>
       <c r="B8" s="6">
-        <v>-24.992195519999999</v>
+        <v>-25.470428269999999</v>
       </c>
       <c r="C8" s="6">
-        <v>-12.948592189999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-13.10593925</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>4</v>
       </c>
       <c r="B9" s="6">
-        <v>-28.96165951</v>
+        <v>-28.583784139999999</v>
       </c>
       <c r="C9" s="6">
-        <v>-16.995025210000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-17.15966766</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>5</v>
       </c>
       <c r="B10" s="6">
-        <v>-33.009018849999997</v>
+        <v>-32.313720269999997</v>
       </c>
       <c r="C10" s="6">
-        <v>-19.939108900000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-20.109887100000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>6</v>
       </c>
       <c r="B11" s="6">
-        <v>-37.627369420000001</v>
+        <v>-38.931783619999997</v>
       </c>
       <c r="C11" s="6">
-        <v>-22.281845090000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-22.460405290000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>7</v>
       </c>
       <c r="B12" s="6">
-        <v>-41.938092330000003</v>
+        <v>-44.193969389999999</v>
       </c>
       <c r="C12" s="6">
-        <v>-23.96185191</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-24.13231854</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>8</v>
       </c>
       <c r="B13" s="6">
-        <v>-45.036503719999999</v>
+        <v>-47.542450969999997</v>
       </c>
       <c r="C13" s="6">
-        <v>-25.260750699999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-25.411235569999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>9</v>
       </c>
       <c r="B14" s="6">
-        <v>-47.993867690000002</v>
+        <v>-50.163651139999999</v>
       </c>
       <c r="C14" s="6">
-        <v>-26.324118139999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-26.454934649999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>10</v>
       </c>
       <c r="B15" s="6">
-        <v>-50.266548649999997</v>
+        <v>-52.336857309999999</v>
       </c>
       <c r="C15" s="6">
-        <v>-27.258422979999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-27.373401099999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>11</v>
       </c>
       <c r="B16" s="6">
-        <v>-52.839158380000001</v>
+        <v>-54.971295679999997</v>
       </c>
       <c r="C16" s="6">
-        <v>-28.321130780000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-28.430558510000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>12</v>
       </c>
       <c r="B17" s="6">
-        <v>-55.857302109999999</v>
+        <v>-58.43417676</v>
       </c>
       <c r="C17" s="6">
-        <v>-29.618544570000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-29.734671070000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>13</v>
       </c>
       <c r="B18" s="6">
-        <v>-59.28285846</v>
+        <v>-62.293765010000001</v>
       </c>
       <c r="C18" s="6">
-        <v>-31.21828373</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-31.348709249999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>14</v>
       </c>
       <c r="B19" s="6">
-        <v>-62.82900472</v>
+        <v>-66.011600229999999</v>
       </c>
       <c r="C19" s="6">
-        <v>-33.007581989999998</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-33.155734270000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>15</v>
       </c>
       <c r="B20" s="6">
-        <v>-66.30202894</v>
+        <v>-69.414165049999994</v>
       </c>
       <c r="C20" s="6">
-        <v>-34.923720619999997</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-35.089932470000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>16</v>
       </c>
       <c r="B21" s="6">
-        <v>-69.429021000000006</v>
+        <v>-72.491311699999997</v>
       </c>
       <c r="C21" s="6">
-        <v>-36.938704399999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-37.12107932</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>17</v>
       </c>
       <c r="B22" s="6">
-        <v>-71.996276929999993</v>
+        <v>-75.090810840000003</v>
       </c>
       <c r="C22" s="6">
-        <v>-39.017543459999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-39.212890770000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>18</v>
       </c>
       <c r="B23" s="6">
-        <v>-74.120905410000006</v>
+        <v>-77.190148410000006</v>
       </c>
       <c r="C23" s="6">
-        <v>-41.096324389999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-41.302100979999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>19</v>
       </c>
       <c r="B24" s="6">
-        <v>-75.72266922</v>
+        <v>-78.831857769999999</v>
       </c>
       <c r="C24" s="6">
-        <v>-43.120406600000003</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-43.333805429999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>20</v>
       </c>
       <c r="B25" s="6">
-        <v>-76.814629780000004</v>
+        <v>-79.984670260000001</v>
       </c>
       <c r="C25" s="6">
-        <v>-45.024940800000003</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-45.243860439999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>21</v>
       </c>
       <c r="B26" s="6">
-        <v>-77.543292080000001</v>
+        <v>-80.892094299999997</v>
       </c>
       <c r="C26" s="6">
-        <v>-46.848219200000003</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-47.07103085</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>22</v>
       </c>
       <c r="B27" s="6">
-        <v>-78.176580079999994</v>
+        <v>-81.584893280000003</v>
       </c>
       <c r="C27" s="6">
-        <v>-48.604353869999997</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-48.82968099</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>23</v>
       </c>
       <c r="B28" s="6">
-        <v>-78.724552770000003</v>
+        <v>-82.188618529999999</v>
       </c>
       <c r="C28" s="6">
-        <v>-50.221350350000002</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-50.447831409999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>24</v>
       </c>
       <c r="B29" s="6">
-        <v>-79.196423719999999</v>
+        <v>-82.680878059999998</v>
       </c>
       <c r="C29" s="6">
-        <v>-51.634098569999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-51.860813120000003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>25</v>
       </c>
       <c r="B30" s="6">
-        <v>-79.598995669999994</v>
+        <v>-83.151031070000002</v>
       </c>
       <c r="C30" s="6">
-        <v>-52.781638620000003</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-53.008224439999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>26</v>
       </c>
       <c r="B31" s="6">
-        <v>-80.010856020000006</v>
+        <v>-83.591067050000007</v>
       </c>
       <c r="C31" s="6">
-        <v>-53.63195022</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-53.858057080000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>27</v>
       </c>
       <c r="B32" s="6">
-        <v>-80.42384946</v>
+        <v>-84.032647600000004</v>
       </c>
       <c r="C32" s="6">
-        <v>-54.205015520000003</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-54.429723799999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>28</v>
       </c>
       <c r="B33" s="6">
-        <v>-80.822470280000005</v>
+        <v>-84.520683610000006</v>
       </c>
       <c r="C33" s="6">
-        <v>-54.500440560000001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-54.723002950000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>29</v>
       </c>
       <c r="B34" s="6">
-        <v>-81.315941719999998</v>
+        <v>-85.024842120000002</v>
       </c>
       <c r="C34" s="6">
-        <v>-54.517990879999999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-54.737616420000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>30</v>
       </c>
       <c r="B35" s="6">
-        <v>-81.931346050000002</v>
+        <v>-85.635214500000004</v>
       </c>
       <c r="C35" s="6">
-        <v>-54.294941199999997</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-54.511005230000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B36" s="8">
-        <v>-56.246934875806247</v>
+        <v>-58.397212195568756</v>
       </c>
       <c r="C36" s="8">
-        <v>-34.451604811749995</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-34.615616677593756</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>10</v>
       </c>
@@ -4268,25 +4697,25 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F00F7CDB-E2F7-42FB-8E4C-712A9F309635}">
-  <sheetPr codeName="Sheet4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36971AA9-8593-40CA-AF5E-AB605D9DEDA6}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="19.54296875" customWidth="1"/>
+    <col min="1" max="3" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -4297,7 +4726,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
@@ -4308,375 +4737,375 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="6">
-        <v>5.4069184514000002</v>
+        <v>4.1547234381999996</v>
       </c>
       <c r="C4" s="7">
-        <v>-8.9050473659999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-8.7729818769999994</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="6">
-        <v>2.37319375</v>
+        <v>-3.0644604169999998</v>
       </c>
       <c r="C5" s="6">
-        <v>-19.794978459999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-19.613466630000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>1</v>
       </c>
       <c r="B6" s="6">
-        <v>-2.35371679</v>
+        <v>-8.3353299070000002</v>
       </c>
       <c r="C6" s="6">
-        <v>-6.639183472</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-6.5920257690000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>2</v>
       </c>
       <c r="B7" s="6">
-        <v>-12.934701130000001</v>
+        <v>-19.893430649999999</v>
       </c>
       <c r="C7" s="6">
-        <v>-8.9260524790000009</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-8.9759842499999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>3</v>
       </c>
       <c r="B8" s="6">
-        <v>-19.97415548</v>
+        <v>-24.992195519999999</v>
       </c>
       <c r="C8" s="6">
-        <v>-12.832645080000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-12.948592189999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>4</v>
       </c>
       <c r="B9" s="6">
-        <v>-23.36141718</v>
+        <v>-28.96165951</v>
       </c>
       <c r="C9" s="6">
-        <v>-16.857665950000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-16.995025210000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>5</v>
       </c>
       <c r="B10" s="6">
-        <v>-26.713230490000001</v>
+        <v>-33.009018849999997</v>
       </c>
       <c r="C10" s="6">
-        <v>-19.796963720000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-19.939108900000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>6</v>
       </c>
       <c r="B11" s="6">
-        <v>-31.213914580000001</v>
+        <v>-37.627369420000001</v>
       </c>
       <c r="C11" s="6">
-        <v>-22.141197810000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-22.281845090000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>7</v>
       </c>
       <c r="B12" s="6">
-        <v>-35.071936430000001</v>
+        <v>-41.938092330000003</v>
       </c>
       <c r="C12" s="6">
-        <v>-23.833215809999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-23.96185191</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>8</v>
       </c>
       <c r="B13" s="6">
-        <v>-37.632387629999997</v>
+        <v>-45.036503719999999</v>
       </c>
       <c r="C13" s="6">
-        <v>-25.154644170000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-25.260750699999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>9</v>
       </c>
       <c r="B14" s="6">
-        <v>-39.872103250000002</v>
+        <v>-47.993867690000002</v>
       </c>
       <c r="C14" s="6">
-        <v>-26.238820130000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-26.324118139999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>10</v>
       </c>
       <c r="B15" s="6">
-        <v>-41.871231889999997</v>
+        <v>-50.266548649999997</v>
       </c>
       <c r="C15" s="6">
-        <v>-27.189217970000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-27.258422979999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>11</v>
       </c>
       <c r="B16" s="6">
-        <v>-44.309430540000001</v>
+        <v>-52.839158380000001</v>
       </c>
       <c r="C16" s="6">
-        <v>-28.257803729999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-28.321130780000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>12</v>
       </c>
       <c r="B17" s="6">
-        <v>-47.56648946</v>
+        <v>-55.857302109999999</v>
       </c>
       <c r="C17" s="6">
-        <v>-29.548414300000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-29.618544570000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>13</v>
       </c>
       <c r="B18" s="6">
-        <v>-51.069484750000001</v>
+        <v>-59.28285846</v>
       </c>
       <c r="C18" s="6">
-        <v>-31.132498510000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-31.21828373</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>14</v>
       </c>
       <c r="B19" s="6">
-        <v>-54.464428939999998</v>
+        <v>-62.82900472</v>
       </c>
       <c r="C19" s="6">
-        <v>-32.901003469999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-33.007581989999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>15</v>
       </c>
       <c r="B20" s="6">
-        <v>-57.549075340000002</v>
+        <v>-66.30202894</v>
       </c>
       <c r="C20" s="6">
-        <v>-34.795199869999998</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-34.923720619999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>16</v>
       </c>
       <c r="B21" s="6">
-        <v>-60.243913120000002</v>
+        <v>-69.429021000000006</v>
       </c>
       <c r="C21" s="6">
-        <v>-36.78972907</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-36.938704399999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>17</v>
       </c>
       <c r="B22" s="6">
-        <v>-62.562240760000002</v>
+        <v>-71.996276929999993</v>
       </c>
       <c r="C22" s="6">
-        <v>-38.850998400000002</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-39.017543459999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>18</v>
       </c>
       <c r="B23" s="6">
-        <v>-64.466430939999995</v>
+        <v>-74.120905410000006</v>
       </c>
       <c r="C23" s="6">
-        <v>-40.914266439999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-41.096324389999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>19</v>
       </c>
       <c r="B24" s="6">
-        <v>-66.032298119999993</v>
+        <v>-75.72266922</v>
       </c>
       <c r="C24" s="6">
-        <v>-42.925040979999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-43.120406600000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>20</v>
       </c>
       <c r="B25" s="6">
-        <v>-67.192876929999997</v>
+        <v>-76.814629780000004</v>
       </c>
       <c r="C25" s="6">
-        <v>-44.818083479999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-45.024940800000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>21</v>
       </c>
       <c r="B26" s="6">
-        <v>-68.111643880000003</v>
+        <v>-77.543292080000001</v>
       </c>
       <c r="C26" s="6">
-        <v>-46.631318229999998</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-46.848219200000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>22</v>
       </c>
       <c r="B27" s="6">
-        <v>-68.932081030000006</v>
+        <v>-78.176580079999994</v>
       </c>
       <c r="C27" s="6">
-        <v>-48.378785520000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-48.604353869999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>23</v>
       </c>
       <c r="B28" s="6">
-        <v>-69.679363550000005</v>
+        <v>-78.724552770000003</v>
       </c>
       <c r="C28" s="6">
-        <v>-49.9887157</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-50.221350350000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>24</v>
       </c>
       <c r="B29" s="6">
-        <v>-70.388793120000003</v>
+        <v>-79.196423719999999</v>
       </c>
       <c r="C29" s="6">
-        <v>-51.396031000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-51.634098569999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>25</v>
       </c>
       <c r="B30" s="6">
-        <v>-71.113094469999993</v>
+        <v>-79.598995669999994</v>
       </c>
       <c r="C30" s="6">
-        <v>-52.539457319999997</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-52.781638620000003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>26</v>
       </c>
       <c r="B31" s="6">
-        <v>-71.765117129999993</v>
+        <v>-80.010856020000006</v>
       </c>
       <c r="C31" s="6">
-        <v>-53.387141470000003</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-53.63195022</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>27</v>
       </c>
       <c r="B32" s="6">
-        <v>-72.390873580000004</v>
+        <v>-80.42384946</v>
       </c>
       <c r="C32" s="6">
-        <v>-53.959905630000002</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-54.205015520000003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>28</v>
       </c>
       <c r="B33" s="6">
-        <v>-73.115541260000001</v>
+        <v>-80.822470280000005</v>
       </c>
       <c r="C33" s="6">
-        <v>-54.257519369999997</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-54.500440560000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>29</v>
       </c>
       <c r="B34" s="6">
-        <v>-73.885373290000004</v>
+        <v>-81.315941719999998</v>
       </c>
       <c r="C34" s="6">
-        <v>-54.279599709999999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-54.517990879999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>30</v>
       </c>
       <c r="B35" s="6">
-        <v>-74.715274859999994</v>
+        <v>-81.931346050000002</v>
       </c>
       <c r="C35" s="6">
-        <v>-54.063435810000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-54.294941199999997</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B36" s="8">
-        <v>-48.524140866206253</v>
+        <v>-56.246934875806247</v>
       </c>
       <c r="C36" s="8">
-        <v>-34.316393138343749</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-34.451604811749995</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>10</v>
       </c>
@@ -4694,25 +5123,25 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97A43502-C709-47ED-82F5-620B67AC7AF2}">
-  <sheetPr codeName="Sheet5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F00F7CDB-E2F7-42FB-8E4C-712A9F309635}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="19.54296875" customWidth="1"/>
+    <col min="1" max="3" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -4723,7 +5152,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
@@ -4734,375 +5163,375 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="6">
-        <v>8.3710618562000008</v>
+        <v>5.4069184514000002</v>
       </c>
       <c r="C4" s="7">
-        <v>-9.1223835040000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-8.9050473659999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="6">
-        <v>6.8827604167000001</v>
+        <v>2.37319375</v>
       </c>
       <c r="C5" s="6">
-        <v>-20.07372711</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-19.794978459999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>1</v>
       </c>
       <c r="B6" s="6">
-        <v>-0.45804236300000001</v>
+        <v>-2.35371679</v>
       </c>
       <c r="C6" s="6">
-        <v>-6.7572968769999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-6.639183472</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>2</v>
       </c>
       <c r="B7" s="6">
-        <v>-12.71941795</v>
+        <v>-12.934701130000001</v>
       </c>
       <c r="C7" s="6">
-        <v>-8.8279884079999995</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-8.9260524790000009</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>3</v>
       </c>
       <c r="B8" s="6">
-        <v>-20.15243714</v>
+        <v>-19.97415548</v>
       </c>
       <c r="C8" s="6">
-        <v>-12.588669919999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-12.832645080000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>4</v>
       </c>
       <c r="B9" s="6">
-        <v>-23.751924819999999</v>
+        <v>-23.36141718</v>
       </c>
       <c r="C9" s="6">
-        <v>-16.554409629999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-16.857665950000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>5</v>
       </c>
       <c r="B10" s="6">
-        <v>-27.194243180000001</v>
+        <v>-26.713230490000001</v>
       </c>
       <c r="C10" s="6">
-        <v>-19.512283499999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-19.796963720000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>6</v>
       </c>
       <c r="B11" s="6">
-        <v>-32.489066280000003</v>
+        <v>-31.213914580000001</v>
       </c>
       <c r="C11" s="6">
-        <v>-21.90164253</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-22.141197810000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>7</v>
       </c>
       <c r="B12" s="6">
-        <v>-36.337831289999997</v>
+        <v>-35.071936430000001</v>
       </c>
       <c r="C12" s="6">
-        <v>-23.653459680000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-23.833215809999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>8</v>
       </c>
       <c r="B13" s="6">
-        <v>-38.706014519999997</v>
+        <v>-37.632387629999997</v>
       </c>
       <c r="C13" s="6">
-        <v>-25.049233730000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-25.154644170000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>9</v>
       </c>
       <c r="B14" s="6">
-        <v>-40.471754949999998</v>
+        <v>-39.872103250000002</v>
       </c>
       <c r="C14" s="6">
-        <v>-26.202677690000002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-26.238820130000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>10</v>
       </c>
       <c r="B15" s="6">
-        <v>-42.00349147</v>
+        <v>-41.871231889999997</v>
       </c>
       <c r="C15" s="6">
-        <v>-27.206369429999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-27.189217970000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>11</v>
       </c>
       <c r="B16" s="6">
-        <v>-44.176867280000003</v>
+        <v>-44.309430540000001</v>
       </c>
       <c r="C16" s="6">
-        <v>-28.301749300000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-28.257803729999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>12</v>
       </c>
       <c r="B17" s="6">
-        <v>-46.912354790000002</v>
+        <v>-47.56648946</v>
       </c>
       <c r="C17" s="6">
-        <v>-29.595148940000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-29.548414300000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>13</v>
       </c>
       <c r="B18" s="6">
-        <v>-49.899324960000001</v>
+        <v>-51.069484750000001</v>
       </c>
       <c r="C18" s="6">
-        <v>-31.164094469999998</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-31.132498510000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>14</v>
       </c>
       <c r="B19" s="6">
-        <v>-52.964594329999997</v>
+        <v>-54.464428939999998</v>
       </c>
       <c r="C19" s="6">
-        <v>-32.906071109999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-32.901003469999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>15</v>
       </c>
       <c r="B20" s="6">
-        <v>-55.842553180000003</v>
+        <v>-57.549075340000002</v>
       </c>
       <c r="C20" s="6">
-        <v>-34.769279509999997</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-34.795199869999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>16</v>
       </c>
       <c r="B21" s="6">
-        <v>-58.401681119999999</v>
+        <v>-60.243913120000002</v>
       </c>
       <c r="C21" s="6">
-        <v>-36.734082770000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-36.78972907</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>17</v>
       </c>
       <c r="B22" s="6">
-        <v>-60.589063639999999</v>
+        <v>-62.562240760000002</v>
       </c>
       <c r="C22" s="6">
-        <v>-38.767443</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-38.850998400000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>18</v>
       </c>
       <c r="B23" s="6">
-        <v>-62.395214369999998</v>
+        <v>-64.466430939999995</v>
       </c>
       <c r="C23" s="6">
-        <v>-40.803412960000003</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-40.914266439999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>19</v>
       </c>
       <c r="B24" s="6">
-        <v>-63.906038039999999</v>
+        <v>-66.032298119999993</v>
       </c>
       <c r="C24" s="6">
-        <v>-42.78701478</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-42.925040979999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>20</v>
       </c>
       <c r="B25" s="6">
-        <v>-65.080182550000004</v>
+        <v>-67.192876929999997</v>
       </c>
       <c r="C25" s="6">
-        <v>-44.652505580000003</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-44.818083479999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>21</v>
       </c>
       <c r="B26" s="6">
-        <v>-66.067297150000002</v>
+        <v>-68.111643880000003</v>
       </c>
       <c r="C26" s="6">
-        <v>-46.43781911</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-46.631318229999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>22</v>
       </c>
       <c r="B27" s="6">
-        <v>-67.064761509999997</v>
+        <v>-68.932081030000006</v>
       </c>
       <c r="C27" s="6">
-        <v>-48.159291840000002</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-48.378785520000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>23</v>
       </c>
       <c r="B28" s="6">
-        <v>-68.000502510000004</v>
+        <v>-69.679363550000005</v>
       </c>
       <c r="C28" s="6">
-        <v>-49.745504920000002</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-49.9887157</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>24</v>
       </c>
       <c r="B29" s="6">
-        <v>-68.888497229999999</v>
+        <v>-70.388793120000003</v>
       </c>
       <c r="C29" s="6">
-        <v>-51.13243095</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-51.396031000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>25</v>
       </c>
       <c r="B30" s="6">
-        <v>-69.799231989999996</v>
+        <v>-71.113094469999993</v>
       </c>
       <c r="C30" s="6">
-        <v>-52.258362290000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-52.539457319999997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>26</v>
       </c>
       <c r="B31" s="6">
-        <v>-70.670586290000003</v>
+        <v>-71.765117129999993</v>
       </c>
       <c r="C31" s="6">
-        <v>-53.092458290000003</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-53.387141470000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>27</v>
       </c>
       <c r="B32" s="6">
-        <v>-71.565499059999993</v>
+        <v>-72.390873580000004</v>
       </c>
       <c r="C32" s="6">
-        <v>-53.656817369999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-53.959905630000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>28</v>
       </c>
       <c r="B33" s="6">
-        <v>-72.464189930000003</v>
+        <v>-73.115541260000001</v>
       </c>
       <c r="C33" s="6">
-        <v>-53.951834089999998</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-54.257519369999997</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>29</v>
       </c>
       <c r="B34" s="6">
-        <v>-73.397111649999999</v>
+        <v>-73.885373290000004</v>
       </c>
       <c r="C34" s="6">
-        <v>-53.977415229999998</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-54.279599709999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>30</v>
       </c>
       <c r="B35" s="6">
-        <v>-74.446040249999996</v>
+        <v>-74.715274859999994</v>
       </c>
       <c r="C35" s="6">
-        <v>-53.770619439999997</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-54.063435810000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B36" s="8">
-        <v>-47.548812297503126</v>
+        <v>-48.524140866206253</v>
       </c>
       <c r="C36" s="8">
-        <v>-34.191046811218747</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-34.316393138343749</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>10</v>
       </c>
@@ -5120,25 +5549,25 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0334E61F-4137-42F1-8ADC-1EC55566A90B}">
-  <sheetPr codeName="Sheet1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97A43502-C709-47ED-82F5-620B67AC7AF2}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="19.7265625" customWidth="1"/>
+    <col min="1" max="3" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -5149,7 +5578,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
@@ -5160,375 +5589,375 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="6">
-        <v>7.8807580462000004</v>
+        <v>8.3710618562000008</v>
       </c>
       <c r="C4" s="7">
-        <v>-9.1849778220000005</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-9.1223835040000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="6">
-        <v>3.0264520833000002</v>
+        <v>6.8827604167000001</v>
       </c>
       <c r="C5" s="6">
-        <v>-20.17021621</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-20.07372711</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>1</v>
       </c>
       <c r="B6" s="6">
-        <v>2.7109457350000001</v>
+        <v>-0.45804236300000001</v>
       </c>
       <c r="C6" s="6">
-        <v>-6.7807565470000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-6.7572968769999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>2</v>
       </c>
       <c r="B7" s="6">
-        <v>-12.88959281</v>
+        <v>-12.71941795</v>
       </c>
       <c r="C7" s="6">
-        <v>-8.7977132959999995</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-8.8279884079999995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>3</v>
       </c>
       <c r="B8" s="6">
-        <v>-19.98805325</v>
+        <v>-20.15243714</v>
       </c>
       <c r="C8" s="6">
-        <v>-12.5498672</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-12.588669919999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>4</v>
       </c>
       <c r="B9" s="6">
-        <v>-24.302522759999999</v>
+        <v>-23.751924819999999</v>
       </c>
       <c r="C9" s="6">
-        <v>-16.51681786</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-16.554409629999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>5</v>
       </c>
       <c r="B10" s="6">
-        <v>-28.36529337</v>
+        <v>-27.194243180000001</v>
       </c>
       <c r="C10" s="6">
-        <v>-19.471623770000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-19.512283499999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>6</v>
       </c>
       <c r="B11" s="6">
-        <v>-33.281085609999998</v>
+        <v>-32.489066280000003</v>
       </c>
       <c r="C11" s="6">
-        <v>-21.85039106</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-21.90164253</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>7</v>
       </c>
       <c r="B12" s="6">
-        <v>-37.424965550000003</v>
+        <v>-36.337831289999997</v>
       </c>
       <c r="C12" s="6">
-        <v>-23.59367825</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-23.653459680000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>8</v>
       </c>
       <c r="B13" s="6">
-        <v>-40.527535700000001</v>
+        <v>-38.706014519999997</v>
       </c>
       <c r="C13" s="6">
-        <v>-24.986055270000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-25.049233730000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>9</v>
       </c>
       <c r="B14" s="6">
-        <v>-43.148749610000003</v>
+        <v>-40.471754949999998</v>
       </c>
       <c r="C14" s="6">
-        <v>-26.13804378</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-26.202677690000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>10</v>
       </c>
       <c r="B15" s="6">
-        <v>-45.445842380000002</v>
+        <v>-42.00349147</v>
       </c>
       <c r="C15" s="6">
-        <v>-27.14059645</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-27.206369429999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>11</v>
       </c>
       <c r="B16" s="6">
-        <v>-47.954319310000002</v>
+        <v>-44.176867280000003</v>
       </c>
       <c r="C16" s="6">
-        <v>-28.23302752</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-28.301749300000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>12</v>
       </c>
       <c r="B17" s="6">
-        <v>-50.895752739999999</v>
+        <v>-46.912354790000002</v>
       </c>
       <c r="C17" s="6">
-        <v>-29.521375190000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-29.595148940000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>13</v>
       </c>
       <c r="B18" s="6">
-        <v>-53.965127780000003</v>
+        <v>-49.899324960000001</v>
       </c>
       <c r="C18" s="6">
-        <v>-31.084980699999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-31.164094469999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>14</v>
       </c>
       <c r="B19" s="6">
-        <v>-56.996038859999999</v>
+        <v>-52.964594329999997</v>
       </c>
       <c r="C19" s="6">
-        <v>-32.822222109999998</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-32.906071109999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>15</v>
       </c>
       <c r="B20" s="6">
-        <v>-59.980257080000001</v>
+        <v>-55.842553180000003</v>
       </c>
       <c r="C20" s="6">
-        <v>-34.681412080000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-34.769279509999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>16</v>
       </c>
       <c r="B21" s="6">
-        <v>-62.745383459999999</v>
+        <v>-58.401681119999999</v>
       </c>
       <c r="C21" s="6">
-        <v>-36.643586249999998</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-36.734082770000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>17</v>
       </c>
       <c r="B22" s="6">
-        <v>-65.175414779999997</v>
+        <v>-60.589063639999999</v>
       </c>
       <c r="C22" s="6">
-        <v>-38.67573719</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-38.767443</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>18</v>
       </c>
       <c r="B23" s="6">
-        <v>-67.270893119999997</v>
+        <v>-62.395214369999998</v>
       </c>
       <c r="C23" s="6">
-        <v>-40.711742039999997</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-40.803412960000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>19</v>
       </c>
       <c r="B24" s="6">
-        <v>-69.03882935</v>
+        <v>-63.906038039999999</v>
       </c>
       <c r="C24" s="6">
-        <v>-42.696366140000002</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-42.78701478</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>20</v>
       </c>
       <c r="B25" s="6">
-        <v>-70.43978491</v>
+        <v>-65.080182550000004</v>
       </c>
       <c r="C25" s="6">
-        <v>-44.563470369999997</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-44.652505580000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>21</v>
       </c>
       <c r="B26" s="6">
-        <v>-71.633975890000002</v>
+        <v>-66.067297150000002</v>
       </c>
       <c r="C26" s="6">
-        <v>-46.350588930000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-46.43781911</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>22</v>
       </c>
       <c r="B27" s="6">
-        <v>-72.828563149999994</v>
+        <v>-67.064761509999997</v>
       </c>
       <c r="C27" s="6">
-        <v>-48.073858280000003</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-48.159291840000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>23</v>
       </c>
       <c r="B28" s="6">
-        <v>-73.914798529999999</v>
+        <v>-68.000502510000004</v>
       </c>
       <c r="C28" s="6">
-        <v>-49.661632480000002</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-49.745504920000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>24</v>
       </c>
       <c r="B29" s="6">
-        <v>-74.985240709999999</v>
+        <v>-68.888497229999999</v>
       </c>
       <c r="C29" s="6">
-        <v>-51.049575089999998</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-51.13243095</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>25</v>
       </c>
       <c r="B30" s="6">
-        <v>-75.972331120000007</v>
+        <v>-69.799231989999996</v>
       </c>
       <c r="C30" s="6">
-        <v>-52.175731300000002</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-52.258362290000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>26</v>
       </c>
       <c r="B31" s="6">
-        <v>-76.947613270000005</v>
+        <v>-70.670586290000003</v>
       </c>
       <c r="C31" s="6">
-        <v>-53.00927935</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-53.092458290000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>27</v>
       </c>
       <c r="B32" s="6">
-        <v>-77.947125740000004</v>
+        <v>-71.565499059999993</v>
       </c>
       <c r="C32" s="6">
-        <v>-53.57238194</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-53.656817369999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>28</v>
       </c>
       <c r="B33" s="6">
-        <v>-78.902608549999997</v>
+        <v>-72.464189930000003</v>
       </c>
       <c r="C33" s="6">
-        <v>-53.865276379999997</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-53.951834089999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>29</v>
       </c>
       <c r="B34" s="6">
-        <v>-79.884070080000001</v>
+        <v>-73.397111649999999</v>
       </c>
       <c r="C34" s="6">
-        <v>-53.887956340000002</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-53.977415229999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>30</v>
       </c>
       <c r="B35" s="6">
-        <v>-80.923544419999999</v>
+        <v>-74.446040249999996</v>
       </c>
       <c r="C35" s="6">
-        <v>-53.677299189999999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-53.770619439999997</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B36" s="8">
-        <v>-51.254911188296873</v>
+        <v>-47.548812297503126</v>
       </c>
       <c r="C36" s="8">
-        <v>-34.129319887031251</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-34.191046811218747</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>10</v>
       </c>

--- a/docs/content_history/pbr-2025-vm20-table-j-swaps.xlsx
+++ b/docs/content_history/pbr-2025-vm20-table-j-swaps.xlsx
@@ -8,23 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\PBR\VM20_VM22_ProductSupport\PBR Production Web Data\Current Year\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4990BA3-39B1-4108-9318-0247D4456070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0134B07F-FBD7-404A-925A-14D24D59845C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29970" yWindow="2595" windowWidth="26490" windowHeight="11010" tabRatio="795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="October_2025" sheetId="26" r:id="rId1"/>
-    <sheet name="September_2025" sheetId="25" r:id="rId2"/>
-    <sheet name="August_2025" sheetId="24" r:id="rId3"/>
-    <sheet name="July_2025" sheetId="23" r:id="rId4"/>
-    <sheet name="June_2025" sheetId="22" r:id="rId5"/>
-    <sheet name="May_2025" sheetId="21" r:id="rId6"/>
-    <sheet name="April_2025" sheetId="20" r:id="rId7"/>
-    <sheet name="March_2025" sheetId="19" r:id="rId8"/>
-    <sheet name="February_2025" sheetId="18" r:id="rId9"/>
-    <sheet name="January_2025" sheetId="17" r:id="rId10"/>
-    <sheet name="LIBOR to SOFR Disclosure" sheetId="16" r:id="rId11"/>
-    <sheet name="LEGAL DISCLAIMER" sheetId="11" r:id="rId12"/>
+    <sheet name="November_2025" sheetId="27" r:id="rId1"/>
+    <sheet name="October_2025" sheetId="26" r:id="rId2"/>
+    <sheet name="September_2025" sheetId="25" r:id="rId3"/>
+    <sheet name="August_2025" sheetId="24" r:id="rId4"/>
+    <sheet name="July_2025" sheetId="23" r:id="rId5"/>
+    <sheet name="June_2025" sheetId="22" r:id="rId6"/>
+    <sheet name="May_2025" sheetId="21" r:id="rId7"/>
+    <sheet name="April_2025" sheetId="20" r:id="rId8"/>
+    <sheet name="March_2025" sheetId="19" r:id="rId9"/>
+    <sheet name="February_2025" sheetId="18" r:id="rId10"/>
+    <sheet name="January_2025" sheetId="17" r:id="rId11"/>
+    <sheet name="LIBOR to SOFR Disclosure" sheetId="16" r:id="rId12"/>
+    <sheet name="LEGAL DISCLAIMER" sheetId="11" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="21">
   <si>
     <t>Table J (01/31/2025) Swap Benchmark Spreads (in bps)</t>
   </si>
@@ -101,6 +102,9 @@
   </si>
   <si>
     <t>Table J (10/31/2025) Swap Benchmark Spreads (in bps)</t>
+  </si>
+  <si>
+    <t>Table J (11/28/2025) Swap Benchmark Spreads (in bps)</t>
   </si>
 </sst>
 </file>
@@ -1330,7 +1334,7 @@
                   <a14:compatExt spid="_x0000_s4104"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000008100000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000008100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1651,7 +1655,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6379604C-B6E6-4443-AAC4-03BC4BA7C7BE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD6F2835-1535-437B-92EC-248A6371515D}">
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1663,7 +1667,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -1695,10 +1699,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="6">
-        <v>7.5452052592000003</v>
+        <v>-1.887906877</v>
       </c>
       <c r="C4" s="7">
-        <v>-8.7200979669999992</v>
+        <v>-8.6326097270000002</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1706,10 +1710,10 @@
         <v>7</v>
       </c>
       <c r="B5" s="6">
-        <v>5.4702666666999997</v>
+        <v>1.7783312499999999</v>
       </c>
       <c r="C5" s="6">
-        <v>-19.285361930000001</v>
+        <v>-19.17339213</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1717,10 +1721,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="6">
-        <v>-4.7253047920000002</v>
+        <v>-6.8667596890000002</v>
       </c>
       <c r="C6" s="6">
-        <v>-6.640543954</v>
+        <v>-6.6292665910000004</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1728,10 +1732,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="6">
-        <v>-17.986776559999999</v>
+        <v>-14.837141600000001</v>
       </c>
       <c r="C7" s="6">
-        <v>-9.4720105609999994</v>
+        <v>-9.5367021649999995</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1739,10 +1743,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="6">
-        <v>-22.139696440000002</v>
+        <v>-20.829166480000001</v>
       </c>
       <c r="C8" s="6">
-        <v>-13.59274679</v>
+        <v>-13.69393036</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1750,10 +1754,10 @@
         <v>4</v>
       </c>
       <c r="B9" s="6">
-        <v>-24.92700718</v>
+        <v>-22.76229987</v>
       </c>
       <c r="C9" s="6">
-        <v>-17.683493819999999</v>
+        <v>-17.806993559999999</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1761,10 +1765,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="6">
-        <v>-27.975494569999999</v>
+        <v>-24.877004639999999</v>
       </c>
       <c r="C10" s="6">
-        <v>-20.650627650000001</v>
+        <v>-20.803627909999999</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1772,10 +1776,10 @@
         <v>6</v>
       </c>
       <c r="B11" s="6">
-        <v>-31.868348059999999</v>
+        <v>-28.76618663</v>
       </c>
       <c r="C11" s="6">
-        <v>-23.018938479999999</v>
+        <v>-23.199092140000001</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1783,10 +1787,10 @@
         <v>7</v>
       </c>
       <c r="B12" s="6">
-        <v>-35.12502439</v>
+        <v>-32.13687204</v>
       </c>
       <c r="C12" s="6">
-        <v>-24.643852169999999</v>
+        <v>-24.827642269999998</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1794,10 +1798,10 @@
         <v>8</v>
       </c>
       <c r="B13" s="6">
-        <v>-37.41960933</v>
+        <v>-34.36064159</v>
       </c>
       <c r="C13" s="6">
-        <v>-25.804318949999999</v>
+        <v>-25.966189230000001</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1805,10 +1809,10 @@
         <v>9</v>
       </c>
       <c r="B14" s="6">
-        <v>-39.25672204</v>
+        <v>-36.217203499999997</v>
       </c>
       <c r="C14" s="6">
-        <v>-26.708911199999999</v>
+        <v>-26.83723874</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1816,10 +1820,10 @@
         <v>10</v>
       </c>
       <c r="B15" s="6">
-        <v>-40.73643036</v>
+        <v>-37.636845530000002</v>
       </c>
       <c r="C15" s="6">
-        <v>-27.496924369999999</v>
+        <v>-27.58993267</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1827,10 +1831,10 @@
         <v>11</v>
       </c>
       <c r="B16" s="6">
-        <v>-42.903739680000001</v>
+        <v>-39.932199699999998</v>
       </c>
       <c r="C16" s="6">
-        <v>-28.461193489999999</v>
+        <v>-28.524672379999998</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1838,10 +1842,10 @@
         <v>12</v>
       </c>
       <c r="B17" s="6">
-        <v>-46.057547999999997</v>
+        <v>-43.440759329999999</v>
       </c>
       <c r="C17" s="6">
-        <v>-29.723373179999999</v>
+        <v>-29.76895309</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1849,10 +1853,10 @@
         <v>13</v>
       </c>
       <c r="B18" s="6">
-        <v>-49.553482430000003</v>
+        <v>-47.18283701</v>
       </c>
       <c r="C18" s="6">
-        <v>-31.332886120000001</v>
+        <v>-31.36868042</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1860,10 +1864,10 @@
         <v>14</v>
       </c>
       <c r="B19" s="6">
-        <v>-52.842691760000001</v>
+        <v>-50.577111940000002</v>
       </c>
       <c r="C19" s="6">
-        <v>-33.159291289999999</v>
+        <v>-33.190270419999997</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1871,10 +1875,10 @@
         <v>15</v>
       </c>
       <c r="B20" s="6">
-        <v>-55.780143199999998</v>
+        <v>-53.492839099999998</v>
       </c>
       <c r="C20" s="6">
-        <v>-35.123963680000003</v>
+        <v>-35.153061600000001</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1882,10 +1886,10 @@
         <v>16</v>
       </c>
       <c r="B21" s="6">
-        <v>-58.271733949999998</v>
+        <v>-56.023917300000001</v>
       </c>
       <c r="C21" s="6">
-        <v>-37.188682810000003</v>
+        <v>-37.218337740000003</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1893,10 +1897,10 @@
         <v>17</v>
       </c>
       <c r="B22" s="6">
-        <v>-60.352144289999998</v>
+        <v>-58.055090569999997</v>
       </c>
       <c r="C22" s="6">
-        <v>-39.310638570000002</v>
+        <v>-39.341179740000001</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1904,10 +1908,10 @@
         <v>18</v>
       </c>
       <c r="B23" s="6">
-        <v>-61.990687989999998</v>
+        <v>-59.645390429999999</v>
       </c>
       <c r="C23" s="6">
-        <v>-41.428346990000001</v>
+        <v>-41.460715399999998</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -1915,10 +1919,10 @@
         <v>19</v>
       </c>
       <c r="B24" s="6">
-        <v>-63.199702420000001</v>
+        <v>-60.875489780000002</v>
       </c>
       <c r="C24" s="6">
-        <v>-43.484311140000003</v>
+        <v>-43.518742189999998</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -1926,10 +1930,10 @@
         <v>20</v>
       </c>
       <c r="B25" s="6">
-        <v>-64.117122510000002</v>
+        <v>-61.792998410000003</v>
       </c>
       <c r="C25" s="6">
-        <v>-45.416549179999997</v>
+        <v>-45.453901119999998</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -1937,10 +1941,10 @@
         <v>21</v>
       </c>
       <c r="B26" s="6">
-        <v>-64.765575459999994</v>
+        <v>-62.507469839999999</v>
       </c>
       <c r="C26" s="6">
-        <v>-47.262596160000001</v>
+        <v>-47.303131319999999</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1948,10 +1952,10 @@
         <v>22</v>
       </c>
       <c r="B27" s="6">
-        <v>-65.339519980000006</v>
+        <v>-63.138604659999999</v>
       </c>
       <c r="C27" s="6">
-        <v>-49.034732159999997</v>
+        <v>-49.077808040000001</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -1959,10 +1963,10 @@
         <v>23</v>
       </c>
       <c r="B28" s="6">
-        <v>-65.845528860000002</v>
+        <v>-63.692138669999999</v>
       </c>
       <c r="C28" s="6">
-        <v>-50.658714289999999</v>
+        <v>-50.70311641</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1970,10 +1974,10 @@
         <v>24</v>
       </c>
       <c r="B29" s="6">
-        <v>-66.293890239999996</v>
+        <v>-64.249029350000001</v>
       </c>
       <c r="C29" s="6">
-        <v>-52.071209860000003</v>
+        <v>-52.115476839999999</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1981,10 +1985,10 @@
         <v>25</v>
       </c>
       <c r="B30" s="6">
-        <v>-66.744520050000006</v>
+        <v>-64.798857859999998</v>
       </c>
       <c r="C30" s="6">
-        <v>-53.212020039999999</v>
+        <v>-53.254990900000003</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -1992,10 +1996,10 @@
         <v>26</v>
       </c>
       <c r="B31" s="6">
-        <v>-67.180333259999998</v>
+        <v>-65.321158749999995</v>
       </c>
       <c r="C31" s="6">
-        <v>-54.048755929999999</v>
+        <v>-54.088753140000001</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -2003,10 +2007,10 @@
         <v>27</v>
       </c>
       <c r="B32" s="6">
-        <v>-67.661478500000001</v>
+        <v>-65.835949240000005</v>
       </c>
       <c r="C32" s="6">
-        <v>-54.596377570000001</v>
+        <v>-54.630743340000002</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -2014,10 +2018,10 @@
         <v>28</v>
       </c>
       <c r="B33" s="6">
-        <v>-68.135175320000002</v>
+        <v>-66.429597860000001</v>
       </c>
       <c r="C33" s="6">
-        <v>-54.856236529999997</v>
+        <v>-54.882454289999998</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -2025,10 +2029,10 @@
         <v>29</v>
       </c>
       <c r="B34" s="6">
-        <v>-68.615861069999994</v>
+        <v>-67.028187279999997</v>
       </c>
       <c r="C34" s="6">
-        <v>-54.826682030000001</v>
+        <v>-54.841728379999999</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -2036,10 +2040,10 @@
         <v>30</v>
       </c>
       <c r="B35" s="6">
-        <v>-69.238849970000004</v>
+        <v>-67.757695569999996</v>
       </c>
       <c r="C35" s="6">
-        <v>-54.546699580000002</v>
+        <v>-54.54834915</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -2047,10 +2051,10 @@
         <v>8</v>
       </c>
       <c r="B36" s="8">
-        <v>-46.688583460503118</v>
+        <v>-45.036781870187504</v>
       </c>
       <c r="C36" s="8">
-        <v>-34.795659013812497</v>
+        <v>-34.848177606343747</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -2076,6 +2080,432 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97A43502-C709-47ED-82F5-620B67AC7AF2}">
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="A1:E39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="19.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="6">
+        <v>8.3710618562000008</v>
+      </c>
+      <c r="C4" s="7">
+        <v>-9.1223835040000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="6">
+        <v>6.8827604167000001</v>
+      </c>
+      <c r="C5" s="6">
+        <v>-20.07372711</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>1</v>
+      </c>
+      <c r="B6" s="6">
+        <v>-0.45804236300000001</v>
+      </c>
+      <c r="C6" s="6">
+        <v>-6.7572968769999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>2</v>
+      </c>
+      <c r="B7" s="6">
+        <v>-12.71941795</v>
+      </c>
+      <c r="C7" s="6">
+        <v>-8.8279884079999995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>3</v>
+      </c>
+      <c r="B8" s="6">
+        <v>-20.15243714</v>
+      </c>
+      <c r="C8" s="6">
+        <v>-12.588669919999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>4</v>
+      </c>
+      <c r="B9" s="6">
+        <v>-23.751924819999999</v>
+      </c>
+      <c r="C9" s="6">
+        <v>-16.554409629999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>5</v>
+      </c>
+      <c r="B10" s="6">
+        <v>-27.194243180000001</v>
+      </c>
+      <c r="C10" s="6">
+        <v>-19.512283499999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>6</v>
+      </c>
+      <c r="B11" s="6">
+        <v>-32.489066280000003</v>
+      </c>
+      <c r="C11" s="6">
+        <v>-21.90164253</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>7</v>
+      </c>
+      <c r="B12" s="6">
+        <v>-36.337831289999997</v>
+      </c>
+      <c r="C12" s="6">
+        <v>-23.653459680000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>8</v>
+      </c>
+      <c r="B13" s="6">
+        <v>-38.706014519999997</v>
+      </c>
+      <c r="C13" s="6">
+        <v>-25.049233730000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>9</v>
+      </c>
+      <c r="B14" s="6">
+        <v>-40.471754949999998</v>
+      </c>
+      <c r="C14" s="6">
+        <v>-26.202677690000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>10</v>
+      </c>
+      <c r="B15" s="6">
+        <v>-42.00349147</v>
+      </c>
+      <c r="C15" s="6">
+        <v>-27.206369429999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>11</v>
+      </c>
+      <c r="B16" s="6">
+        <v>-44.176867280000003</v>
+      </c>
+      <c r="C16" s="6">
+        <v>-28.301749300000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>12</v>
+      </c>
+      <c r="B17" s="6">
+        <v>-46.912354790000002</v>
+      </c>
+      <c r="C17" s="6">
+        <v>-29.595148940000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>13</v>
+      </c>
+      <c r="B18" s="6">
+        <v>-49.899324960000001</v>
+      </c>
+      <c r="C18" s="6">
+        <v>-31.164094469999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>14</v>
+      </c>
+      <c r="B19" s="6">
+        <v>-52.964594329999997</v>
+      </c>
+      <c r="C19" s="6">
+        <v>-32.906071109999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>15</v>
+      </c>
+      <c r="B20" s="6">
+        <v>-55.842553180000003</v>
+      </c>
+      <c r="C20" s="6">
+        <v>-34.769279509999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>16</v>
+      </c>
+      <c r="B21" s="6">
+        <v>-58.401681119999999</v>
+      </c>
+      <c r="C21" s="6">
+        <v>-36.734082770000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>17</v>
+      </c>
+      <c r="B22" s="6">
+        <v>-60.589063639999999</v>
+      </c>
+      <c r="C22" s="6">
+        <v>-38.767443</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>18</v>
+      </c>
+      <c r="B23" s="6">
+        <v>-62.395214369999998</v>
+      </c>
+      <c r="C23" s="6">
+        <v>-40.803412960000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>19</v>
+      </c>
+      <c r="B24" s="6">
+        <v>-63.906038039999999</v>
+      </c>
+      <c r="C24" s="6">
+        <v>-42.78701478</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>20</v>
+      </c>
+      <c r="B25" s="6">
+        <v>-65.080182550000004</v>
+      </c>
+      <c r="C25" s="6">
+        <v>-44.652505580000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>21</v>
+      </c>
+      <c r="B26" s="6">
+        <v>-66.067297150000002</v>
+      </c>
+      <c r="C26" s="6">
+        <v>-46.43781911</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>22</v>
+      </c>
+      <c r="B27" s="6">
+        <v>-67.064761509999997</v>
+      </c>
+      <c r="C27" s="6">
+        <v>-48.159291840000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>23</v>
+      </c>
+      <c r="B28" s="6">
+        <v>-68.000502510000004</v>
+      </c>
+      <c r="C28" s="6">
+        <v>-49.745504920000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>24</v>
+      </c>
+      <c r="B29" s="6">
+        <v>-68.888497229999999</v>
+      </c>
+      <c r="C29" s="6">
+        <v>-51.13243095</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>25</v>
+      </c>
+      <c r="B30" s="6">
+        <v>-69.799231989999996</v>
+      </c>
+      <c r="C30" s="6">
+        <v>-52.258362290000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <v>26</v>
+      </c>
+      <c r="B31" s="6">
+        <v>-70.670586290000003</v>
+      </c>
+      <c r="C31" s="6">
+        <v>-53.092458290000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <v>27</v>
+      </c>
+      <c r="B32" s="6">
+        <v>-71.565499059999993</v>
+      </c>
+      <c r="C32" s="6">
+        <v>-53.656817369999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <v>28</v>
+      </c>
+      <c r="B33" s="6">
+        <v>-72.464189930000003</v>
+      </c>
+      <c r="C33" s="6">
+        <v>-53.951834089999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <v>29</v>
+      </c>
+      <c r="B34" s="6">
+        <v>-73.397111649999999</v>
+      </c>
+      <c r="C34" s="6">
+        <v>-53.977415229999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
+        <v>30</v>
+      </c>
+      <c r="B35" s="6">
+        <v>-74.446040249999996</v>
+      </c>
+      <c r="C35" s="6">
+        <v>-53.770619439999997</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="8">
+        <v>-47.548812297503126</v>
+      </c>
+      <c r="C36" s="8">
+        <v>-34.191046811218747</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A39:E39"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0334E61F-4137-42F1-8ADC-1EC55566A90B}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E39"/>
@@ -2501,7 +2931,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F25262A5-84B2-4BF6-AF4E-DBAA1AC8379B}">
   <sheetPr codeName="Sheet8">
     <tabColor rgb="FFFFFF00"/>
@@ -2517,7 +2947,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet7">
     <tabColor rgb="FFFFFF00"/>
@@ -2568,6 +2998,431 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6379604C-B6E6-4443-AAC4-03BC4BA7C7BE}">
+  <dimension ref="A1:E39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="19.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="6">
+        <v>7.5452052592000003</v>
+      </c>
+      <c r="C4" s="7">
+        <v>-8.7200979669999992</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="6">
+        <v>5.4702666666999997</v>
+      </c>
+      <c r="C5" s="6">
+        <v>-19.285361930000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>1</v>
+      </c>
+      <c r="B6" s="6">
+        <v>-4.7253047920000002</v>
+      </c>
+      <c r="C6" s="6">
+        <v>-6.640543954</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>2</v>
+      </c>
+      <c r="B7" s="6">
+        <v>-17.986776559999999</v>
+      </c>
+      <c r="C7" s="6">
+        <v>-9.4720105609999994</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>3</v>
+      </c>
+      <c r="B8" s="6">
+        <v>-22.139696440000002</v>
+      </c>
+      <c r="C8" s="6">
+        <v>-13.59274679</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>4</v>
+      </c>
+      <c r="B9" s="6">
+        <v>-24.92700718</v>
+      </c>
+      <c r="C9" s="6">
+        <v>-17.683493819999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>5</v>
+      </c>
+      <c r="B10" s="6">
+        <v>-27.975494569999999</v>
+      </c>
+      <c r="C10" s="6">
+        <v>-20.650627650000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>6</v>
+      </c>
+      <c r="B11" s="6">
+        <v>-31.868348059999999</v>
+      </c>
+      <c r="C11" s="6">
+        <v>-23.018938479999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>7</v>
+      </c>
+      <c r="B12" s="6">
+        <v>-35.12502439</v>
+      </c>
+      <c r="C12" s="6">
+        <v>-24.643852169999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>8</v>
+      </c>
+      <c r="B13" s="6">
+        <v>-37.41960933</v>
+      </c>
+      <c r="C13" s="6">
+        <v>-25.804318949999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>9</v>
+      </c>
+      <c r="B14" s="6">
+        <v>-39.25672204</v>
+      </c>
+      <c r="C14" s="6">
+        <v>-26.708911199999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>10</v>
+      </c>
+      <c r="B15" s="6">
+        <v>-40.73643036</v>
+      </c>
+      <c r="C15" s="6">
+        <v>-27.496924369999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>11</v>
+      </c>
+      <c r="B16" s="6">
+        <v>-42.903739680000001</v>
+      </c>
+      <c r="C16" s="6">
+        <v>-28.461193489999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>12</v>
+      </c>
+      <c r="B17" s="6">
+        <v>-46.057547999999997</v>
+      </c>
+      <c r="C17" s="6">
+        <v>-29.723373179999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>13</v>
+      </c>
+      <c r="B18" s="6">
+        <v>-49.553482430000003</v>
+      </c>
+      <c r="C18" s="6">
+        <v>-31.332886120000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>14</v>
+      </c>
+      <c r="B19" s="6">
+        <v>-52.842691760000001</v>
+      </c>
+      <c r="C19" s="6">
+        <v>-33.159291289999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>15</v>
+      </c>
+      <c r="B20" s="6">
+        <v>-55.780143199999998</v>
+      </c>
+      <c r="C20" s="6">
+        <v>-35.123963680000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>16</v>
+      </c>
+      <c r="B21" s="6">
+        <v>-58.271733949999998</v>
+      </c>
+      <c r="C21" s="6">
+        <v>-37.188682810000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>17</v>
+      </c>
+      <c r="B22" s="6">
+        <v>-60.352144289999998</v>
+      </c>
+      <c r="C22" s="6">
+        <v>-39.310638570000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>18</v>
+      </c>
+      <c r="B23" s="6">
+        <v>-61.990687989999998</v>
+      </c>
+      <c r="C23" s="6">
+        <v>-41.428346990000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>19</v>
+      </c>
+      <c r="B24" s="6">
+        <v>-63.199702420000001</v>
+      </c>
+      <c r="C24" s="6">
+        <v>-43.484311140000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>20</v>
+      </c>
+      <c r="B25" s="6">
+        <v>-64.117122510000002</v>
+      </c>
+      <c r="C25" s="6">
+        <v>-45.416549179999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>21</v>
+      </c>
+      <c r="B26" s="6">
+        <v>-64.765575459999994</v>
+      </c>
+      <c r="C26" s="6">
+        <v>-47.262596160000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>22</v>
+      </c>
+      <c r="B27" s="6">
+        <v>-65.339519980000006</v>
+      </c>
+      <c r="C27" s="6">
+        <v>-49.034732159999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>23</v>
+      </c>
+      <c r="B28" s="6">
+        <v>-65.845528860000002</v>
+      </c>
+      <c r="C28" s="6">
+        <v>-50.658714289999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>24</v>
+      </c>
+      <c r="B29" s="6">
+        <v>-66.293890239999996</v>
+      </c>
+      <c r="C29" s="6">
+        <v>-52.071209860000003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>25</v>
+      </c>
+      <c r="B30" s="6">
+        <v>-66.744520050000006</v>
+      </c>
+      <c r="C30" s="6">
+        <v>-53.212020039999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <v>26</v>
+      </c>
+      <c r="B31" s="6">
+        <v>-67.180333259999998</v>
+      </c>
+      <c r="C31" s="6">
+        <v>-54.048755929999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <v>27</v>
+      </c>
+      <c r="B32" s="6">
+        <v>-67.661478500000001</v>
+      </c>
+      <c r="C32" s="6">
+        <v>-54.596377570000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <v>28</v>
+      </c>
+      <c r="B33" s="6">
+        <v>-68.135175320000002</v>
+      </c>
+      <c r="C33" s="6">
+        <v>-54.856236529999997</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <v>29</v>
+      </c>
+      <c r="B34" s="6">
+        <v>-68.615861069999994</v>
+      </c>
+      <c r="C34" s="6">
+        <v>-54.826682030000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
+        <v>30</v>
+      </c>
+      <c r="B35" s="6">
+        <v>-69.238849970000004</v>
+      </c>
+      <c r="C35" s="6">
+        <v>-54.546699580000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="8">
+        <v>-46.688583460503118</v>
+      </c>
+      <c r="C36" s="8">
+        <v>-34.795659013812497</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A39:E39"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B53624B2-29FC-4CB9-A7C6-D02151E5E76D}">
   <dimension ref="A1:E39"/>
   <sheetViews>
@@ -2992,7 +3847,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF1BF4C2-4434-4B4D-94BE-B91D2B1C25FB}">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:E39"/>
@@ -3418,7 +4273,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6CB6296-F480-49B2-B4EA-61908574360C}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:E39"/>
@@ -3844,7 +4699,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CE138FB-FABF-4565-91D3-7A1FC3DB0D62}">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:E39"/>
@@ -4270,7 +5125,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68A65C64-A2BC-4A28-9AE0-4ADFC897F100}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:E39"/>
@@ -4696,7 +5551,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36971AA9-8593-40CA-AF5E-AB605D9DEDA6}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E39"/>
@@ -5122,7 +5977,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F00F7CDB-E2F7-42FB-8E4C-712A9F309635}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:E39"/>
@@ -5546,430 +6401,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97A43502-C709-47ED-82F5-620B67AC7AF2}">
-  <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:E39"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="3" width="19.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="6">
-        <v>8.3710618562000008</v>
-      </c>
-      <c r="C4" s="7">
-        <v>-9.1223835040000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="6">
-        <v>6.8827604167000001</v>
-      </c>
-      <c r="C5" s="6">
-        <v>-20.07372711</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <v>1</v>
-      </c>
-      <c r="B6" s="6">
-        <v>-0.45804236300000001</v>
-      </c>
-      <c r="C6" s="6">
-        <v>-6.7572968769999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
-        <v>2</v>
-      </c>
-      <c r="B7" s="6">
-        <v>-12.71941795</v>
-      </c>
-      <c r="C7" s="6">
-        <v>-8.8279884079999995</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <v>3</v>
-      </c>
-      <c r="B8" s="6">
-        <v>-20.15243714</v>
-      </c>
-      <c r="C8" s="6">
-        <v>-12.588669919999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <v>4</v>
-      </c>
-      <c r="B9" s="6">
-        <v>-23.751924819999999</v>
-      </c>
-      <c r="C9" s="6">
-        <v>-16.554409629999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <v>5</v>
-      </c>
-      <c r="B10" s="6">
-        <v>-27.194243180000001</v>
-      </c>
-      <c r="C10" s="6">
-        <v>-19.512283499999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <v>6</v>
-      </c>
-      <c r="B11" s="6">
-        <v>-32.489066280000003</v>
-      </c>
-      <c r="C11" s="6">
-        <v>-21.90164253</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <v>7</v>
-      </c>
-      <c r="B12" s="6">
-        <v>-36.337831289999997</v>
-      </c>
-      <c r="C12" s="6">
-        <v>-23.653459680000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
-        <v>8</v>
-      </c>
-      <c r="B13" s="6">
-        <v>-38.706014519999997</v>
-      </c>
-      <c r="C13" s="6">
-        <v>-25.049233730000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
-        <v>9</v>
-      </c>
-      <c r="B14" s="6">
-        <v>-40.471754949999998</v>
-      </c>
-      <c r="C14" s="6">
-        <v>-26.202677690000002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
-        <v>10</v>
-      </c>
-      <c r="B15" s="6">
-        <v>-42.00349147</v>
-      </c>
-      <c r="C15" s="6">
-        <v>-27.206369429999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
-        <v>11</v>
-      </c>
-      <c r="B16" s="6">
-        <v>-44.176867280000003</v>
-      </c>
-      <c r="C16" s="6">
-        <v>-28.301749300000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
-        <v>12</v>
-      </c>
-      <c r="B17" s="6">
-        <v>-46.912354790000002</v>
-      </c>
-      <c r="C17" s="6">
-        <v>-29.595148940000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
-        <v>13</v>
-      </c>
-      <c r="B18" s="6">
-        <v>-49.899324960000001</v>
-      </c>
-      <c r="C18" s="6">
-        <v>-31.164094469999998</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
-        <v>14</v>
-      </c>
-      <c r="B19" s="6">
-        <v>-52.964594329999997</v>
-      </c>
-      <c r="C19" s="6">
-        <v>-32.906071109999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
-        <v>15</v>
-      </c>
-      <c r="B20" s="6">
-        <v>-55.842553180000003</v>
-      </c>
-      <c r="C20" s="6">
-        <v>-34.769279509999997</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
-        <v>16</v>
-      </c>
-      <c r="B21" s="6">
-        <v>-58.401681119999999</v>
-      </c>
-      <c r="C21" s="6">
-        <v>-36.734082770000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
-        <v>17</v>
-      </c>
-      <c r="B22" s="6">
-        <v>-60.589063639999999</v>
-      </c>
-      <c r="C22" s="6">
-        <v>-38.767443</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
-        <v>18</v>
-      </c>
-      <c r="B23" s="6">
-        <v>-62.395214369999998</v>
-      </c>
-      <c r="C23" s="6">
-        <v>-40.803412960000003</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
-        <v>19</v>
-      </c>
-      <c r="B24" s="6">
-        <v>-63.906038039999999</v>
-      </c>
-      <c r="C24" s="6">
-        <v>-42.78701478</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
-        <v>20</v>
-      </c>
-      <c r="B25" s="6">
-        <v>-65.080182550000004</v>
-      </c>
-      <c r="C25" s="6">
-        <v>-44.652505580000003</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
-        <v>21</v>
-      </c>
-      <c r="B26" s="6">
-        <v>-66.067297150000002</v>
-      </c>
-      <c r="C26" s="6">
-        <v>-46.43781911</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
-        <v>22</v>
-      </c>
-      <c r="B27" s="6">
-        <v>-67.064761509999997</v>
-      </c>
-      <c r="C27" s="6">
-        <v>-48.159291840000002</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
-        <v>23</v>
-      </c>
-      <c r="B28" s="6">
-        <v>-68.000502510000004</v>
-      </c>
-      <c r="C28" s="6">
-        <v>-49.745504920000002</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
-        <v>24</v>
-      </c>
-      <c r="B29" s="6">
-        <v>-68.888497229999999</v>
-      </c>
-      <c r="C29" s="6">
-        <v>-51.13243095</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
-        <v>25</v>
-      </c>
-      <c r="B30" s="6">
-        <v>-69.799231989999996</v>
-      </c>
-      <c r="C30" s="6">
-        <v>-52.258362290000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="5">
-        <v>26</v>
-      </c>
-      <c r="B31" s="6">
-        <v>-70.670586290000003</v>
-      </c>
-      <c r="C31" s="6">
-        <v>-53.092458290000003</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="5">
-        <v>27</v>
-      </c>
-      <c r="B32" s="6">
-        <v>-71.565499059999993</v>
-      </c>
-      <c r="C32" s="6">
-        <v>-53.656817369999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="5">
-        <v>28</v>
-      </c>
-      <c r="B33" s="6">
-        <v>-72.464189930000003</v>
-      </c>
-      <c r="C33" s="6">
-        <v>-53.951834089999998</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="5">
-        <v>29</v>
-      </c>
-      <c r="B34" s="6">
-        <v>-73.397111649999999</v>
-      </c>
-      <c r="C34" s="6">
-        <v>-53.977415229999998</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="5">
-        <v>30</v>
-      </c>
-      <c r="B35" s="6">
-        <v>-74.446040249999996</v>
-      </c>
-      <c r="C35" s="6">
-        <v>-53.770619439999997</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B36" s="8">
-        <v>-47.548812297503126</v>
-      </c>
-      <c r="C36" s="8">
-        <v>-34.191046811218747</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A39:E39"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/docs/content_history/pbr-2025-vm20-table-j-swaps.xlsx
+++ b/docs/content_history/pbr-2025-vm20-table-j-swaps.xlsx
@@ -1,31 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29426"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\PBR\VM20_VM22_ProductSupport\PBR Production Web Data\Current Year\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0134B07F-FBD7-404A-925A-14D24D59845C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CCD2376-EA60-46FE-B971-E4519AD40BA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29970" yWindow="2595" windowWidth="26490" windowHeight="11010" tabRatio="795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="November_2025" sheetId="27" r:id="rId1"/>
-    <sheet name="October_2025" sheetId="26" r:id="rId2"/>
-    <sheet name="September_2025" sheetId="25" r:id="rId3"/>
-    <sheet name="August_2025" sheetId="24" r:id="rId4"/>
-    <sheet name="July_2025" sheetId="23" r:id="rId5"/>
-    <sheet name="June_2025" sheetId="22" r:id="rId6"/>
-    <sheet name="May_2025" sheetId="21" r:id="rId7"/>
-    <sheet name="April_2025" sheetId="20" r:id="rId8"/>
-    <sheet name="March_2025" sheetId="19" r:id="rId9"/>
-    <sheet name="February_2025" sheetId="18" r:id="rId10"/>
-    <sheet name="January_2025" sheetId="17" r:id="rId11"/>
-    <sheet name="LIBOR to SOFR Disclosure" sheetId="16" r:id="rId12"/>
-    <sheet name="LEGAL DISCLAIMER" sheetId="11" r:id="rId13"/>
+    <sheet name="December_2025" sheetId="28" r:id="rId1"/>
+    <sheet name="November_2025" sheetId="27" r:id="rId2"/>
+    <sheet name="October_2025" sheetId="26" r:id="rId3"/>
+    <sheet name="September_2025" sheetId="25" r:id="rId4"/>
+    <sheet name="August_2025" sheetId="24" r:id="rId5"/>
+    <sheet name="July_2025" sheetId="23" r:id="rId6"/>
+    <sheet name="June_2025" sheetId="22" r:id="rId7"/>
+    <sheet name="May_2025" sheetId="21" r:id="rId8"/>
+    <sheet name="April_2025" sheetId="20" r:id="rId9"/>
+    <sheet name="March_2025" sheetId="19" r:id="rId10"/>
+    <sheet name="February_2025" sheetId="18" r:id="rId11"/>
+    <sheet name="January_2025" sheetId="17" r:id="rId12"/>
+    <sheet name="LIBOR to SOFR Disclosure" sheetId="16" r:id="rId13"/>
+    <sheet name="LEGAL DISCLAIMER" sheetId="11" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="22">
   <si>
     <t>Table J (01/31/2025) Swap Benchmark Spreads (in bps)</t>
   </si>
@@ -105,6 +106,9 @@
   </si>
   <si>
     <t>Table J (11/28/2025) Swap Benchmark Spreads (in bps)</t>
+  </si>
+  <si>
+    <t>Table J (12/31/2025) Swap Benchmark Spreads (in bps)</t>
   </si>
 </sst>
 </file>
@@ -187,7 +191,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
@@ -214,6 +218,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1334,7 +1339,7 @@
                   <a14:compatExt spid="_x0000_s4104"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000008100000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000008100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1655,8 +1660,9 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD6F2835-1535-437B-92EC-248A6371515D}">
-  <dimension ref="A1:E39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82E2379D-21BC-498D-AFAB-AD8191C2E0B4}">
+  <sheetPr codeName="Sheet14"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1667,7 +1673,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -1699,10 +1705,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="6">
-        <v>-1.887906877</v>
+        <v>5.2071353895000003</v>
       </c>
       <c r="C4" s="7">
-        <v>-8.6326097270000002</v>
+        <v>-8.5476743709999994</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1710,10 +1716,10 @@
         <v>7</v>
       </c>
       <c r="B5" s="6">
-        <v>1.7783312499999999</v>
+        <v>3.6303458332999998</v>
       </c>
       <c r="C5" s="6">
-        <v>-19.17339213</v>
+        <v>-19.096467369999999</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1721,10 +1727,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="6">
-        <v>-6.8667596890000002</v>
+        <v>-2.042965927</v>
       </c>
       <c r="C6" s="6">
-        <v>-6.6292665910000004</v>
+        <v>-6.6307206939999999</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1732,10 +1738,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="6">
-        <v>-14.837141600000001</v>
+        <v>-13.016761969999999</v>
       </c>
       <c r="C7" s="6">
-        <v>-9.5367021649999995</v>
+        <v>-9.6010650030000004</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1743,10 +1749,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="6">
-        <v>-20.829166480000001</v>
+        <v>-18.39467617</v>
       </c>
       <c r="C8" s="6">
-        <v>-13.69393036</v>
+        <v>-13.784720350000001</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1754,10 +1760,10 @@
         <v>4</v>
       </c>
       <c r="B9" s="6">
-        <v>-22.76229987</v>
+        <v>-21.360982750000002</v>
       </c>
       <c r="C9" s="6">
-        <v>-17.806993559999999</v>
+        <v>-17.910698539999999</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1765,10 +1771,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="6">
-        <v>-24.877004639999999</v>
+        <v>-24.261265009999999</v>
       </c>
       <c r="C10" s="6">
-        <v>-20.803627909999999</v>
+        <v>-20.919001380000001</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1776,10 +1782,10 @@
         <v>6</v>
       </c>
       <c r="B11" s="6">
-        <v>-28.76618663</v>
+        <v>-28.07114726</v>
       </c>
       <c r="C11" s="6">
-        <v>-23.199092140000001</v>
+        <v>-23.33240211</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1787,10 +1793,10 @@
         <v>7</v>
       </c>
       <c r="B12" s="6">
-        <v>-32.13687204</v>
+        <v>-31.134910090000002</v>
       </c>
       <c r="C12" s="6">
-        <v>-24.827642269999998</v>
+        <v>-24.963272199999999</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1798,10 +1804,10 @@
         <v>8</v>
       </c>
       <c r="B13" s="6">
-        <v>-34.36064159</v>
+        <v>-33.10955689</v>
       </c>
       <c r="C13" s="6">
-        <v>-25.966189230000001</v>
+        <v>-26.080318040000002</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1809,10 +1815,10 @@
         <v>9</v>
       </c>
       <c r="B14" s="6">
-        <v>-36.217203499999997</v>
+        <v>-34.660112759999997</v>
       </c>
       <c r="C14" s="6">
-        <v>-26.83723874</v>
+        <v>-26.917890270000001</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1820,10 +1826,10 @@
         <v>10</v>
       </c>
       <c r="B15" s="6">
-        <v>-37.636845530000002</v>
+        <v>-35.825474470000003</v>
       </c>
       <c r="C15" s="6">
-        <v>-27.58993267</v>
+        <v>-27.63699076</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1831,10 +1837,10 @@
         <v>11</v>
       </c>
       <c r="B16" s="6">
-        <v>-39.932199699999998</v>
+        <v>-38.159996829999997</v>
       </c>
       <c r="C16" s="6">
-        <v>-28.524672379999998</v>
+        <v>-28.544049439999998</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1842,10 +1848,10 @@
         <v>12</v>
       </c>
       <c r="B17" s="6">
-        <v>-43.440759329999999</v>
+        <v>-41.823362619999997</v>
       </c>
       <c r="C17" s="6">
-        <v>-29.76895309</v>
+        <v>-29.771966240000001</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1853,10 +1859,10 @@
         <v>13</v>
       </c>
       <c r="B18" s="6">
-        <v>-47.18283701</v>
+        <v>-45.764879440000001</v>
       </c>
       <c r="C18" s="6">
-        <v>-31.36868042</v>
+        <v>-31.364097390000001</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1864,10 +1870,10 @@
         <v>14</v>
       </c>
       <c r="B19" s="6">
-        <v>-50.577111940000002</v>
+        <v>-49.166561809999997</v>
       </c>
       <c r="C19" s="6">
-        <v>-33.190270419999997</v>
+        <v>-33.18410746</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1875,10 +1881,10 @@
         <v>15</v>
       </c>
       <c r="B20" s="6">
-        <v>-53.492839099999998</v>
+        <v>-52.081305780000001</v>
       </c>
       <c r="C20" s="6">
-        <v>-35.153061600000001</v>
+        <v>-35.1491823</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1886,10 +1892,10 @@
         <v>16</v>
       </c>
       <c r="B21" s="6">
-        <v>-56.023917300000001</v>
+        <v>-54.577770030000003</v>
       </c>
       <c r="C21" s="6">
-        <v>-37.218337740000003</v>
+        <v>-37.219196859999997</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1897,10 +1903,10 @@
         <v>17</v>
       </c>
       <c r="B22" s="6">
-        <v>-58.055090569999997</v>
+        <v>-56.617885620000003</v>
       </c>
       <c r="C22" s="6">
-        <v>-39.341179740000001</v>
+        <v>-39.347300089999997</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1908,10 +1914,10 @@
         <v>18</v>
       </c>
       <c r="B23" s="6">
-        <v>-59.645390429999999</v>
+        <v>-58.250668570000002</v>
       </c>
       <c r="C23" s="6">
-        <v>-41.460715399999998</v>
+        <v>-41.473355859999998</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -1919,10 +1925,10 @@
         <v>19</v>
       </c>
       <c r="B24" s="6">
-        <v>-60.875489780000002</v>
+        <v>-59.439481020000002</v>
       </c>
       <c r="C24" s="6">
-        <v>-43.518742189999998</v>
+        <v>-43.538709490000002</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -1930,10 +1936,10 @@
         <v>20</v>
       </c>
       <c r="B25" s="6">
-        <v>-61.792998410000003</v>
+        <v>-60.353400059999998</v>
       </c>
       <c r="C25" s="6">
-        <v>-45.453901119999998</v>
+        <v>-45.482722770000002</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -1941,10 +1947,10 @@
         <v>21</v>
       </c>
       <c r="B26" s="6">
-        <v>-62.507469839999999</v>
+        <v>-61.036025979999998</v>
       </c>
       <c r="C26" s="6">
-        <v>-47.303131319999999</v>
+        <v>-47.341638089999996</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1952,10 +1958,10 @@
         <v>22</v>
       </c>
       <c r="B27" s="6">
-        <v>-63.138604659999999</v>
+        <v>-61.574376559999997</v>
       </c>
       <c r="C27" s="6">
-        <v>-49.077808040000001</v>
+        <v>-49.125146020000003</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -1963,10 +1969,10 @@
         <v>23</v>
       </c>
       <c r="B28" s="6">
-        <v>-63.692138669999999</v>
+        <v>-62.035588070000003</v>
       </c>
       <c r="C28" s="6">
-        <v>-50.70311641</v>
+        <v>-50.757609870000003</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1974,10 +1980,10 @@
         <v>24</v>
       </c>
       <c r="B29" s="6">
-        <v>-64.249029350000001</v>
+        <v>-62.494967780000003</v>
       </c>
       <c r="C29" s="6">
-        <v>-52.115476839999999</v>
+        <v>-52.175358170000003</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1985,10 +1991,10 @@
         <v>25</v>
       </c>
       <c r="B30" s="6">
-        <v>-64.798857859999998</v>
+        <v>-62.956984319999997</v>
       </c>
       <c r="C30" s="6">
-        <v>-53.254990900000003</v>
+        <v>-53.318078479999997</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -1996,10 +2002,10 @@
         <v>26</v>
       </c>
       <c r="B31" s="6">
-        <v>-65.321158749999995</v>
+        <v>-63.385476930000003</v>
       </c>
       <c r="C31" s="6">
-        <v>-54.088753140000001</v>
+        <v>-54.15196727</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -2007,10 +2013,425 @@
         <v>27</v>
       </c>
       <c r="B32" s="6">
-        <v>-65.835949240000005</v>
+        <v>-63.858102770000002</v>
       </c>
       <c r="C32" s="6">
-        <v>-54.630743340000002</v>
+        <v>-54.69039231</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <v>28</v>
+      </c>
+      <c r="B33" s="6">
+        <v>-64.413024969999995</v>
+      </c>
+      <c r="C33" s="6">
+        <v>-54.934569340000003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <v>29</v>
+      </c>
+      <c r="B34" s="6">
+        <v>-64.991824070000007</v>
+      </c>
+      <c r="C34" s="6">
+        <v>-54.881963599999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
+        <v>30</v>
+      </c>
+      <c r="B35" s="6">
+        <v>-65.653203599999998</v>
+      </c>
+      <c r="C35" s="6">
+        <v>-54.572685919999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="8">
+        <v>-43.177351840756252</v>
+      </c>
+      <c r="C36" s="8">
+        <v>-34.888916189312496</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="10"/>
+    </row>
+    <row r="39" spans="1:3" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F00F7CDB-E2F7-42FB-8E4C-712A9F309635}">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:E39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="19.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="6">
+        <v>5.4069184514000002</v>
+      </c>
+      <c r="C4" s="7">
+        <v>-8.9050473659999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="6">
+        <v>2.37319375</v>
+      </c>
+      <c r="C5" s="6">
+        <v>-19.794978459999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>1</v>
+      </c>
+      <c r="B6" s="6">
+        <v>-2.35371679</v>
+      </c>
+      <c r="C6" s="6">
+        <v>-6.639183472</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>2</v>
+      </c>
+      <c r="B7" s="6">
+        <v>-12.934701130000001</v>
+      </c>
+      <c r="C7" s="6">
+        <v>-8.9260524790000009</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>3</v>
+      </c>
+      <c r="B8" s="6">
+        <v>-19.97415548</v>
+      </c>
+      <c r="C8" s="6">
+        <v>-12.832645080000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>4</v>
+      </c>
+      <c r="B9" s="6">
+        <v>-23.36141718</v>
+      </c>
+      <c r="C9" s="6">
+        <v>-16.857665950000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>5</v>
+      </c>
+      <c r="B10" s="6">
+        <v>-26.713230490000001</v>
+      </c>
+      <c r="C10" s="6">
+        <v>-19.796963720000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>6</v>
+      </c>
+      <c r="B11" s="6">
+        <v>-31.213914580000001</v>
+      </c>
+      <c r="C11" s="6">
+        <v>-22.141197810000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>7</v>
+      </c>
+      <c r="B12" s="6">
+        <v>-35.071936430000001</v>
+      </c>
+      <c r="C12" s="6">
+        <v>-23.833215809999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>8</v>
+      </c>
+      <c r="B13" s="6">
+        <v>-37.632387629999997</v>
+      </c>
+      <c r="C13" s="6">
+        <v>-25.154644170000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>9</v>
+      </c>
+      <c r="B14" s="6">
+        <v>-39.872103250000002</v>
+      </c>
+      <c r="C14" s="6">
+        <v>-26.238820130000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>10</v>
+      </c>
+      <c r="B15" s="6">
+        <v>-41.871231889999997</v>
+      </c>
+      <c r="C15" s="6">
+        <v>-27.189217970000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>11</v>
+      </c>
+      <c r="B16" s="6">
+        <v>-44.309430540000001</v>
+      </c>
+      <c r="C16" s="6">
+        <v>-28.257803729999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>12</v>
+      </c>
+      <c r="B17" s="6">
+        <v>-47.56648946</v>
+      </c>
+      <c r="C17" s="6">
+        <v>-29.548414300000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>13</v>
+      </c>
+      <c r="B18" s="6">
+        <v>-51.069484750000001</v>
+      </c>
+      <c r="C18" s="6">
+        <v>-31.132498510000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>14</v>
+      </c>
+      <c r="B19" s="6">
+        <v>-54.464428939999998</v>
+      </c>
+      <c r="C19" s="6">
+        <v>-32.901003469999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>15</v>
+      </c>
+      <c r="B20" s="6">
+        <v>-57.549075340000002</v>
+      </c>
+      <c r="C20" s="6">
+        <v>-34.795199869999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>16</v>
+      </c>
+      <c r="B21" s="6">
+        <v>-60.243913120000002</v>
+      </c>
+      <c r="C21" s="6">
+        <v>-36.78972907</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>17</v>
+      </c>
+      <c r="B22" s="6">
+        <v>-62.562240760000002</v>
+      </c>
+      <c r="C22" s="6">
+        <v>-38.850998400000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>18</v>
+      </c>
+      <c r="B23" s="6">
+        <v>-64.466430939999995</v>
+      </c>
+      <c r="C23" s="6">
+        <v>-40.914266439999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>19</v>
+      </c>
+      <c r="B24" s="6">
+        <v>-66.032298119999993</v>
+      </c>
+      <c r="C24" s="6">
+        <v>-42.925040979999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>20</v>
+      </c>
+      <c r="B25" s="6">
+        <v>-67.192876929999997</v>
+      </c>
+      <c r="C25" s="6">
+        <v>-44.818083479999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>21</v>
+      </c>
+      <c r="B26" s="6">
+        <v>-68.111643880000003</v>
+      </c>
+      <c r="C26" s="6">
+        <v>-46.631318229999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>22</v>
+      </c>
+      <c r="B27" s="6">
+        <v>-68.932081030000006</v>
+      </c>
+      <c r="C27" s="6">
+        <v>-48.378785520000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>23</v>
+      </c>
+      <c r="B28" s="6">
+        <v>-69.679363550000005</v>
+      </c>
+      <c r="C28" s="6">
+        <v>-49.9887157</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>24</v>
+      </c>
+      <c r="B29" s="6">
+        <v>-70.388793120000003</v>
+      </c>
+      <c r="C29" s="6">
+        <v>-51.396031000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>25</v>
+      </c>
+      <c r="B30" s="6">
+        <v>-71.113094469999993</v>
+      </c>
+      <c r="C30" s="6">
+        <v>-52.539457319999997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <v>26</v>
+      </c>
+      <c r="B31" s="6">
+        <v>-71.765117129999993</v>
+      </c>
+      <c r="C31" s="6">
+        <v>-53.387141470000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <v>27</v>
+      </c>
+      <c r="B32" s="6">
+        <v>-72.390873580000004</v>
+      </c>
+      <c r="C32" s="6">
+        <v>-53.959905630000002</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -2018,10 +2439,10 @@
         <v>28</v>
       </c>
       <c r="B33" s="6">
-        <v>-66.429597860000001</v>
+        <v>-73.115541260000001</v>
       </c>
       <c r="C33" s="6">
-        <v>-54.882454289999998</v>
+        <v>-54.257519369999997</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -2029,10 +2450,10 @@
         <v>29</v>
       </c>
       <c r="B34" s="6">
-        <v>-67.028187279999997</v>
+        <v>-73.885373290000004</v>
       </c>
       <c r="C34" s="6">
-        <v>-54.841728379999999</v>
+        <v>-54.279599709999999</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -2040,10 +2461,10 @@
         <v>30</v>
       </c>
       <c r="B35" s="6">
-        <v>-67.757695569999996</v>
+        <v>-74.715274859999994</v>
       </c>
       <c r="C35" s="6">
-        <v>-54.54834915</v>
+        <v>-54.063435810000001</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -2051,10 +2472,10 @@
         <v>8</v>
       </c>
       <c r="B36" s="8">
-        <v>-45.036781870187504</v>
+        <v>-48.524140866206253</v>
       </c>
       <c r="C36" s="8">
-        <v>-34.848177606343747</v>
+        <v>-34.316393138343749</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -2079,7 +2500,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97A43502-C709-47ED-82F5-620B67AC7AF2}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:E39"/>
@@ -2505,7 +2926,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0334E61F-4137-42F1-8ADC-1EC55566A90B}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E39"/>
@@ -2931,7 +3352,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F25262A5-84B2-4BF6-AF4E-DBAA1AC8379B}">
   <sheetPr codeName="Sheet8">
     <tabColor rgb="FFFFFF00"/>
@@ -2947,7 +3368,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet7">
     <tabColor rgb="FFFFFF00"/>
@@ -2998,7 +3419,434 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD6F2835-1535-437B-92EC-248A6371515D}">
+  <sheetPr codeName="Sheet11"/>
+  <dimension ref="A1:E39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="19.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="6">
+        <v>-1.887906877</v>
+      </c>
+      <c r="C4" s="7">
+        <v>-8.6326097270000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="6">
+        <v>1.7783312499999999</v>
+      </c>
+      <c r="C5" s="6">
+        <v>-19.17339213</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>1</v>
+      </c>
+      <c r="B6" s="6">
+        <v>-6.8667596890000002</v>
+      </c>
+      <c r="C6" s="6">
+        <v>-6.6292665910000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>2</v>
+      </c>
+      <c r="B7" s="6">
+        <v>-14.837141600000001</v>
+      </c>
+      <c r="C7" s="6">
+        <v>-9.5367021649999995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>3</v>
+      </c>
+      <c r="B8" s="6">
+        <v>-20.829166480000001</v>
+      </c>
+      <c r="C8" s="6">
+        <v>-13.69393036</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>4</v>
+      </c>
+      <c r="B9" s="6">
+        <v>-22.76229987</v>
+      </c>
+      <c r="C9" s="6">
+        <v>-17.806993559999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>5</v>
+      </c>
+      <c r="B10" s="6">
+        <v>-24.877004639999999</v>
+      </c>
+      <c r="C10" s="6">
+        <v>-20.803627909999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>6</v>
+      </c>
+      <c r="B11" s="6">
+        <v>-28.76618663</v>
+      </c>
+      <c r="C11" s="6">
+        <v>-23.199092140000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>7</v>
+      </c>
+      <c r="B12" s="6">
+        <v>-32.13687204</v>
+      </c>
+      <c r="C12" s="6">
+        <v>-24.827642269999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>8</v>
+      </c>
+      <c r="B13" s="6">
+        <v>-34.36064159</v>
+      </c>
+      <c r="C13" s="6">
+        <v>-25.966189230000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>9</v>
+      </c>
+      <c r="B14" s="6">
+        <v>-36.217203499999997</v>
+      </c>
+      <c r="C14" s="6">
+        <v>-26.83723874</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>10</v>
+      </c>
+      <c r="B15" s="6">
+        <v>-37.636845530000002</v>
+      </c>
+      <c r="C15" s="6">
+        <v>-27.58993267</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>11</v>
+      </c>
+      <c r="B16" s="6">
+        <v>-39.932199699999998</v>
+      </c>
+      <c r="C16" s="6">
+        <v>-28.524672379999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>12</v>
+      </c>
+      <c r="B17" s="6">
+        <v>-43.440759329999999</v>
+      </c>
+      <c r="C17" s="6">
+        <v>-29.76895309</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>13</v>
+      </c>
+      <c r="B18" s="6">
+        <v>-47.18283701</v>
+      </c>
+      <c r="C18" s="6">
+        <v>-31.36868042</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>14</v>
+      </c>
+      <c r="B19" s="6">
+        <v>-50.577111940000002</v>
+      </c>
+      <c r="C19" s="6">
+        <v>-33.190270419999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>15</v>
+      </c>
+      <c r="B20" s="6">
+        <v>-53.492839099999998</v>
+      </c>
+      <c r="C20" s="6">
+        <v>-35.153061600000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>16</v>
+      </c>
+      <c r="B21" s="6">
+        <v>-56.023917300000001</v>
+      </c>
+      <c r="C21" s="6">
+        <v>-37.218337740000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>17</v>
+      </c>
+      <c r="B22" s="6">
+        <v>-58.055090569999997</v>
+      </c>
+      <c r="C22" s="6">
+        <v>-39.341179740000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>18</v>
+      </c>
+      <c r="B23" s="6">
+        <v>-59.645390429999999</v>
+      </c>
+      <c r="C23" s="6">
+        <v>-41.460715399999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>19</v>
+      </c>
+      <c r="B24" s="6">
+        <v>-60.875489780000002</v>
+      </c>
+      <c r="C24" s="6">
+        <v>-43.518742189999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>20</v>
+      </c>
+      <c r="B25" s="6">
+        <v>-61.792998410000003</v>
+      </c>
+      <c r="C25" s="6">
+        <v>-45.453901119999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>21</v>
+      </c>
+      <c r="B26" s="6">
+        <v>-62.507469839999999</v>
+      </c>
+      <c r="C26" s="6">
+        <v>-47.303131319999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>22</v>
+      </c>
+      <c r="B27" s="6">
+        <v>-63.138604659999999</v>
+      </c>
+      <c r="C27" s="6">
+        <v>-49.077808040000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>23</v>
+      </c>
+      <c r="B28" s="6">
+        <v>-63.692138669999999</v>
+      </c>
+      <c r="C28" s="6">
+        <v>-50.70311641</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>24</v>
+      </c>
+      <c r="B29" s="6">
+        <v>-64.249029350000001</v>
+      </c>
+      <c r="C29" s="6">
+        <v>-52.115476839999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>25</v>
+      </c>
+      <c r="B30" s="6">
+        <v>-64.798857859999998</v>
+      </c>
+      <c r="C30" s="6">
+        <v>-53.254990900000003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <v>26</v>
+      </c>
+      <c r="B31" s="6">
+        <v>-65.321158749999995</v>
+      </c>
+      <c r="C31" s="6">
+        <v>-54.088753140000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <v>27</v>
+      </c>
+      <c r="B32" s="6">
+        <v>-65.835949240000005</v>
+      </c>
+      <c r="C32" s="6">
+        <v>-54.630743340000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <v>28</v>
+      </c>
+      <c r="B33" s="6">
+        <v>-66.429597860000001</v>
+      </c>
+      <c r="C33" s="6">
+        <v>-54.882454289999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <v>29</v>
+      </c>
+      <c r="B34" s="6">
+        <v>-67.028187279999997</v>
+      </c>
+      <c r="C34" s="6">
+        <v>-54.841728379999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
+        <v>30</v>
+      </c>
+      <c r="B35" s="6">
+        <v>-67.757695569999996</v>
+      </c>
+      <c r="C35" s="6">
+        <v>-54.54834915</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="8">
+        <v>-45.036781870187504</v>
+      </c>
+      <c r="C36" s="8">
+        <v>-34.848177606343747</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A39:E39"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6379604C-B6E6-4443-AAC4-03BC4BA7C7BE}">
+  <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3422,8 +4270,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B53624B2-29FC-4CB9-A7C6-D02151E5E76D}">
+  <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3847,7 +4696,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF1BF4C2-4434-4B4D-94BE-B91D2B1C25FB}">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:E39"/>
@@ -4273,7 +5122,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6CB6296-F480-49B2-B4EA-61908574360C}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:E39"/>
@@ -4699,7 +5548,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CE138FB-FABF-4565-91D3-7A1FC3DB0D62}">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:E39"/>
@@ -5125,7 +5974,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68A65C64-A2BC-4A28-9AE0-4ADFC897F100}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:E39"/>
@@ -5551,7 +6400,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36971AA9-8593-40CA-AF5E-AB605D9DEDA6}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E39"/>
@@ -5975,430 +6824,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F00F7CDB-E2F7-42FB-8E4C-712A9F309635}">
-  <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:E39"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="3" width="19.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="6">
-        <v>5.4069184514000002</v>
-      </c>
-      <c r="C4" s="7">
-        <v>-8.9050473659999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="6">
-        <v>2.37319375</v>
-      </c>
-      <c r="C5" s="6">
-        <v>-19.794978459999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <v>1</v>
-      </c>
-      <c r="B6" s="6">
-        <v>-2.35371679</v>
-      </c>
-      <c r="C6" s="6">
-        <v>-6.639183472</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
-        <v>2</v>
-      </c>
-      <c r="B7" s="6">
-        <v>-12.934701130000001</v>
-      </c>
-      <c r="C7" s="6">
-        <v>-8.9260524790000009</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <v>3</v>
-      </c>
-      <c r="B8" s="6">
-        <v>-19.97415548</v>
-      </c>
-      <c r="C8" s="6">
-        <v>-12.832645080000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <v>4</v>
-      </c>
-      <c r="B9" s="6">
-        <v>-23.36141718</v>
-      </c>
-      <c r="C9" s="6">
-        <v>-16.857665950000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <v>5</v>
-      </c>
-      <c r="B10" s="6">
-        <v>-26.713230490000001</v>
-      </c>
-      <c r="C10" s="6">
-        <v>-19.796963720000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <v>6</v>
-      </c>
-      <c r="B11" s="6">
-        <v>-31.213914580000001</v>
-      </c>
-      <c r="C11" s="6">
-        <v>-22.141197810000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <v>7</v>
-      </c>
-      <c r="B12" s="6">
-        <v>-35.071936430000001</v>
-      </c>
-      <c r="C12" s="6">
-        <v>-23.833215809999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
-        <v>8</v>
-      </c>
-      <c r="B13" s="6">
-        <v>-37.632387629999997</v>
-      </c>
-      <c r="C13" s="6">
-        <v>-25.154644170000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
-        <v>9</v>
-      </c>
-      <c r="B14" s="6">
-        <v>-39.872103250000002</v>
-      </c>
-      <c r="C14" s="6">
-        <v>-26.238820130000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
-        <v>10</v>
-      </c>
-      <c r="B15" s="6">
-        <v>-41.871231889999997</v>
-      </c>
-      <c r="C15" s="6">
-        <v>-27.189217970000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
-        <v>11</v>
-      </c>
-      <c r="B16" s="6">
-        <v>-44.309430540000001</v>
-      </c>
-      <c r="C16" s="6">
-        <v>-28.257803729999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
-        <v>12</v>
-      </c>
-      <c r="B17" s="6">
-        <v>-47.56648946</v>
-      </c>
-      <c r="C17" s="6">
-        <v>-29.548414300000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
-        <v>13</v>
-      </c>
-      <c r="B18" s="6">
-        <v>-51.069484750000001</v>
-      </c>
-      <c r="C18" s="6">
-        <v>-31.132498510000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
-        <v>14</v>
-      </c>
-      <c r="B19" s="6">
-        <v>-54.464428939999998</v>
-      </c>
-      <c r="C19" s="6">
-        <v>-32.901003469999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
-        <v>15</v>
-      </c>
-      <c r="B20" s="6">
-        <v>-57.549075340000002</v>
-      </c>
-      <c r="C20" s="6">
-        <v>-34.795199869999998</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
-        <v>16</v>
-      </c>
-      <c r="B21" s="6">
-        <v>-60.243913120000002</v>
-      </c>
-      <c r="C21" s="6">
-        <v>-36.78972907</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
-        <v>17</v>
-      </c>
-      <c r="B22" s="6">
-        <v>-62.562240760000002</v>
-      </c>
-      <c r="C22" s="6">
-        <v>-38.850998400000002</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
-        <v>18</v>
-      </c>
-      <c r="B23" s="6">
-        <v>-64.466430939999995</v>
-      </c>
-      <c r="C23" s="6">
-        <v>-40.914266439999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
-        <v>19</v>
-      </c>
-      <c r="B24" s="6">
-        <v>-66.032298119999993</v>
-      </c>
-      <c r="C24" s="6">
-        <v>-42.925040979999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
-        <v>20</v>
-      </c>
-      <c r="B25" s="6">
-        <v>-67.192876929999997</v>
-      </c>
-      <c r="C25" s="6">
-        <v>-44.818083479999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
-        <v>21</v>
-      </c>
-      <c r="B26" s="6">
-        <v>-68.111643880000003</v>
-      </c>
-      <c r="C26" s="6">
-        <v>-46.631318229999998</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
-        <v>22</v>
-      </c>
-      <c r="B27" s="6">
-        <v>-68.932081030000006</v>
-      </c>
-      <c r="C27" s="6">
-        <v>-48.378785520000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
-        <v>23</v>
-      </c>
-      <c r="B28" s="6">
-        <v>-69.679363550000005</v>
-      </c>
-      <c r="C28" s="6">
-        <v>-49.9887157</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
-        <v>24</v>
-      </c>
-      <c r="B29" s="6">
-        <v>-70.388793120000003</v>
-      </c>
-      <c r="C29" s="6">
-        <v>-51.396031000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
-        <v>25</v>
-      </c>
-      <c r="B30" s="6">
-        <v>-71.113094469999993</v>
-      </c>
-      <c r="C30" s="6">
-        <v>-52.539457319999997</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="5">
-        <v>26</v>
-      </c>
-      <c r="B31" s="6">
-        <v>-71.765117129999993</v>
-      </c>
-      <c r="C31" s="6">
-        <v>-53.387141470000003</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="5">
-        <v>27</v>
-      </c>
-      <c r="B32" s="6">
-        <v>-72.390873580000004</v>
-      </c>
-      <c r="C32" s="6">
-        <v>-53.959905630000002</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="5">
-        <v>28</v>
-      </c>
-      <c r="B33" s="6">
-        <v>-73.115541260000001</v>
-      </c>
-      <c r="C33" s="6">
-        <v>-54.257519369999997</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="5">
-        <v>29</v>
-      </c>
-      <c r="B34" s="6">
-        <v>-73.885373290000004</v>
-      </c>
-      <c r="C34" s="6">
-        <v>-54.279599709999999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="5">
-        <v>30</v>
-      </c>
-      <c r="B35" s="6">
-        <v>-74.715274859999994</v>
-      </c>
-      <c r="C35" s="6">
-        <v>-54.063435810000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B36" s="8">
-        <v>-48.524140866206253</v>
-      </c>
-      <c r="C36" s="8">
-        <v>-34.316393138343749</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A39:E39"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>